--- a/stats/hw3/Kumar_Navarurh_HW3.xlsx
+++ b/stats/hw3/Kumar_Navarurh_HW3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navar\OneDrive\Documents\UTD\assignments\stats\hw3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5B05C9B7-E20E-467D-A4ED-63E94C774187}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D86E0208-A997-4423-9BBF-95EEBEFF4A7D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explanation:  </t>
   </si>
   <si>
     <t>Mean of Sample means</t>
@@ -276,9 +273,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sample Std dev </t>
-  </si>
-  <si>
-    <t>How do the probabilities compare?</t>
   </si>
   <si>
     <t>OPRE 6301 HW 3</t>
@@ -1071,15 +1065,22 @@
   <si>
     <t xml:space="preserve">NAME:                               Navarurh Kumar                                                                        </t>
   </si>
+  <si>
+    <t>How do the probabilities compare? The probabilities from the NORM.DIST calculations and from the data itself are very close though not exactly the same. It is a good meaasure using the normal distriubtion as a probability distribution if the given distribution is close to normal in its form.</t>
+  </si>
+  <si>
+    <t>Explanation:  The population mean and the mean of sample means are very close in value. This shows that the expected value of the sample mean is the population mean. The sigma-xbar value is also close but not too close to the standard deviation of the sample means. These two values should be closer but the approximation based on population size to get the standard deviation for the sample means will always be a little off from the exact value.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode=";;;"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="173" formatCode="0.0000"/>
   </numFmts>
   <fonts count="38" x14ac:knownFonts="1">
     <font>
@@ -1948,7 +1949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -2045,20 +2046,8 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2066,35 +2055,11 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2157,34 +2122,13 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2234,6 +2178,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2328,25 +2290,70 @@
     <xf numFmtId="0" fontId="29" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="21" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="21" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="21" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="21" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="21" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="21" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="21" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="21" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="21" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="21" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="21" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="21" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="21" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="21" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="21" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="21" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2796,43 +2803,43 @@
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
+      <c r="B2" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
     </row>
     <row r="3" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
+      <c r="C4" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -2863,13 +2870,13 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
+      <c r="C7" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
@@ -2902,7 +2909,7 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2915,7 +2922,7 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2928,7 +2935,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2941,7 +2948,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2954,7 +2961,7 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -3004,7 +3011,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
@@ -3175,9 +3182,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3693,17 +3698,17 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:3" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="95" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="95"/>
+      <c r="B3" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="78"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="41"/>
@@ -3712,471 +3717,553 @@
       <c r="A5" s="42">
         <v>1</v>
       </c>
-      <c r="B5" s="92" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="93"/>
+      <c r="B5" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="77"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="45">
+        <v>34</v>
+      </c>
+      <c r="B6" s="133" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="134">
         <f>_xlfn.NORM.DIST(65.43,59.23,5.89,FALSE)</f>
         <v>3.8921396097019632E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="45">
+        <v>35</v>
+      </c>
+      <c r="B7" s="133" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="134">
         <f>_xlfn.NORM.DIST(66.89,59.23,5.89,TRUE)-_xlfn.NORM.DIST(56.31,59.23,5.89,TRUE)</f>
         <v>0.59325331500473555</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="45">
+        <v>36</v>
+      </c>
+      <c r="B8" s="133" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="134">
         <f>_xlfn.NORM.DIST(70.16,59.23,5.89,TRUE)-_xlfn.NORM.DIST(63.43,59.23,5.89,TRUE)</f>
         <v>0.20615124224044179</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="48">
+      <c r="A9" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="136">
         <f>_xlfn.NORM.DIST(65.14,59.23,5.89,TRUE)</f>
         <v>0.8421649834510132</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+    </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="49">
+      <c r="A12" s="45">
         <v>2</v>
       </c>
-      <c r="B12" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="96"/>
+      <c r="B12" s="138" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="138"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="45">
+        <v>34</v>
+      </c>
+      <c r="B13" s="133" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="134">
         <f>1-_xlfn.NORM.S.DIST(1.324,TRUE)</f>
         <v>9.2751522356752769E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="45">
+        <v>35</v>
+      </c>
+      <c r="B14" s="133" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="134">
         <f>_xlfn.NORM.S.DIST(2.41,TRUE)</f>
         <v>0.99202373973926627</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="45">
+        <v>36</v>
+      </c>
+      <c r="B15" s="133" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="134">
         <f>1-_xlfn.NORM.S.DIST(-1.31,TRUE)</f>
         <v>0.90490208220476098</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="48">
+      <c r="A16" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="135" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="136">
         <f>_xlfn.NORM.S.DIST(1.69,TRUE)-_xlfn.NORM.S.DIST(-1.37,TRUE)</f>
         <v>0.86914257185648325</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="137"/>
+      <c r="C18" s="137"/>
+    </row>
     <row r="19" spans="1:3" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49">
+      <c r="A19" s="45">
         <v>3</v>
       </c>
-      <c r="B19" s="94" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="94"/>
+      <c r="B19" s="139" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="139"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="45">
+        <v>34</v>
+      </c>
+      <c r="B20" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="134">
         <f>_xlfn.NORM.INV(0.85,81.6,8.28)</f>
         <v>90.18166846500857</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="45">
+        <v>35</v>
+      </c>
+      <c r="B21" s="133" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="134">
         <f>_xlfn.NORM.INV(0.095,81.6,8.28)</f>
         <v>70.748404951247878</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="48">
+      <c r="A22" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="135" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="136">
         <f>_xlfn.NORM.INV(0.25,81.6,8.28)</f>
         <v>76.015224868376436</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="137"/>
+      <c r="C23" s="137"/>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="137"/>
+      <c r="C24" s="137"/>
+    </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="50">
+      <c r="A25" s="46">
         <v>4</v>
       </c>
-      <c r="B25" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="52"/>
+      <c r="B25" s="140" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="141"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="45">
+        <v>34</v>
+      </c>
+      <c r="B26" s="133" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="134">
         <f>_xlfn.NORM.S.INV(1-0.0644)</f>
         <v>1.5188510207666142</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="45">
+        <v>35</v>
+      </c>
+      <c r="B27" s="133" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="134">
         <f>_xlfn.NORM.S.INV(0.0386)</f>
         <v>-1.7671685799082539</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="45">
+        <v>36</v>
+      </c>
+      <c r="B28" s="133" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="134">
         <f>_xlfn.NORM.S.INV(1-0.094)</f>
         <v>1.316518718418261</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="48">
+      <c r="A29" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="135" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="136">
         <f>_xlfn.NORM.S.INV(0.1039)</f>
         <v>-1.2596379466580332</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="137"/>
+      <c r="C30" s="137"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="137"/>
+      <c r="C31" s="137"/>
+    </row>
     <row r="32" spans="1:3" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="50">
+      <c r="A32" s="46">
         <v>5</v>
       </c>
-      <c r="B32" s="97" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="93"/>
+      <c r="B32" s="142" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="143"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="55">
+      <c r="A33" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="144" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="145">
         <f>45*0.3974</f>
         <v>17.882999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="55">
+      <c r="A34" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="144" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="145">
         <f>45*(1-0.3974)</f>
         <v>27.117000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="45">
+        <v>36</v>
+      </c>
+      <c r="B35" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="134">
         <f>_xlfn.BINOM.DIST(30,45,0.3974,FALSE)</f>
         <v>1.6403063582651875E-4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="45">
+      <c r="C36" s="134">
         <f>_xlfn.BINOM.DIST(28,45,1-0.3974,TRUE)</f>
         <v>0.65979862889616125</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="45">
+        <v>44</v>
+      </c>
+      <c r="B37" s="133" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="134">
         <f>1-_xlfn.BINOM.DIST(29,45,0.3974,TRUE)</f>
         <v>2.3654176306364683E-4</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="48">
+      <c r="A38" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="135" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="136">
         <f>_xlfn.BINOM.DIST(34,45,0.3974,TRUE)-_xlfn.BINOM.DIST(25,45,0.3974,TRUE)</f>
         <v>1.0886211977272131E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="137"/>
+      <c r="C39" s="137"/>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="137"/>
+      <c r="C40" s="137"/>
+    </row>
     <row r="41" spans="1:3" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="50">
+      <c r="A41" s="46">
         <v>6</v>
       </c>
-      <c r="B41" s="97" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="93"/>
+      <c r="B41" s="142" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="143"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="144" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="145">
+        <f>47*0.4573</f>
+        <v>21.493099999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="55"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="55"/>
+      <c r="B43" s="144" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="145">
+        <f>SQRT(C42*(1-0.4573))</f>
+        <v>3.4153045793896624</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="45"/>
+        <v>36</v>
+      </c>
+      <c r="B44" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="134">
+        <f>_xlfn.NORM.DIST(30.5,C42,C43,TRUE)-_xlfn.NORM.DIST(29.5,C42,C43,TRUE)</f>
+        <v>5.348947209984245E-3</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="45"/>
+      <c r="C45" s="134">
+        <f>1-_xlfn.NORM.DIST(28.5,C42,C43,TRUE)</f>
+        <v>2.010340572809266E-2</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="133" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="134">
+        <f>1-_xlfn.NORM.DIST(29.5,C42,C43,TRUE)</f>
+        <v>9.528411684238014E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="B47" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="45"/>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="48"/>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="C47" s="136">
+        <f>_xlfn.NORM.DIST(34.5,C42,C43,TRUE)-_xlfn.NORM.DIST(25.5,C42,C43,TRUE)</f>
+        <v>0.12028408045573502</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="137"/>
+      <c r="C48" s="137"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="137"/>
+      <c r="C49" s="137"/>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="137"/>
+      <c r="C50" s="137"/>
+    </row>
     <row r="51" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="50">
+      <c r="A51" s="46">
         <v>7</v>
       </c>
-      <c r="B51" s="88" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" s="89"/>
+      <c r="B51" s="146" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="147"/>
     </row>
     <row r="52" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B52" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" s="45">
+        <v>34</v>
+      </c>
+      <c r="B52" s="133" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="134">
         <f>_xlfn.T.INV(0.043,37)*-1</f>
         <v>1.7639292471321455</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="45">
+        <v>35</v>
+      </c>
+      <c r="B53" s="133" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="134">
         <f>_xlfn.T.INV(0.086,37)</f>
         <v>-1.3927783049047699</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="B54" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54" s="58">
+      <c r="A54" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="148" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="149">
         <f>_xlfn.T.INV(0.39,37)*-1</f>
         <v>0.28136246748154836</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="45">
+        <v>37</v>
+      </c>
+      <c r="B55" s="150" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="134">
         <f>82+7.5*_xlfn.T.INV(0.1,37)*-1</f>
         <v>91.786407861232192</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B56" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="48">
+      <c r="A56" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" s="151" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="136">
         <f>82+7.5*_xlfn.T.INV(0.05,37)</f>
         <v>69.346797853028022</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="137"/>
+      <c r="C57" s="137"/>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="137"/>
+      <c r="C58" s="137"/>
+    </row>
     <row r="59" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="50">
+      <c r="A59" s="46">
         <v>8</v>
       </c>
-      <c r="B59" s="90" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59" s="91"/>
+      <c r="B59" s="152" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="153"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="45"/>
+        <v>34</v>
+      </c>
+      <c r="B60" s="133" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="134">
+        <f>1-_xlfn.EXPON.DIST(5.9,1/4.7,TRUE)</f>
+        <v>0.28498488108756947</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="133" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="134">
+        <f>_xlfn.EXPON.DIST(3.2,1/4.7,TRUE)</f>
+        <v>0.49381398761042034</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B61" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="C61" s="45"/>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B62" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" s="48"/>
+      <c r="B62" s="135" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="136">
+        <f>_xlfn.EXPON.DIST(6.9,1/4.7,TRUE)-_xlfn.EXPON.DIST(3.4,1/4.7,TRUE)</f>
+        <v>0.25473185443321089</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4199,7 +4286,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z516"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -4784,31 +4871,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="100"/>
+      <c r="A1" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81"/>
     </row>
     <row r="2" spans="1:19" ht="152.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="101" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="104"/>
+      <c r="B2" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="85"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15"/>
@@ -4827,118 +4914,118 @@
       <c r="O3" s="15"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="105" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="107"/>
+      <c r="B4" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="88"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="108"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="110"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="91"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="108"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="110"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="91"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="108"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="109"/>
-      <c r="O7" s="110"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="91"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="108"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="110"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="91"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="108"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="110"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="91"/>
     </row>
     <row r="10" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="111"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="113"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="94"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B11" s="15"/>
@@ -4989,25 +5076,25 @@
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="R13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="R13" s="19" t="s">
+      <c r="S13" s="20" t="s">
         <v>13</v>
-      </c>
-      <c r="S13" s="20" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="21">
         <f>AVERAGE(B17:B516)</f>
         <v>79.767853350931546</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="23">
         <f>AVERAGE(E17:E46)</f>
@@ -5062,24 +5149,24 @@
         <v>79.878017939004664</v>
       </c>
       <c r="R14" s="25">
-        <f>AVERAGE(E15:P15)</f>
-        <v>7.4183883630816014</v>
+        <f>_xlfn.STDEV.S(E14:P14)</f>
+        <v>0.93958535301527346</v>
       </c>
       <c r="S14" s="26">
-        <f>R14/SQRT(30)</f>
-        <v>1.3544062155978724</v>
+        <f>B15/SQRT(30)</f>
+        <v>1.4437539443074523</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="27">
         <f>_xlfn.STDEV.P(B17:B516)</f>
         <v>7.9077660278424897</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="29">
         <f>_xlfn.STDEV.S(E17:E46)</f>
@@ -5132,44 +5219,44 @@
     </row>
     <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="G16" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="H16" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="I16" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="J16" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="K16" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="L16" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="35" t="s">
+      <c r="M16" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="35" t="s">
+      <c r="N16" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="35" t="s">
+      <c r="O16" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="O16" s="35" t="s">
+      <c r="P16" s="35" t="s">
         <v>26</v>
-      </c>
-      <c r="P16" s="35" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -6219,7 +6306,7 @@
         <v>73.582405295455828</v>
       </c>
       <c r="Z41" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -8794,454 +8881,452 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N1117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:H32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="65" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="65" customWidth="1"/>
-    <col min="3" max="5" width="11.375" style="65" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" style="65" customWidth="1"/>
-    <col min="7" max="9" width="9" style="65"/>
-    <col min="10" max="10" width="15.75" style="65" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="65"/>
+    <col min="1" max="1" width="10.75" style="53" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="53" customWidth="1"/>
+    <col min="3" max="5" width="11.375" style="53" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="53" customWidth="1"/>
+    <col min="7" max="9" width="9" style="53"/>
+    <col min="10" max="10" width="15.75" style="53" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="64" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63"/>
+    <row r="1" spans="1:11" s="52" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="3" spans="1:11" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="145" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
+      <c r="A3" s="95" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
     </row>
     <row r="4" spans="1:11" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="145"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
     </row>
     <row r="5" spans="1:11" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="145"/>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
     </row>
     <row r="6" spans="1:11" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="145"/>
-      <c r="B6" s="145"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
     </row>
     <row r="7" spans="1:11" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="145"/>
-      <c r="B7" s="145"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
     </row>
     <row r="8" spans="1:11" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="145"/>
-      <c r="B8" s="145"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
     </row>
     <row r="9" spans="1:11" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="145"/>
-      <c r="B9" s="145"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="145"/>
+      <c r="A9" s="95"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
     </row>
     <row r="10" spans="1:11" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="145"/>
-      <c r="B10" s="145"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="145"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
     </row>
     <row r="11" spans="1:11" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="145"/>
-      <c r="B11" s="145"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
+      <c r="A11" s="95"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
     </row>
     <row r="12" spans="1:11" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="145"/>
-      <c r="B12" s="145"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
     </row>
     <row r="13" spans="1:11" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="145"/>
-      <c r="B13" s="145"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
     </row>
     <row r="14" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="145"/>
-      <c r="B14" s="145"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
     </row>
     <row r="15" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="145"/>
-      <c r="B15" s="145"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
+      <c r="A15" s="95"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="K16" s="75"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="K16" s="63"/>
     </row>
     <row r="17" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="146" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="147"/>
-      <c r="C17" s="67">
+      <c r="A17" s="96" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="97"/>
+      <c r="C17" s="55">
         <f>AVERAGE(A21:A1020)</f>
         <v>100.37720265027019</v>
       </c>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
     </row>
     <row r="18" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="148" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="149"/>
-      <c r="C18" s="74">
+      <c r="A18" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="99"/>
+      <c r="C18" s="62">
         <f>_xlfn.STDEV.P(A21:A1020)</f>
         <v>19.990448608397784</v>
       </c>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
     </row>
     <row r="19" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="150" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="N19" s="68"/>
+      <c r="C19" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="N19" s="56"/>
     </row>
     <row r="20" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="79" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="70" t="s">
-        <v>84</v>
+      <c r="A20" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="58" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>144.99161150306463</v>
       </c>
-      <c r="B21" s="115" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="141">
+      <c r="B21" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="128">
         <f>COUNTIF(A21:A1020,"&gt;=128")</f>
         <v>89</v>
       </c>
-      <c r="D21" s="141">
+      <c r="D21" s="128">
         <f>COUNTIF(A21:A1020,"&gt;=115")</f>
         <v>231</v>
       </c>
-      <c r="E21" s="141">
+      <c r="E21" s="128">
         <f>COUNTIF(A21:A1020,"&lt;=107")</f>
         <v>626</v>
       </c>
-      <c r="F21" s="143">
+      <c r="F21" s="130">
         <f>COUNTIF(A21:A1020,"&lt;=90")</f>
         <v>306</v>
       </c>
-      <c r="G21" s="132" t="s">
-        <v>94</v>
-      </c>
-      <c r="H21" s="133"/>
-      <c r="I21" s="133"/>
-      <c r="J21" s="134"/>
+      <c r="G21" s="119" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="121"/>
     </row>
     <row r="22" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>134.90567905828357</v>
       </c>
-      <c r="B22" s="118"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="137"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="124"/>
     </row>
     <row r="23" spans="1:14" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>127.59470589808188</v>
       </c>
-      <c r="B23" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="72">
+      <c r="B23" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="60">
         <f>C21/1000</f>
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="D23" s="72">
+      <c r="D23" s="60">
         <f>D21/1000</f>
         <v>0.23100000000000001</v>
       </c>
-      <c r="E23" s="72">
+      <c r="E23" s="60">
         <f t="shared" ref="E23:F23" si="0">E21/1000</f>
         <v>0.626</v>
       </c>
-      <c r="F23" s="72">
+      <c r="F23" s="60">
         <f t="shared" si="0"/>
         <v>0.30599999999999999</v>
       </c>
-      <c r="G23" s="135"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="137"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="124"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>140.5634636990726</v>
       </c>
-      <c r="B24" s="123" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="126">
+      <c r="B24" s="110" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="113">
         <f>1-_xlfn.NORM.DIST(128,C17,C18,TRUE)+_xlfn.NORM.DIST(128,C17,C18,FALSE)</f>
         <v>9.1198570722352129E-2</v>
       </c>
-      <c r="D24" s="126">
+      <c r="D24" s="113">
         <f>1-_xlfn.NORM.DIST(115,C17,C18,TRUE)+_xlfn.NORM.DIST(115,C17,C18,FALSE)</f>
         <v>0.24751224146086154</v>
       </c>
-      <c r="E24" s="126">
+      <c r="E24" s="113">
         <f>_xlfn.NORM.DIST(107,C17,C18,TRUE)</f>
         <v>0.62979033131083306</v>
       </c>
-      <c r="F24" s="129">
+      <c r="F24" s="116">
         <f>_xlfn.NORM.DIST(90,C17,C18,TRUE)</f>
         <v>0.30184270003610092</v>
       </c>
-      <c r="G24" s="135"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="137"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="124"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>120.6009644898586</v>
       </c>
-      <c r="B25" s="124"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="136"/>
-      <c r="I25" s="136"/>
-      <c r="J25" s="137"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="124"/>
     </row>
     <row r="26" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>42.08774296566844</v>
       </c>
-      <c r="B26" s="125"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="140"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="127"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>132.56054696976207</v>
       </c>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>89.79865267756395</v>
       </c>
-      <c r="B28" s="114" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="B28" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>125.73815436335281</v>
       </c>
-      <c r="B29" s="117"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>121.08818080159836</v>
       </c>
-      <c r="B30" s="117"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="118"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>67.542680678889155</v>
       </c>
-      <c r="B31" s="117"/>
-      <c r="C31" s="118"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
     </row>
     <row r="32" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>131.43832145724446</v>
       </c>
-      <c r="B32" s="120"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="122"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -14184,303 +14269,298 @@
       </c>
     </row>
     <row r="1021" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1021" s="77"/>
+      <c r="A1021" s="65"/>
     </row>
     <row r="1022" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1022" s="77"/>
+      <c r="A1022" s="65"/>
     </row>
     <row r="1023" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1023" s="77"/>
+      <c r="A1023" s="65"/>
     </row>
     <row r="1024" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1024" s="77"/>
+      <c r="A1024" s="65"/>
     </row>
     <row r="1025" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1025" s="77"/>
+      <c r="A1025" s="65"/>
     </row>
     <row r="1026" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1026" s="77"/>
+      <c r="A1026" s="65"/>
     </row>
     <row r="1027" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1027" s="77"/>
+      <c r="A1027" s="65"/>
     </row>
     <row r="1028" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1028" s="77"/>
+      <c r="A1028" s="65"/>
     </row>
     <row r="1029" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1029" s="77"/>
+      <c r="A1029" s="65"/>
     </row>
     <row r="1030" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1030" s="77"/>
+      <c r="A1030" s="65"/>
     </row>
     <row r="1031" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1031" s="77"/>
+      <c r="A1031" s="65"/>
     </row>
     <row r="1032" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1032" s="77"/>
+      <c r="A1032" s="65"/>
     </row>
     <row r="1033" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1033" s="77"/>
+      <c r="A1033" s="65"/>
     </row>
     <row r="1034" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1034" s="77"/>
+      <c r="A1034" s="65"/>
     </row>
     <row r="1035" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1035" s="77"/>
+      <c r="A1035" s="65"/>
     </row>
     <row r="1036" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1036" s="77"/>
+      <c r="A1036" s="65"/>
     </row>
     <row r="1037" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1037" s="77"/>
+      <c r="A1037" s="65"/>
     </row>
     <row r="1038" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1038" s="77"/>
+      <c r="A1038" s="65"/>
     </row>
     <row r="1039" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1039" s="77"/>
+      <c r="A1039" s="65"/>
     </row>
     <row r="1040" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1040" s="77"/>
+      <c r="A1040" s="65"/>
     </row>
     <row r="1041" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1041" s="77"/>
+      <c r="A1041" s="65"/>
     </row>
     <row r="1042" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1042" s="77"/>
+      <c r="A1042" s="65"/>
     </row>
     <row r="1043" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1043" s="77"/>
+      <c r="A1043" s="65"/>
     </row>
     <row r="1044" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1044" s="77"/>
+      <c r="A1044" s="65"/>
     </row>
     <row r="1045" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1045" s="77"/>
+      <c r="A1045" s="65"/>
     </row>
     <row r="1046" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1046" s="77"/>
+      <c r="A1046" s="65"/>
     </row>
     <row r="1047" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1047" s="77"/>
+      <c r="A1047" s="65"/>
     </row>
     <row r="1048" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1048" s="77"/>
+      <c r="A1048" s="65"/>
     </row>
     <row r="1049" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1049" s="77"/>
+      <c r="A1049" s="65"/>
     </row>
     <row r="1050" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1050" s="77"/>
+      <c r="A1050" s="65"/>
     </row>
     <row r="1051" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1051" s="77"/>
+      <c r="A1051" s="65"/>
     </row>
     <row r="1052" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1052" s="77"/>
+      <c r="A1052" s="65"/>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1053" s="78"/>
+      <c r="A1053" s="66"/>
     </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1054" s="78"/>
+      <c r="A1054" s="66"/>
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1055" s="78"/>
+      <c r="A1055" s="66"/>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1056" s="78"/>
+      <c r="A1056" s="66"/>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1057" s="78"/>
+      <c r="A1057" s="66"/>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1058" s="78"/>
+      <c r="A1058" s="66"/>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1059" s="78"/>
+      <c r="A1059" s="66"/>
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1060" s="78"/>
+      <c r="A1060" s="66"/>
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1061" s="78"/>
+      <c r="A1061" s="66"/>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1062" s="78"/>
+      <c r="A1062" s="66"/>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1063" s="78"/>
+      <c r="A1063" s="66"/>
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1064" s="78"/>
+      <c r="A1064" s="66"/>
     </row>
     <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1065" s="78"/>
+      <c r="A1065" s="66"/>
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1066" s="78"/>
+      <c r="A1066" s="66"/>
     </row>
     <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1067" s="78"/>
+      <c r="A1067" s="66"/>
     </row>
     <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1068" s="78"/>
+      <c r="A1068" s="66"/>
     </row>
     <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1069" s="78"/>
+      <c r="A1069" s="66"/>
     </row>
     <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1070" s="78"/>
+      <c r="A1070" s="66"/>
     </row>
     <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1071" s="78"/>
+      <c r="A1071" s="66"/>
     </row>
     <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1072" s="78"/>
+      <c r="A1072" s="66"/>
     </row>
     <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1073" s="78"/>
+      <c r="A1073" s="66"/>
     </row>
     <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1074" s="78"/>
+      <c r="A1074" s="66"/>
     </row>
     <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1075" s="78"/>
+      <c r="A1075" s="66"/>
     </row>
     <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1076" s="78"/>
+      <c r="A1076" s="66"/>
     </row>
     <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1077" s="78"/>
+      <c r="A1077" s="66"/>
     </row>
     <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1078" s="78"/>
+      <c r="A1078" s="66"/>
     </row>
     <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1079" s="78"/>
+      <c r="A1079" s="66"/>
     </row>
     <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1080" s="78"/>
+      <c r="A1080" s="66"/>
     </row>
     <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1081" s="78"/>
+      <c r="A1081" s="66"/>
     </row>
     <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1082" s="78"/>
+      <c r="A1082" s="66"/>
     </row>
     <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1083" s="78"/>
+      <c r="A1083" s="66"/>
     </row>
     <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1084" s="78"/>
+      <c r="A1084" s="66"/>
     </row>
     <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1085" s="78"/>
+      <c r="A1085" s="66"/>
     </row>
     <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1086" s="78"/>
+      <c r="A1086" s="66"/>
     </row>
     <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1087" s="78"/>
+      <c r="A1087" s="66"/>
     </row>
     <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1088" s="78"/>
+      <c r="A1088" s="66"/>
     </row>
     <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1089" s="78"/>
+      <c r="A1089" s="66"/>
     </row>
     <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1090" s="78"/>
+      <c r="A1090" s="66"/>
     </row>
     <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1091" s="78"/>
+      <c r="A1091" s="66"/>
     </row>
     <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1092" s="78"/>
+      <c r="A1092" s="66"/>
     </row>
     <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1093" s="78"/>
+      <c r="A1093" s="66"/>
     </row>
     <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1094" s="78"/>
+      <c r="A1094" s="66"/>
     </row>
     <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1095" s="78"/>
+      <c r="A1095" s="66"/>
     </row>
     <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1096" s="78"/>
+      <c r="A1096" s="66"/>
     </row>
     <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1097" s="78"/>
+      <c r="A1097" s="66"/>
     </row>
     <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1098" s="78"/>
+      <c r="A1098" s="66"/>
     </row>
     <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1099" s="78"/>
+      <c r="A1099" s="66"/>
     </row>
     <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1100" s="78"/>
+      <c r="A1100" s="66"/>
     </row>
     <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1101" s="78"/>
+      <c r="A1101" s="66"/>
     </row>
     <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1102" s="78"/>
+      <c r="A1102" s="66"/>
     </row>
     <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1103" s="78"/>
+      <c r="A1103" s="66"/>
     </row>
     <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1104" s="78"/>
+      <c r="A1104" s="66"/>
     </row>
     <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1105" s="78"/>
+      <c r="A1105" s="66"/>
     </row>
     <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1106" s="78"/>
+      <c r="A1106" s="66"/>
     </row>
     <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1107" s="78"/>
+      <c r="A1107" s="66"/>
     </row>
     <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1108" s="78"/>
+      <c r="A1108" s="66"/>
     </row>
     <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1109" s="78"/>
+      <c r="A1109" s="66"/>
     </row>
     <row r="1110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1110" s="78"/>
+      <c r="A1110" s="66"/>
     </row>
     <row r="1111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1111" s="78"/>
+      <c r="A1111" s="66"/>
     </row>
     <row r="1112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1112" s="78"/>
+      <c r="A1112" s="66"/>
     </row>
     <row r="1113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1113" s="78"/>
+      <c r="A1113" s="66"/>
     </row>
     <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1114" s="78"/>
+      <c r="A1114" s="66"/>
     </row>
     <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1115" s="78"/>
+      <c r="A1115" s="66"/>
     </row>
     <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1116" s="78"/>
+      <c r="A1116" s="66"/>
     </row>
     <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1117" s="78"/>
+      <c r="A1117" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A3:I14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C19:F19"/>
     <mergeCell ref="B28:H32"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
@@ -14493,6 +14573,11 @@
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A3:I14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14511,1954 +14596,1954 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="80" t="s">
-        <v>50</v>
+      <c r="B1" s="68" t="s">
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="151" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
+      <c r="B3" s="132" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
     </row>
     <row r="4" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="82">
+      <c r="A6" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="70">
         <v>0</v>
       </c>
-      <c r="C6" s="82">
+      <c r="C6" s="70">
         <f>B6+0.01</f>
         <v>0.01</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="70">
         <f t="shared" ref="D6:K6" si="0">C6+0.01</f>
         <v>0.02</v>
       </c>
-      <c r="E6" s="82">
+      <c r="E6" s="70">
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="F6" s="82">
+      <c r="F6" s="70">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="G6" s="82">
+      <c r="G6" s="70">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="H6" s="82">
+      <c r="H6" s="70">
         <f t="shared" si="0"/>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="I6" s="82">
+      <c r="I6" s="70">
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J6" s="82">
+      <c r="J6" s="70">
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="K6" s="82">
+      <c r="K6" s="70">
         <f t="shared" si="0"/>
         <v>0.09</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="83">
+      <c r="A7" s="71">
         <v>0</v>
       </c>
-      <c r="B7" s="84">
+      <c r="B7" s="72">
         <f>_xlfn.NORM.DIST($A7+B$6,0,1,TRUE)-0.5</f>
         <v>0</v>
       </c>
-      <c r="C7" s="84">
+      <c r="C7" s="72">
         <f t="shared" ref="C7:K22" si="1">_xlfn.NORM.DIST($A7+C$6,0,1,TRUE)-0.5</f>
         <v>3.989356314631598E-3</v>
       </c>
-      <c r="D7" s="84">
+      <c r="D7" s="72">
         <f t="shared" si="1"/>
         <v>7.9783137169020524E-3</v>
       </c>
-      <c r="E7" s="84">
+      <c r="E7" s="72">
         <f t="shared" si="1"/>
         <v>1.1966473414112722E-2</v>
       </c>
-      <c r="F7" s="84">
+      <c r="F7" s="72">
         <f t="shared" si="1"/>
         <v>1.5953436852830682E-2</v>
       </c>
-      <c r="G7" s="84">
+      <c r="G7" s="72">
         <f t="shared" si="1"/>
         <v>1.9938805838372486E-2</v>
       </c>
-      <c r="H7" s="84">
+      <c r="H7" s="72">
         <f t="shared" si="1"/>
         <v>2.3922182654106838E-2</v>
       </c>
-      <c r="I7" s="84">
+      <c r="I7" s="72">
         <f t="shared" si="1"/>
         <v>2.7903170180521131E-2</v>
       </c>
-      <c r="J7" s="84">
+      <c r="J7" s="72">
         <f t="shared" si="1"/>
         <v>3.1881372013987441E-2</v>
       </c>
-      <c r="K7" s="84">
+      <c r="K7" s="72">
         <f t="shared" si="1"/>
         <v>3.5856392585172037E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="83">
+      <c r="A8" s="71">
         <f>A7+0.1</f>
         <v>0.1</v>
       </c>
-      <c r="B8" s="84">
+      <c r="B8" s="72">
         <f t="shared" ref="B8:K46" si="2">_xlfn.NORM.DIST($A8+B$6,0,1,TRUE)-0.5</f>
         <v>3.9827837277028988E-2</v>
       </c>
-      <c r="C8" s="84">
+      <c r="C8" s="72">
         <f t="shared" si="1"/>
         <v>4.3795312542316722E-2</v>
       </c>
-      <c r="D8" s="84">
+      <c r="D8" s="72">
         <f t="shared" si="1"/>
         <v>4.7758426020583888E-2</v>
       </c>
-      <c r="E8" s="84">
+      <c r="E8" s="72">
         <f t="shared" si="1"/>
         <v>5.1716786654561142E-2</v>
       </c>
-      <c r="F8" s="84">
+      <c r="F8" s="72">
         <f t="shared" si="1"/>
         <v>5.5670004805906448E-2</v>
       </c>
-      <c r="G8" s="84">
+      <c r="G8" s="72">
         <f t="shared" si="1"/>
         <v>5.9617692370242503E-2</v>
       </c>
-      <c r="H8" s="84">
+      <c r="H8" s="72">
         <f t="shared" si="1"/>
         <v>6.3559462891432883E-2</v>
       </c>
-      <c r="I8" s="84">
+      <c r="I8" s="72">
         <f t="shared" si="1"/>
         <v>6.7494931675038394E-2</v>
       </c>
-      <c r="J8" s="84">
+      <c r="J8" s="72">
         <f t="shared" si="1"/>
         <v>7.1423715900900797E-2</v>
       </c>
-      <c r="K8" s="84">
+      <c r="K8" s="72">
         <f t="shared" si="1"/>
         <v>7.5345434734795491E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="83">
+      <c r="A9" s="71">
         <f t="shared" ref="A9:A47" si="3">A8+0.1</f>
         <v>0.2</v>
       </c>
-      <c r="B9" s="84">
+      <c r="B9" s="72">
         <f t="shared" si="2"/>
         <v>7.9259709439102988E-2</v>
       </c>
-      <c r="C9" s="84">
+      <c r="C9" s="72">
         <f t="shared" si="1"/>
         <v>8.3166163482442323E-2</v>
       </c>
-      <c r="D9" s="84">
+      <c r="D9" s="72">
         <f t="shared" si="1"/>
         <v>8.7064422648214679E-2</v>
       </c>
-      <c r="E9" s="84">
+      <c r="E9" s="72">
         <f t="shared" si="1"/>
         <v>9.0954115142005909E-2</v>
       </c>
-      <c r="F9" s="84">
+      <c r="F9" s="72">
         <f t="shared" si="1"/>
         <v>9.4834871697795808E-2</v>
       </c>
-      <c r="G9" s="84">
+      <c r="G9" s="72">
         <f t="shared" si="1"/>
         <v>9.8706325682923701E-2</v>
       </c>
-      <c r="H9" s="84">
+      <c r="H9" s="72">
         <f t="shared" si="1"/>
         <v>0.10256811320176051</v>
       </c>
-      <c r="I9" s="84">
+      <c r="I9" s="72">
         <f t="shared" si="1"/>
         <v>0.10641987319803947</v>
       </c>
-      <c r="J9" s="84">
+      <c r="J9" s="72">
         <f t="shared" si="1"/>
         <v>0.11026124755579725</v>
       </c>
-      <c r="K9" s="84">
+      <c r="K9" s="72">
         <f t="shared" si="1"/>
         <v>0.11409188119887737</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83">
+      <c r="A10" s="71">
         <f t="shared" si="3"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="B10" s="84">
+      <c r="B10" s="72">
         <f t="shared" si="2"/>
         <v>0.11791142218895267</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="72">
         <f t="shared" si="1"/>
         <v>0.12171952182201928</v>
       </c>
-      <c r="D10" s="84">
+      <c r="D10" s="72">
         <f t="shared" si="1"/>
         <v>0.12551583472332006</v>
       </c>
-      <c r="E10" s="84">
+      <c r="E10" s="72">
         <f t="shared" si="1"/>
         <v>0.12930001894065357</v>
       </c>
-      <c r="F10" s="84">
+      <c r="F10" s="72">
         <f t="shared" si="1"/>
         <v>0.13307173603602807</v>
       </c>
-      <c r="G10" s="84">
+      <c r="G10" s="72">
         <f t="shared" si="1"/>
         <v>0.1368306511756191</v>
       </c>
-      <c r="H10" s="84">
+      <c r="H10" s="72">
         <f t="shared" si="1"/>
         <v>0.14057643321799129</v>
       </c>
-      <c r="I10" s="84">
+      <c r="I10" s="72">
         <f t="shared" si="1"/>
         <v>0.14430875480054683</v>
       </c>
-      <c r="J10" s="84">
+      <c r="J10" s="72">
         <f t="shared" si="1"/>
         <v>0.14802729242416279</v>
       </c>
-      <c r="K10" s="84">
+      <c r="K10" s="72">
         <f t="shared" si="1"/>
         <v>0.15173172653598244</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="83">
+      <c r="A11" s="71">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="B11" s="84">
+      <c r="B11" s="72">
         <f t="shared" si="2"/>
         <v>0.15542174161032429</v>
       </c>
-      <c r="C11" s="84">
+      <c r="C11" s="72">
         <f t="shared" si="1"/>
         <v>0.15909702622767741</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="72">
         <f t="shared" si="1"/>
         <v>0.16275727315175059</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="72">
         <f t="shared" si="1"/>
         <v>0.16640217940454238</v>
       </c>
-      <c r="F11" s="84">
+      <c r="F11" s="72">
         <f t="shared" si="1"/>
         <v>0.17003144633940637</v>
       </c>
-      <c r="G11" s="84">
+      <c r="G11" s="72">
         <f t="shared" si="1"/>
         <v>0.17364477971208003</v>
       </c>
-      <c r="H11" s="84">
+      <c r="H11" s="72">
         <f t="shared" si="1"/>
         <v>0.17724188974965227</v>
       </c>
-      <c r="I11" s="84">
+      <c r="I11" s="72">
         <f t="shared" si="1"/>
         <v>0.1808224912174442</v>
       </c>
-      <c r="J11" s="84">
+      <c r="J11" s="72">
         <f t="shared" si="1"/>
         <v>0.18438630348377749</v>
       </c>
-      <c r="K11" s="84">
+      <c r="K11" s="72">
         <f t="shared" si="1"/>
         <v>0.18793305058260945</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="83">
+      <c r="A12" s="71">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="B12" s="84">
+      <c r="B12" s="72">
         <f t="shared" si="2"/>
         <v>0.19146246127401312</v>
       </c>
-      <c r="C12" s="84">
+      <c r="C12" s="72">
         <f t="shared" si="1"/>
         <v>0.19497426910248061</v>
       </c>
-      <c r="D12" s="84">
+      <c r="D12" s="72">
         <f t="shared" si="1"/>
         <v>0.19846821245303381</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="72">
         <f t="shared" si="1"/>
         <v>0.20194403460512356</v>
       </c>
-      <c r="F12" s="84">
+      <c r="F12" s="72">
         <f t="shared" si="1"/>
         <v>0.20540148378430201</v>
       </c>
-      <c r="G12" s="84">
+      <c r="G12" s="72">
         <f t="shared" si="1"/>
         <v>0.20884031321165364</v>
       </c>
-      <c r="H12" s="84">
+      <c r="H12" s="72">
         <f t="shared" si="1"/>
         <v>0.21226028115097295</v>
       </c>
-      <c r="I12" s="84">
+      <c r="I12" s="72">
         <f t="shared" si="1"/>
         <v>0.21566115095367588</v>
       </c>
-      <c r="J12" s="84">
+      <c r="J12" s="72">
         <f t="shared" si="1"/>
         <v>0.2190426911014357</v>
       </c>
-      <c r="K12" s="84">
+      <c r="K12" s="72">
         <f t="shared" si="1"/>
         <v>0.22240467524653507</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="83">
+      <c r="A13" s="71">
         <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
-      <c r="B13" s="84">
+      <c r="B13" s="72">
         <f t="shared" si="2"/>
         <v>0.22574688224992645</v>
       </c>
-      <c r="C13" s="84">
+      <c r="C13" s="72">
         <f t="shared" si="1"/>
         <v>0.22906909621699434</v>
       </c>
-      <c r="D13" s="84">
+      <c r="D13" s="72">
         <f t="shared" si="1"/>
         <v>0.232371106531017</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="72">
         <f t="shared" si="1"/>
         <v>0.23565270788432247</v>
       </c>
-      <c r="F13" s="84">
+      <c r="F13" s="72">
         <f t="shared" si="1"/>
         <v>0.23891370030713843</v>
       </c>
-      <c r="G13" s="84">
+      <c r="G13" s="72">
         <f t="shared" si="1"/>
         <v>0.24215388919413527</v>
       </c>
-      <c r="H13" s="84">
+      <c r="H13" s="72">
         <f t="shared" si="1"/>
         <v>0.24537308532866398</v>
       </c>
-      <c r="I13" s="84">
+      <c r="I13" s="72">
         <f t="shared" si="1"/>
         <v>0.24857110490468992</v>
       </c>
-      <c r="J13" s="84">
+      <c r="J13" s="72">
         <f t="shared" si="1"/>
         <v>0.25174776954642952</v>
       </c>
-      <c r="K13" s="84">
+      <c r="K13" s="72">
         <f t="shared" si="1"/>
         <v>0.25490290632569057</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="83">
+      <c r="A14" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="B14" s="84">
+      <c r="B14" s="72">
         <f t="shared" si="2"/>
         <v>0.25803634777692697</v>
       </c>
-      <c r="C14" s="84">
+      <c r="C14" s="72">
         <f t="shared" si="1"/>
         <v>0.26114793191001329</v>
       </c>
-      <c r="D14" s="84">
+      <c r="D14" s="72">
         <f t="shared" si="1"/>
         <v>0.26423750222074882</v>
       </c>
-      <c r="E14" s="84">
+      <c r="E14" s="72">
         <f t="shared" si="1"/>
         <v>0.26730490769910253</v>
       </c>
-      <c r="F14" s="84">
+      <c r="F14" s="72">
         <f t="shared" si="1"/>
         <v>0.27035000283520938</v>
       </c>
-      <c r="G14" s="84">
+      <c r="G14" s="72">
         <f t="shared" si="1"/>
         <v>0.27337264762313174</v>
       </c>
-      <c r="H14" s="84">
+      <c r="H14" s="72">
         <f t="shared" si="1"/>
         <v>0.27637270756240062</v>
       </c>
-      <c r="I14" s="84">
+      <c r="I14" s="72">
         <f t="shared" si="1"/>
         <v>0.27935005365735044</v>
       </c>
-      <c r="J14" s="84">
+      <c r="J14" s="72">
         <f t="shared" si="1"/>
         <v>0.28230456241426682</v>
       </c>
-      <c r="K14" s="84">
+      <c r="K14" s="72">
         <f t="shared" si="1"/>
         <v>0.28523611583636277</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="83">
+      <c r="A15" s="71">
         <f t="shared" si="3"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="B15" s="84">
+      <c r="B15" s="72">
         <f t="shared" si="2"/>
         <v>0.28814460141660336</v>
       </c>
-      <c r="C15" s="84">
+      <c r="C15" s="72">
         <f t="shared" si="1"/>
         <v>0.29102991212839835</v>
       </c>
-      <c r="D15" s="84">
+      <c r="D15" s="72">
         <f t="shared" si="1"/>
         <v>0.29389194641418692</v>
       </c>
-      <c r="E15" s="84">
+      <c r="E15" s="72">
         <f t="shared" si="1"/>
         <v>0.29673060817193153</v>
       </c>
-      <c r="F15" s="84">
+      <c r="F15" s="72">
         <f t="shared" si="1"/>
         <v>0.29954580673955034</v>
       </c>
-      <c r="G15" s="84">
+      <c r="G15" s="72">
         <f t="shared" si="1"/>
         <v>0.30233745687730762</v>
       </c>
-      <c r="H15" s="84">
+      <c r="H15" s="72">
         <f t="shared" si="1"/>
         <v>0.30510547874819172</v>
       </c>
-      <c r="I15" s="84">
+      <c r="I15" s="72">
         <f t="shared" si="1"/>
         <v>0.30784979789630373</v>
       </c>
-      <c r="J15" s="84">
+      <c r="J15" s="72">
         <f t="shared" si="1"/>
         <v>0.31057034522328786</v>
       </c>
-      <c r="K15" s="84">
+      <c r="K15" s="72">
         <f t="shared" si="1"/>
         <v>0.31326705696282731</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="83">
+      <c r="A16" s="71">
         <f t="shared" si="3"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="B16" s="84">
+      <c r="B16" s="72">
         <f t="shared" si="2"/>
         <v>0.31593987465324047</v>
       </c>
-      <c r="C16" s="84">
+      <c r="C16" s="72">
         <f t="shared" si="1"/>
         <v>0.31858874510820279</v>
       </c>
-      <c r="D16" s="84">
+      <c r="D16" s="72">
         <f t="shared" si="1"/>
         <v>0.32121362038562828</v>
       </c>
-      <c r="E16" s="84">
+      <c r="E16" s="72">
         <f t="shared" si="1"/>
         <v>0.32381445775474205</v>
       </c>
-      <c r="F16" s="84">
+      <c r="F16" s="72">
         <f t="shared" si="1"/>
         <v>0.32639121966137541</v>
       </c>
-      <c r="G16" s="84">
+      <c r="G16" s="72">
         <f t="shared" si="1"/>
         <v>0.32894387369151812</v>
       </c>
-      <c r="H16" s="84">
+      <c r="H16" s="72">
         <f t="shared" si="1"/>
         <v>0.33147239253316219</v>
       </c>
-      <c r="I16" s="84">
+      <c r="I16" s="72">
         <f t="shared" si="1"/>
         <v>0.33397675393647042</v>
       </c>
-      <c r="J16" s="84">
+      <c r="J16" s="72">
         <f t="shared" si="1"/>
         <v>0.33645694067230769</v>
       </c>
-      <c r="K16" s="84">
+      <c r="K16" s="72">
         <f t="shared" si="1"/>
         <v>0.33891294048916909</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="83">
+      <c r="A17" s="71">
         <f t="shared" si="3"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="B17" s="84">
+      <c r="B17" s="72">
         <f t="shared" si="2"/>
         <v>0.34134474606854281</v>
       </c>
-      <c r="C17" s="84">
+      <c r="C17" s="72">
         <f t="shared" si="1"/>
         <v>0.34375235497874534</v>
       </c>
-      <c r="D17" s="84">
+      <c r="D17" s="72">
         <f t="shared" si="1"/>
         <v>0.34613576962726511</v>
       </c>
-      <c r="E17" s="84">
+      <c r="E17" s="72">
         <f t="shared" si="1"/>
         <v>0.34849499721165622</v>
       </c>
-      <c r="F17" s="84">
+      <c r="F17" s="72">
         <f t="shared" si="1"/>
         <v>0.35083004966901854</v>
       </c>
-      <c r="G17" s="84">
+      <c r="G17" s="72">
         <f t="shared" si="1"/>
         <v>0.35314094362410409</v>
       </c>
-      <c r="H17" s="84">
+      <c r="H17" s="72">
         <f t="shared" si="1"/>
         <v>0.35542770033609039</v>
       </c>
-      <c r="I17" s="84">
+      <c r="I17" s="72">
         <f t="shared" si="1"/>
         <v>0.35769034564406077</v>
       </c>
-      <c r="J17" s="84">
+      <c r="J17" s="72">
         <f t="shared" si="1"/>
         <v>0.35992890991123094</v>
       </c>
-      <c r="K17" s="84">
+      <c r="K17" s="72">
         <f t="shared" si="1"/>
         <v>0.3621434279679645</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="83">
+      <c r="A18" s="71">
         <f t="shared" si="3"/>
         <v>1.0999999999999999</v>
       </c>
-      <c r="B18" s="84">
+      <c r="B18" s="72">
         <f t="shared" si="2"/>
         <v>0.36433393905361733</v>
       </c>
-      <c r="C18" s="84">
+      <c r="C18" s="72">
         <f t="shared" si="1"/>
         <v>0.36650048675725277</v>
       </c>
-      <c r="D18" s="84">
+      <c r="D18" s="72">
         <f t="shared" si="1"/>
         <v>0.36864311895726931</v>
       </c>
-      <c r="E18" s="84">
+      <c r="E18" s="72">
         <f t="shared" si="1"/>
         <v>0.3707618877599822</v>
       </c>
-      <c r="F18" s="84">
+      <c r="F18" s="72">
         <f t="shared" si="1"/>
         <v>0.37285684943720176</v>
       </c>
-      <c r="G18" s="84">
+      <c r="G18" s="72">
         <f t="shared" si="1"/>
         <v>0.37492806436284976</v>
       </c>
-      <c r="H18" s="84">
+      <c r="H18" s="72">
         <f t="shared" si="1"/>
         <v>0.37697559694865657</v>
       </c>
-      <c r="I18" s="84">
+      <c r="I18" s="72">
         <f t="shared" si="1"/>
         <v>0.37899951557898182</v>
       </c>
-      <c r="J18" s="84">
+      <c r="J18" s="72">
         <f t="shared" si="1"/>
         <v>0.38099989254479927</v>
       </c>
-      <c r="K18" s="84">
+      <c r="K18" s="72">
         <f t="shared" si="1"/>
         <v>0.38297680397689138</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="83">
+      <c r="A19" s="71">
         <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
-      <c r="B19" s="84">
+      <c r="B19" s="72">
         <f t="shared" si="2"/>
         <v>0.38493032977829178</v>
       </c>
-      <c r="C19" s="84">
+      <c r="C19" s="72">
         <f t="shared" si="1"/>
         <v>0.38686055355602278</v>
       </c>
-      <c r="D19" s="84">
+      <c r="D19" s="72">
         <f t="shared" si="1"/>
         <v>0.38876756255216538</v>
       </c>
-      <c r="E19" s="84">
+      <c r="E19" s="72">
         <f t="shared" si="1"/>
         <v>0.39065144757430814</v>
       </c>
-      <c r="F19" s="84">
+      <c r="F19" s="72">
         <f t="shared" si="1"/>
         <v>0.39251230292541306</v>
       </c>
-      <c r="G19" s="84">
+      <c r="G19" s="72">
         <f t="shared" si="1"/>
         <v>0.39435022633314476</v>
       </c>
-      <c r="H19" s="84">
+      <c r="H19" s="72">
         <f t="shared" si="1"/>
         <v>0.39616531887869966</v>
       </c>
-      <c r="I19" s="84">
+      <c r="I19" s="72">
         <f t="shared" si="1"/>
         <v>0.39795768492518091</v>
       </c>
-      <c r="J19" s="84">
+      <c r="J19" s="72">
         <f t="shared" si="1"/>
         <v>0.39972743204555794</v>
       </c>
-      <c r="K19" s="84">
+      <c r="K19" s="72">
         <f t="shared" si="1"/>
         <v>0.40147467095025213</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="83">
+      <c r="A20" s="71">
         <f>A19+0.1</f>
         <v>1.3</v>
       </c>
-      <c r="B20" s="84">
+      <c r="B20" s="72">
         <f t="shared" si="2"/>
         <v>0.4031995154143897</v>
       </c>
-      <c r="C20" s="84">
+      <c r="C20" s="72">
         <f t="shared" si="1"/>
         <v>0.40490208220476098</v>
       </c>
-      <c r="D20" s="84">
+      <c r="D20" s="72">
         <f t="shared" si="1"/>
         <v>0.40658249100652821</v>
       </c>
-      <c r="E20" s="84">
+      <c r="E20" s="72">
         <f t="shared" si="1"/>
         <v>0.40824086434971918</v>
       </c>
-      <c r="F20" s="84">
+      <c r="F20" s="72">
         <f t="shared" si="1"/>
         <v>0.40987732753554751</v>
       </c>
-      <c r="G20" s="84">
+      <c r="G20" s="72">
         <f t="shared" si="1"/>
         <v>0.41149200856259804</v>
       </c>
-      <c r="H20" s="84">
+      <c r="H20" s="72">
         <f t="shared" si="1"/>
         <v>0.41308503805291497</v>
       </c>
-      <c r="I20" s="84">
+      <c r="I20" s="72">
         <f t="shared" si="1"/>
         <v>0.41465654917803307</v>
       </c>
-      <c r="J20" s="84">
+      <c r="J20" s="72">
         <f t="shared" si="1"/>
         <v>0.41620667758498575</v>
       </c>
-      <c r="K20" s="84">
+      <c r="K20" s="72">
         <f t="shared" si="1"/>
         <v>0.41773556132233114</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="83">
+      <c r="A21" s="71">
         <f t="shared" si="3"/>
         <v>1.4000000000000001</v>
       </c>
-      <c r="B21" s="84">
+      <c r="B21" s="72">
         <f t="shared" si="2"/>
         <v>0.41924334076622893</v>
       </c>
-      <c r="C21" s="84">
+      <c r="C21" s="72">
         <f t="shared" si="1"/>
         <v>0.42073015854660767</v>
       </c>
-      <c r="D21" s="84">
+      <c r="D21" s="72">
         <f t="shared" si="1"/>
         <v>0.42219615947345368</v>
       </c>
-      <c r="E21" s="84">
+      <c r="E21" s="72">
         <f t="shared" si="1"/>
         <v>0.42364149046326094</v>
       </c>
-      <c r="F21" s="84">
+      <c r="F21" s="72">
         <f t="shared" si="1"/>
         <v>0.42506630046567295</v>
       </c>
-      <c r="G21" s="84">
+      <c r="G21" s="72">
         <f t="shared" si="1"/>
         <v>0.42647074039035171</v>
       </c>
-      <c r="H21" s="84">
+      <c r="H21" s="72">
         <f t="shared" si="1"/>
         <v>0.42785496303410619</v>
       </c>
-      <c r="I21" s="84">
+      <c r="I21" s="72">
         <f t="shared" si="1"/>
         <v>0.42921912300831455</v>
       </c>
-      <c r="J21" s="84">
+      <c r="J21" s="72">
         <f t="shared" si="1"/>
         <v>0.43056337666666833</v>
       </c>
-      <c r="K21" s="84">
+      <c r="K21" s="72">
         <f t="shared" si="1"/>
         <v>0.43188788203327455</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="83">
+      <c r="A22" s="71">
         <f t="shared" si="3"/>
         <v>1.5000000000000002</v>
       </c>
-      <c r="B22" s="84">
+      <c r="B22" s="72">
         <f t="shared" si="2"/>
         <v>0.43319279873114191</v>
       </c>
-      <c r="C22" s="84">
+      <c r="C22" s="72">
         <f t="shared" si="1"/>
         <v>0.43447828791108356</v>
       </c>
-      <c r="D22" s="84">
+      <c r="D22" s="72">
         <f t="shared" si="1"/>
         <v>0.43574451218106425</v>
       </c>
-      <c r="E22" s="84">
+      <c r="E22" s="72">
         <f t="shared" si="1"/>
         <v>0.43699163553602161</v>
       </c>
-      <c r="F22" s="84">
+      <c r="F22" s="72">
         <f t="shared" si="1"/>
         <v>0.4382198232881882</v>
       </c>
-      <c r="G22" s="84">
+      <c r="G22" s="72">
         <f t="shared" si="1"/>
         <v>0.43942924199794109</v>
       </c>
-      <c r="H22" s="84">
+      <c r="H22" s="72">
         <f t="shared" si="1"/>
         <v>0.44062005940520699</v>
       </c>
-      <c r="I22" s="84">
+      <c r="I22" s="72">
         <f t="shared" si="1"/>
         <v>0.44179244436144705</v>
       </c>
-      <c r="J22" s="84">
+      <c r="J22" s="72">
         <f t="shared" si="1"/>
         <v>0.44294656676224586</v>
       </c>
-      <c r="K22" s="84">
+      <c r="K22" s="72">
         <f t="shared" si="1"/>
         <v>0.44408259748053058</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="83">
+      <c r="A23" s="71">
         <f t="shared" si="3"/>
         <v>1.6000000000000003</v>
       </c>
-      <c r="B23" s="84">
+      <c r="B23" s="72">
         <f t="shared" si="2"/>
         <v>0.44520070830044201</v>
       </c>
-      <c r="C23" s="84">
+      <c r="C23" s="72">
         <f t="shared" si="2"/>
         <v>0.44630107185188028</v>
       </c>
-      <c r="D23" s="84">
+      <c r="D23" s="72">
         <f t="shared" si="2"/>
         <v>0.44738386154574794</v>
       </c>
-      <c r="E23" s="84">
+      <c r="E23" s="72">
         <f t="shared" si="2"/>
         <v>0.44844925150991066</v>
       </c>
-      <c r="F23" s="84">
+      <c r="F23" s="72">
         <f t="shared" si="2"/>
         <v>0.44949741652589636</v>
       </c>
-      <c r="G23" s="84">
+      <c r="G23" s="72">
         <f t="shared" si="2"/>
         <v>0.4505285319663519</v>
       </c>
-      <c r="H23" s="84">
+      <c r="H23" s="72">
         <f t="shared" si="2"/>
         <v>0.45154277373327723</v>
       </c>
-      <c r="I23" s="84">
+      <c r="I23" s="72">
         <f t="shared" si="2"/>
         <v>0.45254031819705276</v>
       </c>
-      <c r="J23" s="84">
+      <c r="J23" s="72">
         <f t="shared" si="2"/>
         <v>0.45352134213628004</v>
       </c>
-      <c r="K23" s="84">
+      <c r="K23" s="72">
         <f t="shared" si="2"/>
         <v>0.45448602267845017</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="83">
+      <c r="A24" s="71">
         <f t="shared" si="3"/>
         <v>1.7000000000000004</v>
       </c>
-      <c r="B24" s="84">
+      <c r="B24" s="72">
         <f t="shared" si="2"/>
         <v>0.45543453724145699</v>
       </c>
-      <c r="C24" s="84">
+      <c r="C24" s="72">
         <f t="shared" si="2"/>
         <v>0.45636706347596812</v>
       </c>
-      <c r="D24" s="84">
+      <c r="D24" s="72">
         <f t="shared" si="2"/>
         <v>0.45728377920867114</v>
       </c>
-      <c r="E24" s="84">
+      <c r="E24" s="72">
         <f t="shared" si="2"/>
         <v>0.4581848623864051</v>
       </c>
-      <c r="F24" s="84">
+      <c r="F24" s="72">
         <f t="shared" si="2"/>
         <v>0.45907049102119268</v>
       </c>
-      <c r="G24" s="84">
+      <c r="G24" s="72">
         <f t="shared" si="2"/>
         <v>0.459940843136183</v>
       </c>
-      <c r="H24" s="84">
+      <c r="H24" s="72">
         <f t="shared" si="2"/>
         <v>0.46079609671251742</v>
       </c>
-      <c r="I24" s="84">
+      <c r="I24" s="72">
         <f t="shared" si="2"/>
         <v>0.46163642963712881</v>
       </c>
-      <c r="J24" s="84">
+      <c r="J24" s="72">
         <f t="shared" si="2"/>
         <v>0.46246201965148326</v>
       </c>
-      <c r="K24" s="84">
+      <c r="K24" s="72">
         <f t="shared" si="2"/>
         <v>0.4632730443012737</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="83">
+      <c r="A25" s="71">
         <f t="shared" si="3"/>
         <v>1.8000000000000005</v>
       </c>
-      <c r="B25" s="84">
+      <c r="B25" s="72">
         <f t="shared" si="2"/>
         <v>0.46406968088707423</v>
       </c>
-      <c r="C25" s="84">
+      <c r="C25" s="72">
         <f t="shared" si="2"/>
         <v>0.4648521064159612</v>
       </c>
-      <c r="D25" s="84">
+      <c r="D25" s="72">
         <f t="shared" si="2"/>
         <v>0.46562049755411006</v>
       </c>
-      <c r="E25" s="84">
+      <c r="E25" s="72">
         <f t="shared" si="2"/>
         <v>0.46637503058037166</v>
       </c>
-      <c r="F25" s="84">
+      <c r="F25" s="72">
         <f t="shared" si="2"/>
         <v>0.46711588134083615</v>
       </c>
-      <c r="G25" s="84">
+      <c r="G25" s="72">
         <f t="shared" si="2"/>
         <v>0.46784322520438637</v>
       </c>
-      <c r="H25" s="84">
+      <c r="H25" s="72">
         <f t="shared" si="2"/>
         <v>0.46855723701924734</v>
       </c>
-      <c r="I25" s="84">
+      <c r="I25" s="72">
         <f t="shared" si="2"/>
         <v>0.46925809107053407</v>
       </c>
-      <c r="J25" s="84">
+      <c r="J25" s="72">
         <f t="shared" si="2"/>
         <v>0.46994596103880026</v>
       </c>
-      <c r="K25" s="84">
+      <c r="K25" s="72">
         <f t="shared" si="2"/>
         <v>0.4706210199595906</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="83">
+      <c r="A26" s="71">
         <f>A25+0.1</f>
         <v>1.9000000000000006</v>
       </c>
-      <c r="B26" s="84">
+      <c r="B26" s="72">
         <f t="shared" si="2"/>
         <v>0.47128344018399826</v>
       </c>
-      <c r="C26" s="84">
+      <c r="C26" s="72">
         <f t="shared" si="2"/>
         <v>0.47193339334022755</v>
       </c>
-      <c r="D26" s="84">
+      <c r="D26" s="72">
         <f t="shared" si="2"/>
         <v>0.4725710502961632</v>
       </c>
-      <c r="E26" s="84">
+      <c r="E26" s="72">
         <f t="shared" si="2"/>
         <v>0.47319658112294505</v>
       </c>
-      <c r="F26" s="84">
+      <c r="F26" s="72">
         <f t="shared" si="2"/>
         <v>0.47381015505954738</v>
       </c>
-      <c r="G26" s="84">
+      <c r="G26" s="72">
         <f t="shared" si="2"/>
         <v>0.47441194047836144</v>
       </c>
-      <c r="H26" s="84">
+      <c r="H26" s="72">
         <f t="shared" si="2"/>
         <v>0.47500210485177963</v>
       </c>
-      <c r="I26" s="84">
+      <c r="I26" s="72">
         <f t="shared" si="2"/>
         <v>0.47558081471977753</v>
       </c>
-      <c r="J26" s="84">
+      <c r="J26" s="72">
         <f t="shared" si="2"/>
         <v>0.47614823565849151</v>
       </c>
-      <c r="K26" s="84">
+      <c r="K26" s="72">
         <f t="shared" si="2"/>
         <v>0.47670453224978826</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="83">
+      <c r="A27" s="71">
         <f t="shared" si="3"/>
         <v>2.0000000000000004</v>
       </c>
-      <c r="B27" s="84">
+      <c r="B27" s="72">
         <f t="shared" si="2"/>
         <v>0.47724986805182079</v>
       </c>
-      <c r="C27" s="84">
+      <c r="C27" s="72">
         <f t="shared" si="2"/>
         <v>0.47778440557056856</v>
       </c>
-      <c r="D27" s="84">
+      <c r="D27" s="72">
         <f t="shared" si="2"/>
         <v>0.47830830623235321</v>
       </c>
-      <c r="E27" s="84">
+      <c r="E27" s="72">
         <f t="shared" si="2"/>
         <v>0.47882173035732778</v>
       </c>
-      <c r="F27" s="84">
+      <c r="F27" s="72">
         <f t="shared" si="2"/>
         <v>0.47932483713393004</v>
       </c>
-      <c r="G27" s="84">
+      <c r="G27" s="72">
         <f t="shared" si="2"/>
         <v>0.47981778459429558</v>
       </c>
-      <c r="H27" s="84">
+      <c r="H27" s="72">
         <f t="shared" si="2"/>
         <v>0.48030072959062309</v>
       </c>
-      <c r="I27" s="84">
+      <c r="I27" s="72">
         <f t="shared" si="2"/>
         <v>0.48077382777248279</v>
       </c>
-      <c r="J27" s="84">
+      <c r="J27" s="72">
         <f t="shared" si="2"/>
         <v>0.48123723356506232</v>
       </c>
-      <c r="K27" s="84">
+      <c r="K27" s="72">
         <f t="shared" si="2"/>
         <v>0.48169110014834104</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="83">
+      <c r="A28" s="71">
         <f t="shared" si="3"/>
         <v>2.1000000000000005</v>
       </c>
-      <c r="B28" s="84">
+      <c r="B28" s="72">
         <f t="shared" si="2"/>
         <v>0.48213557943718344</v>
       </c>
-      <c r="C28" s="84">
+      <c r="C28" s="72">
         <f t="shared" si="2"/>
         <v>0.48257082206234292</v>
       </c>
-      <c r="D28" s="84">
+      <c r="D28" s="72">
         <f t="shared" si="2"/>
         <v>0.48299697735236724</v>
       </c>
-      <c r="E28" s="84">
+      <c r="E28" s="72">
         <f t="shared" si="2"/>
         <v>0.48341419331639501</v>
       </c>
-      <c r="F28" s="84">
+      <c r="F28" s="72">
         <f t="shared" si="2"/>
         <v>0.48382261662783388</v>
       </c>
-      <c r="G28" s="84">
+      <c r="G28" s="72">
         <f t="shared" si="2"/>
         <v>0.48422239260890954</v>
       </c>
-      <c r="H28" s="84">
+      <c r="H28" s="72">
         <f t="shared" si="2"/>
         <v>0.48461366521607463</v>
       </c>
-      <c r="I28" s="84">
+      <c r="I28" s="72">
         <f t="shared" si="2"/>
         <v>0.48499657702626786</v>
       </c>
-      <c r="J28" s="84">
+      <c r="J28" s="72">
         <f t="shared" si="2"/>
         <v>0.48537126922401075</v>
       </c>
-      <c r="K28" s="84">
+      <c r="K28" s="72">
         <f t="shared" si="2"/>
         <v>0.48573788158933118</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="83">
+      <c r="A29" s="71">
         <f t="shared" si="3"/>
         <v>2.2000000000000006</v>
       </c>
-      <c r="B29" s="84">
+      <c r="B29" s="72">
         <f t="shared" si="2"/>
         <v>0.48609655248650141</v>
       </c>
-      <c r="C29" s="84">
+      <c r="C29" s="72">
         <f t="shared" si="2"/>
         <v>0.48644741885358</v>
       </c>
-      <c r="D29" s="84">
+      <c r="D29" s="72">
         <f t="shared" si="2"/>
         <v>0.48679061619274377</v>
       </c>
-      <c r="E29" s="84">
+      <c r="E29" s="72">
         <f t="shared" si="2"/>
         <v>0.48712627856139801</v>
       </c>
-      <c r="F29" s="84">
+      <c r="F29" s="72">
         <f t="shared" si="2"/>
         <v>0.48745453856405341</v>
       </c>
-      <c r="G29" s="84">
+      <c r="G29" s="72">
         <f t="shared" si="2"/>
         <v>0.48777552734495533</v>
       </c>
-      <c r="H29" s="84">
+      <c r="H29" s="72">
         <f t="shared" si="2"/>
         <v>0.48808937458145296</v>
       </c>
-      <c r="I29" s="84">
+      <c r="I29" s="72">
         <f t="shared" si="2"/>
         <v>0.48839620847809651</v>
       </c>
-      <c r="J29" s="84">
+      <c r="J29" s="72">
         <f t="shared" si="2"/>
         <v>0.4886961557614472</v>
       </c>
-      <c r="K29" s="84">
+      <c r="K29" s="72">
         <f t="shared" si="2"/>
         <v>0.48898934167558861</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="83">
+      <c r="A30" s="71">
         <f t="shared" si="3"/>
         <v>2.3000000000000007</v>
       </c>
-      <c r="B30" s="84">
+      <c r="B30" s="72">
         <f t="shared" si="2"/>
         <v>0.48927588997832416</v>
       </c>
-      <c r="C30" s="84">
+      <c r="C30" s="72">
         <f t="shared" si="2"/>
         <v>0.48955592293804895</v>
       </c>
-      <c r="D30" s="84">
+      <c r="D30" s="72">
         <f t="shared" si="2"/>
         <v>0.48982956133128031</v>
       </c>
-      <c r="E30" s="84">
+      <c r="E30" s="72">
         <f t="shared" si="2"/>
         <v>0.49009692444083575</v>
       </c>
-      <c r="F30" s="84">
+      <c r="F30" s="72">
         <f t="shared" si="2"/>
         <v>0.49035813005464168</v>
       </c>
-      <c r="G30" s="84">
+      <c r="G30" s="72">
         <f t="shared" si="2"/>
         <v>0.49061329446516144</v>
       </c>
-      <c r="H30" s="84">
+      <c r="H30" s="72">
         <f t="shared" si="2"/>
         <v>0.49086253246942735</v>
       </c>
-      <c r="I30" s="84">
+      <c r="I30" s="72">
         <f t="shared" si="2"/>
         <v>0.49110595736966323</v>
       </c>
-      <c r="J30" s="84">
+      <c r="J30" s="72">
         <f t="shared" si="2"/>
         <v>0.49134368097448344</v>
       </c>
-      <c r="K30" s="84">
+      <c r="K30" s="72">
         <f t="shared" si="2"/>
         <v>0.49157581360065428</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="83">
+      <c r="A31" s="71">
         <f t="shared" si="3"/>
         <v>2.4000000000000008</v>
       </c>
-      <c r="B31" s="84">
+      <c r="B31" s="72">
         <f t="shared" si="2"/>
         <v>0.49180246407540384</v>
       </c>
-      <c r="C31" s="84">
+      <c r="C31" s="72">
         <f t="shared" si="2"/>
         <v>0.49202373973926627</v>
       </c>
-      <c r="D31" s="84">
+      <c r="D31" s="72">
         <f t="shared" si="2"/>
         <v>0.49223974644944635</v>
       </c>
-      <c r="E31" s="84">
+      <c r="E31" s="72">
         <f t="shared" si="2"/>
         <v>0.49245058858369084</v>
       </c>
-      <c r="F31" s="84">
+      <c r="F31" s="72">
         <f t="shared" si="2"/>
         <v>0.49265636904465171</v>
       </c>
-      <c r="G31" s="84">
+      <c r="G31" s="72">
         <f t="shared" si="2"/>
         <v>0.49285718926472855</v>
       </c>
-      <c r="H31" s="84">
+      <c r="H31" s="72">
         <f t="shared" si="2"/>
         <v>0.49305314921137566</v>
       </c>
-      <c r="I31" s="84">
+      <c r="I31" s="72">
         <f t="shared" si="2"/>
         <v>0.49324434739285938</v>
       </c>
-      <c r="J31" s="84">
+      <c r="J31" s="72">
         <f t="shared" si="2"/>
         <v>0.4934308808644533</v>
       </c>
-      <c r="K31" s="84">
+      <c r="K31" s="72">
         <f t="shared" si="2"/>
         <v>0.49361284523505689</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="83">
+      <c r="A32" s="71">
         <f t="shared" si="3"/>
         <v>2.5000000000000009</v>
       </c>
-      <c r="B32" s="84">
+      <c r="B32" s="72">
         <f t="shared" si="2"/>
         <v>0.49379033467422384</v>
       </c>
-      <c r="C32" s="84">
+      <c r="C32" s="72">
         <f t="shared" si="2"/>
         <v>0.49396344191958741</v>
       </c>
-      <c r="D32" s="84">
+      <c r="D32" s="72">
         <f t="shared" si="2"/>
         <v>0.49413225828466745</v>
       </c>
-      <c r="E32" s="84">
+      <c r="E32" s="72">
         <f t="shared" si="2"/>
         <v>0.49429687366704933</v>
       </c>
-      <c r="F32" s="84">
+      <c r="F32" s="72">
         <f t="shared" si="2"/>
         <v>0.49445737655691746</v>
       </c>
-      <c r="G32" s="84">
+      <c r="G32" s="72">
         <f t="shared" si="2"/>
         <v>0.49461385404593328</v>
       </c>
-      <c r="H32" s="84">
+      <c r="H32" s="72">
         <f t="shared" si="2"/>
         <v>0.49476639183644422</v>
       </c>
-      <c r="I32" s="84">
+      <c r="I32" s="72">
         <f t="shared" si="2"/>
         <v>0.494915074251009</v>
       </c>
-      <c r="J32" s="84">
+      <c r="J32" s="72">
         <f t="shared" si="2"/>
         <v>0.49505998424222941</v>
       </c>
-      <c r="K32" s="84">
+      <c r="K32" s="72">
         <f t="shared" si="2"/>
         <v>0.49520120340287388</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="83">
+      <c r="A33" s="71">
         <f t="shared" si="3"/>
         <v>2.600000000000001</v>
       </c>
-      <c r="B33" s="84">
+      <c r="B33" s="72">
         <f t="shared" si="2"/>
         <v>0.49533881197628127</v>
       </c>
-      <c r="C33" s="84">
+      <c r="C33" s="72">
         <f t="shared" si="2"/>
         <v>0.49547288886703267</v>
       </c>
-      <c r="D33" s="84">
+      <c r="D33" s="72">
         <f t="shared" si="2"/>
         <v>0.49560351165187866</v>
       </c>
-      <c r="E33" s="84">
+      <c r="E33" s="72">
         <f t="shared" si="2"/>
         <v>0.4957307565909107</v>
       </c>
-      <c r="F33" s="84">
+      <c r="F33" s="72">
         <f t="shared" si="2"/>
         <v>0.49585469863896392</v>
       </c>
-      <c r="G33" s="84">
+      <c r="G33" s="72">
         <f t="shared" si="2"/>
         <v>0.49597541145724167</v>
       </c>
-      <c r="H33" s="84">
+      <c r="H33" s="72">
         <f t="shared" si="2"/>
         <v>0.49609296742514719</v>
       </c>
-      <c r="I33" s="84">
+      <c r="I33" s="72">
         <f t="shared" si="2"/>
         <v>0.49620743765231456</v>
       </c>
-      <c r="J33" s="84">
+      <c r="J33" s="72">
         <f t="shared" si="2"/>
         <v>0.49631889199082502</v>
       </c>
-      <c r="K33" s="84">
+      <c r="K33" s="72">
         <f t="shared" si="2"/>
         <v>0.49642739904760025</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="83">
+      <c r="A34" s="71">
         <f t="shared" si="3"/>
         <v>2.7000000000000011</v>
       </c>
-      <c r="B34" s="84">
+      <c r="B34" s="72">
         <f t="shared" si="2"/>
         <v>0.49653302619695938</v>
       </c>
-      <c r="C34" s="84">
+      <c r="C34" s="72">
         <f t="shared" si="2"/>
         <v>0.4966358395933308</v>
       </c>
-      <c r="D34" s="84">
+      <c r="D34" s="72">
         <f t="shared" si="2"/>
         <v>0.49673590418410873</v>
       </c>
-      <c r="E34" s="84">
+      <c r="E34" s="72">
         <f t="shared" si="2"/>
         <v>0.49683328372264224</v>
       </c>
-      <c r="F34" s="84">
+      <c r="F34" s="72">
         <f t="shared" si="2"/>
         <v>0.49692804078134956</v>
       </c>
-      <c r="G34" s="84">
+      <c r="G34" s="72">
         <f t="shared" si="2"/>
         <v>0.49702023676494544</v>
       </c>
-      <c r="H34" s="84">
+      <c r="H34" s="72">
         <f t="shared" si="2"/>
         <v>0.49710993192377384</v>
       </c>
-      <c r="I34" s="84">
+      <c r="I34" s="72">
         <f t="shared" si="2"/>
         <v>0.49719718536723501</v>
       </c>
-      <c r="J34" s="84">
+      <c r="J34" s="72">
         <f t="shared" si="2"/>
         <v>0.49728205507729872</v>
       </c>
-      <c r="K34" s="84">
+      <c r="K34" s="72">
         <f t="shared" si="2"/>
         <v>0.49736459792209509</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="83">
+      <c r="A35" s="71">
         <f t="shared" si="3"/>
         <v>2.8000000000000012</v>
       </c>
-      <c r="B35" s="84">
+      <c r="B35" s="72">
         <f t="shared" si="2"/>
         <v>0.49744486966957213</v>
       </c>
-      <c r="C35" s="84">
+      <c r="C35" s="72">
         <f t="shared" si="2"/>
         <v>0.4975229250012142</v>
       </c>
-      <c r="D35" s="84">
+      <c r="D35" s="72">
         <f t="shared" si="2"/>
         <v>0.49759881752581081</v>
       </c>
-      <c r="E35" s="84">
+      <c r="E35" s="72">
         <f t="shared" si="2"/>
         <v>0.4976725997932685</v>
       </c>
-      <c r="F35" s="84">
+      <c r="F35" s="72">
         <f t="shared" si="2"/>
         <v>0.49774432330845764</v>
       </c>
-      <c r="G35" s="84">
+      <c r="G35" s="72">
         <f t="shared" si="2"/>
         <v>0.49781403854508677</v>
       </c>
-      <c r="H35" s="84">
+      <c r="H35" s="72">
         <f t="shared" si="2"/>
         <v>0.49788179495959539</v>
       </c>
-      <c r="I35" s="84">
+      <c r="I35" s="72">
         <f t="shared" si="2"/>
         <v>0.49794764100506028</v>
       </c>
-      <c r="J35" s="84">
+      <c r="J35" s="72">
         <f t="shared" si="2"/>
         <v>0.49801162414510569</v>
       </c>
-      <c r="K35" s="84">
+      <c r="K35" s="72">
         <f t="shared" si="2"/>
         <v>0.49807379086781212</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="83">
+      <c r="A36" s="71">
         <f t="shared" si="3"/>
         <v>2.9000000000000012</v>
       </c>
-      <c r="B36" s="84">
+      <c r="B36" s="72">
         <f t="shared" si="2"/>
         <v>0.49813418669961596</v>
       </c>
-      <c r="C36" s="84">
+      <c r="C36" s="72">
         <f t="shared" si="2"/>
         <v>0.49819285621919362</v>
       </c>
-      <c r="D36" s="84">
+      <c r="D36" s="72">
         <f t="shared" si="2"/>
         <v>0.49824984307132392</v>
       </c>
-      <c r="E36" s="84">
+      <c r="E36" s="72">
         <f t="shared" si="2"/>
         <v>0.49830518998072271</v>
       </c>
-      <c r="F36" s="84">
+      <c r="F36" s="72">
         <f t="shared" si="2"/>
         <v>0.49835893876584303</v>
       </c>
-      <c r="G36" s="84">
+      <c r="G36" s="72">
         <f t="shared" si="2"/>
         <v>0.49841113035263518</v>
       </c>
-      <c r="H36" s="84">
+      <c r="H36" s="72">
         <f t="shared" si="2"/>
         <v>0.49846180478826196</v>
       </c>
-      <c r="I36" s="84">
+      <c r="I36" s="72">
         <f t="shared" si="2"/>
         <v>0.49851100125476255</v>
       </c>
-      <c r="J36" s="84">
+      <c r="J36" s="72">
         <f t="shared" si="2"/>
         <v>0.49855875808266004</v>
       </c>
-      <c r="K36" s="84">
+      <c r="K36" s="72">
         <f t="shared" si="2"/>
         <v>0.49860511276450781</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="83">
+      <c r="A37" s="71">
         <f t="shared" si="3"/>
         <v>3.0000000000000013</v>
       </c>
-      <c r="B37" s="84">
+      <c r="B37" s="72">
         <f t="shared" si="2"/>
         <v>0.4986501019683699</v>
       </c>
-      <c r="C37" s="84">
+      <c r="C37" s="72">
         <f t="shared" si="2"/>
         <v>0.49869376155123057</v>
       </c>
-      <c r="D37" s="84">
+      <c r="D37" s="72">
         <f t="shared" si="2"/>
         <v>0.49873612657232769</v>
       </c>
-      <c r="E37" s="84">
+      <c r="E37" s="72">
         <f t="shared" si="2"/>
         <v>0.49877723130640772</v>
       </c>
-      <c r="F37" s="84">
+      <c r="F37" s="72">
         <f t="shared" si="2"/>
         <v>0.4988171092568956</v>
       </c>
-      <c r="G37" s="84">
+      <c r="G37" s="72">
         <f t="shared" si="2"/>
         <v>0.49885579316897732</v>
       </c>
-      <c r="H37" s="84">
+      <c r="H37" s="72">
         <f t="shared" si="2"/>
         <v>0.49889331504259071</v>
       </c>
-      <c r="I37" s="84">
+      <c r="I37" s="72">
         <f t="shared" si="2"/>
         <v>0.49892970614532106</v>
       </c>
-      <c r="J37" s="84">
+      <c r="J37" s="72">
         <f t="shared" si="2"/>
         <v>0.49896499702519714</v>
       </c>
-      <c r="K37" s="84">
+      <c r="K37" s="72">
         <f t="shared" si="2"/>
         <v>0.49899921752338594</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="83">
+      <c r="A38" s="71">
         <f t="shared" si="3"/>
         <v>3.1000000000000014</v>
       </c>
-      <c r="B38" s="84">
+      <c r="B38" s="72">
         <f t="shared" si="2"/>
         <v>0.49903239678678168</v>
       </c>
-      <c r="C38" s="84">
+      <c r="C38" s="72">
         <f t="shared" si="2"/>
         <v>0.49906456328048587</v>
       </c>
-      <c r="D38" s="84">
+      <c r="D38" s="72">
         <f t="shared" si="2"/>
         <v>0.49909574480017771</v>
       </c>
-      <c r="E38" s="84">
+      <c r="E38" s="72">
         <f t="shared" si="2"/>
         <v>0.49912596848436841</v>
       </c>
-      <c r="F38" s="84">
+      <c r="F38" s="72">
         <f t="shared" si="2"/>
         <v>0.49915526082654138</v>
       </c>
-      <c r="G38" s="84">
+      <c r="G38" s="72">
         <f t="shared" si="2"/>
         <v>0.49918364768717149</v>
       </c>
-      <c r="H38" s="84">
+      <c r="H38" s="72">
         <f t="shared" si="2"/>
         <v>0.49921115430562446</v>
       </c>
-      <c r="I38" s="84">
+      <c r="I38" s="72">
         <f t="shared" si="2"/>
         <v>0.49923780531193274</v>
       </c>
-      <c r="J38" s="84">
+      <c r="J38" s="72">
         <f t="shared" si="2"/>
         <v>0.4992636247384461</v>
       </c>
-      <c r="K38" s="84">
+      <c r="K38" s="72">
         <f t="shared" si="2"/>
         <v>0.49928863603135465</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="83">
+      <c r="A39" s="71">
         <f t="shared" si="3"/>
         <v>3.2000000000000015</v>
       </c>
-      <c r="B39" s="84">
+      <c r="B39" s="72">
         <f t="shared" si="2"/>
         <v>0.49931286206208414</v>
       </c>
-      <c r="C39" s="84">
+      <c r="C39" s="72">
         <f t="shared" si="2"/>
         <v>0.49933632513856008</v>
       </c>
-      <c r="D39" s="84">
+      <c r="D39" s="72">
         <f t="shared" si="2"/>
         <v>0.49935904701633993</v>
       </c>
-      <c r="E39" s="84">
+      <c r="E39" s="72">
         <f t="shared" si="2"/>
         <v>0.49938104890961321</v>
       </c>
-      <c r="F39" s="84">
+      <c r="F39" s="72">
         <f t="shared" si="2"/>
         <v>0.49940235150206558</v>
       </c>
-      <c r="G39" s="84">
+      <c r="G39" s="72">
         <f t="shared" si="2"/>
         <v>0.49942297495760923</v>
       </c>
-      <c r="H39" s="84">
+      <c r="H39" s="72">
         <f t="shared" si="2"/>
         <v>0.49944293893097536</v>
       </c>
-      <c r="I39" s="84">
+      <c r="I39" s="72">
         <f t="shared" si="2"/>
         <v>0.49946226257817028</v>
       </c>
-      <c r="J39" s="84">
+      <c r="J39" s="72">
         <f t="shared" si="2"/>
         <v>0.49948096456679303</v>
       </c>
-      <c r="K39" s="84">
+      <c r="K39" s="72">
         <f t="shared" si="2"/>
         <v>0.49949906308621428</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="83">
+      <c r="A40" s="71">
         <f t="shared" si="3"/>
         <v>3.3000000000000016</v>
       </c>
-      <c r="B40" s="84">
+      <c r="B40" s="72">
         <f t="shared" si="2"/>
         <v>0.49951657585761622</v>
       </c>
-      <c r="C40" s="84">
+      <c r="C40" s="72">
         <f t="shared" si="2"/>
         <v>0.49953352014389241</v>
       </c>
-      <c r="D40" s="84">
+      <c r="D40" s="72">
         <f t="shared" si="2"/>
         <v>0.49954991275940785</v>
       </c>
-      <c r="E40" s="84">
+      <c r="E40" s="72">
         <f t="shared" si="2"/>
         <v>0.49956577007961833</v>
       </c>
-      <c r="F40" s="84">
+      <c r="F40" s="72">
         <f t="shared" si="2"/>
         <v>0.49958110805054967</v>
       </c>
-      <c r="G40" s="84">
+      <c r="G40" s="72">
         <f t="shared" si="2"/>
         <v>0.49959594219813597</v>
       </c>
-      <c r="H40" s="84">
+      <c r="H40" s="72">
         <f t="shared" si="2"/>
         <v>0.49961028763741799</v>
       </c>
-      <c r="I40" s="84">
+      <c r="I40" s="72">
         <f t="shared" si="2"/>
         <v>0.49962415908159996</v>
       </c>
-      <c r="J40" s="84">
+      <c r="J40" s="72">
         <f t="shared" si="2"/>
         <v>0.49963757085096694</v>
       </c>
-      <c r="K40" s="84">
+      <c r="K40" s="72">
         <f t="shared" si="2"/>
         <v>0.49965053688166206</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="83">
+      <c r="A41" s="71">
         <f t="shared" si="3"/>
         <v>3.4000000000000017</v>
       </c>
-      <c r="B41" s="84">
+      <c r="B41" s="72">
         <f t="shared" si="2"/>
         <v>0.49966307073432314</v>
       </c>
-      <c r="C41" s="84">
+      <c r="C41" s="72">
         <f t="shared" si="2"/>
         <v>0.49967518560258117</v>
       </c>
-      <c r="D41" s="84">
+      <c r="D41" s="72">
         <f t="shared" si="2"/>
         <v>0.49968689432141877</v>
       </c>
-      <c r="E41" s="84">
+      <c r="E41" s="72">
         <f t="shared" si="2"/>
         <v>0.49969820937539133</v>
       </c>
-      <c r="F41" s="84">
+      <c r="F41" s="72">
         <f t="shared" si="2"/>
         <v>0.49970914290670931</v>
       </c>
-      <c r="G41" s="84">
+      <c r="G41" s="72">
         <f t="shared" si="2"/>
         <v>0.49971970672318378</v>
       </c>
-      <c r="H41" s="84">
+      <c r="H41" s="72">
         <f t="shared" si="2"/>
         <v>0.49972991230603647</v>
       </c>
-      <c r="I41" s="84">
+      <c r="I41" s="72">
         <f t="shared" si="2"/>
         <v>0.49973977081757248</v>
       </c>
-      <c r="J41" s="84">
+      <c r="J41" s="72">
         <f t="shared" si="2"/>
         <v>0.49974929310871952</v>
       </c>
-      <c r="K41" s="84">
+      <c r="K41" s="72">
         <f t="shared" si="2"/>
         <v>0.49975848972643222</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="83">
+      <c r="A42" s="71">
         <f t="shared" si="3"/>
         <v>3.5000000000000018</v>
       </c>
-      <c r="B42" s="84">
+      <c r="B42" s="72">
         <f t="shared" si="2"/>
         <v>0.49976737092096446</v>
       </c>
-      <c r="C42" s="84">
+      <c r="C42" s="72">
         <f t="shared" si="2"/>
         <v>0.49977594665300895</v>
       </c>
-      <c r="D42" s="84">
+      <c r="D42" s="72">
         <f t="shared" si="2"/>
         <v>0.49978422660070532</v>
       </c>
-      <c r="E42" s="84">
+      <c r="E42" s="72">
         <f t="shared" si="2"/>
         <v>0.49979222016651936</v>
       </c>
-      <c r="F42" s="84">
+      <c r="F42" s="72">
         <f t="shared" si="2"/>
         <v>0.49979993648399268</v>
       </c>
-      <c r="G42" s="84">
+      <c r="G42" s="72">
         <f t="shared" si="2"/>
         <v>0.49980738442436434</v>
       </c>
-      <c r="H42" s="84">
+      <c r="H42" s="72">
         <f t="shared" si="2"/>
         <v>0.49981457260306672</v>
       </c>
-      <c r="I42" s="84">
+      <c r="I42" s="72">
         <f t="shared" si="2"/>
         <v>0.49982150938609515</v>
       </c>
-      <c r="J42" s="84">
+      <c r="J42" s="72">
         <f t="shared" si="2"/>
         <v>0.49982820289625407</v>
       </c>
-      <c r="K42" s="84">
+      <c r="K42" s="72">
         <f t="shared" si="2"/>
         <v>0.49983466101927987</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="83">
+      <c r="A43" s="71">
         <f t="shared" si="3"/>
         <v>3.6000000000000019</v>
       </c>
-      <c r="B43" s="84">
+      <c r="B43" s="72">
         <f t="shared" si="2"/>
         <v>0.49984089140984245</v>
       </c>
-      <c r="C43" s="84">
+      <c r="C43" s="72">
         <f t="shared" si="2"/>
         <v>0.49984690149742628</v>
       </c>
-      <c r="D43" s="84">
+      <c r="D43" s="72">
         <f t="shared" si="2"/>
         <v>0.49985269849209257</v>
       </c>
-      <c r="E43" s="84">
+      <c r="E43" s="72">
         <f t="shared" si="2"/>
         <v>0.49985828939012422</v>
       </c>
-      <c r="F43" s="84">
+      <c r="F43" s="72">
         <f t="shared" si="2"/>
         <v>0.49986368097955425</v>
       </c>
-      <c r="G43" s="84">
+      <c r="G43" s="72">
         <f t="shared" si="2"/>
         <v>0.49986887984557948</v>
       </c>
-      <c r="H43" s="84">
+      <c r="H43" s="72">
         <f t="shared" si="2"/>
         <v>0.49987389237586155</v>
       </c>
-      <c r="I43" s="84">
+      <c r="I43" s="72">
         <f t="shared" si="2"/>
         <v>0.4998787247657146</v>
       </c>
-      <c r="J43" s="84">
+      <c r="J43" s="72">
         <f t="shared" si="2"/>
         <v>0.49988338302318458</v>
       </c>
-      <c r="K43" s="84">
+      <c r="K43" s="72">
         <f t="shared" si="2"/>
         <v>0.49988787297401771</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="83">
+      <c r="A44" s="71">
         <f t="shared" si="3"/>
         <v>3.700000000000002</v>
       </c>
-      <c r="B44" s="84">
+      <c r="B44" s="72">
         <f t="shared" si="2"/>
         <v>0.49989220026652259</v>
       </c>
-      <c r="C44" s="84">
+      <c r="C44" s="72">
         <f t="shared" si="2"/>
         <v>0.49989637037632595</v>
       </c>
-      <c r="D44" s="84">
+      <c r="D44" s="72">
         <f t="shared" si="2"/>
         <v>0.49990038861102404</v>
       </c>
-      <c r="E44" s="84">
+      <c r="E44" s="72">
         <f t="shared" si="2"/>
         <v>0.4999042601147311</v>
       </c>
-      <c r="F44" s="84">
+      <c r="F44" s="72">
         <f t="shared" si="2"/>
         <v>0.49990798987252594</v>
       </c>
-      <c r="G44" s="84">
+      <c r="G44" s="72">
         <f t="shared" si="2"/>
         <v>0.49991158271479919</v>
       </c>
-      <c r="H44" s="84">
+      <c r="H44" s="72">
         <f t="shared" si="2"/>
         <v>0.49991504332150205</v>
       </c>
-      <c r="I44" s="84">
+      <c r="I44" s="72">
         <f t="shared" si="2"/>
         <v>0.49991837622629731</v>
       </c>
-      <c r="J44" s="84">
+      <c r="J44" s="72">
         <f t="shared" si="2"/>
         <v>0.49992158582061641</v>
       </c>
-      <c r="K44" s="84">
+      <c r="K44" s="72">
         <f t="shared" si="2"/>
         <v>0.49992467635762128</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="83">
+      <c r="A45" s="71">
         <f t="shared" si="3"/>
         <v>3.800000000000002</v>
       </c>
-      <c r="B45" s="84">
+      <c r="B45" s="72">
         <f t="shared" si="2"/>
         <v>0.49992765195607491</v>
       </c>
-      <c r="C45" s="84">
+      <c r="C45" s="72">
         <f t="shared" si="2"/>
         <v>0.49993051660412013</v>
       </c>
-      <c r="D45" s="84">
+      <c r="D45" s="72">
         <f t="shared" si="2"/>
         <v>0.49993327416297029</v>
       </c>
-      <c r="E45" s="84">
+      <c r="E45" s="72">
         <f t="shared" si="2"/>
         <v>0.49993592837051115</v>
       </c>
-      <c r="F45" s="84">
+      <c r="F45" s="72">
         <f t="shared" si="2"/>
         <v>0.49993848284481679</v>
       </c>
-      <c r="G45" s="84">
+      <c r="G45" s="72">
         <f t="shared" si="2"/>
         <v>0.49994094108758103</v>
       </c>
-      <c r="H45" s="84">
+      <c r="H45" s="72">
         <f t="shared" si="2"/>
         <v>0.49994330648746577</v>
       </c>
-      <c r="I45" s="84">
+      <c r="I45" s="72">
         <f t="shared" si="2"/>
         <v>0.49994558232336628</v>
       </c>
-      <c r="J45" s="84">
+      <c r="J45" s="72">
         <f t="shared" si="2"/>
         <v>0.49994777176759819</v>
       </c>
-      <c r="K45" s="84">
+      <c r="K45" s="72">
         <f t="shared" si="2"/>
         <v>0.4999498778890038</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="83">
+      <c r="A46" s="71">
         <f t="shared" si="3"/>
         <v>3.9000000000000021</v>
       </c>
-      <c r="B46" s="84">
+      <c r="B46" s="72">
         <f t="shared" si="2"/>
         <v>0.49995190365598241</v>
       </c>
-      <c r="C46" s="84">
+      <c r="C46" s="72">
         <f t="shared" si="2"/>
         <v>0.49995385193944375</v>
       </c>
-      <c r="D46" s="84">
+      <c r="D46" s="72">
         <f t="shared" si="2"/>
         <v>0.4999557255156879</v>
       </c>
-      <c r="E46" s="84">
+      <c r="E46" s="72">
         <f t="shared" si="2"/>
         <v>0.49995752706921126</v>
       </c>
-      <c r="F46" s="84">
+      <c r="F46" s="72">
         <f t="shared" si="2"/>
         <v>0.49995925919544149</v>
       </c>
-      <c r="G46" s="84">
+      <c r="G46" s="72">
         <f t="shared" si="2"/>
         <v>0.49996092440340223</v>
       </c>
-      <c r="H46" s="84">
+      <c r="H46" s="72">
         <f t="shared" si="2"/>
         <v>0.49996252511830896</v>
       </c>
-      <c r="I46" s="84">
+      <c r="I46" s="72">
         <f t="shared" si="2"/>
         <v>0.49996406368409718</v>
       </c>
-      <c r="J46" s="84">
+      <c r="J46" s="72">
         <f t="shared" si="2"/>
         <v>0.49996554236588497</v>
       </c>
-      <c r="K46" s="84">
+      <c r="K46" s="72">
         <f t="shared" si="2"/>
         <v>0.49996696335237056</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="83">
+      <c r="A47" s="71">
         <f t="shared" si="3"/>
         <v>4.0000000000000018</v>
       </c>
-      <c r="B47" s="84">
+      <c r="B47" s="72">
         <f t="shared" ref="B47:K47" si="4">_xlfn.NORM.DIST($A47+B$6,0,1,TRUE)-0.5</f>
         <v>0.49996832875816688</v>
       </c>
-      <c r="C47" s="84">
+      <c r="C47" s="72">
         <f t="shared" si="4"/>
         <v>0.49996964062607341</v>
       </c>
-      <c r="D47" s="84">
+      <c r="D47" s="72">
         <f t="shared" si="4"/>
         <v>0.49997090092928809</v>
       </c>
-      <c r="E47" s="84">
+      <c r="E47" s="72">
         <f t="shared" si="4"/>
         <v>0.49997211157355947</v>
       </c>
-      <c r="F47" s="84">
+      <c r="F47" s="72">
         <f t="shared" si="4"/>
         <v>0.49997327439928052</v>
       </c>
-      <c r="G47" s="84">
+      <c r="G47" s="72">
         <f t="shared" si="4"/>
         <v>0.49997439118352593</v>
       </c>
-      <c r="H47" s="84">
+      <c r="H47" s="72">
         <f t="shared" si="4"/>
         <v>0.4999754636420336</v>
       </c>
-      <c r="I47" s="84">
+      <c r="I47" s="72">
         <f t="shared" si="4"/>
         <v>0.49997649343113137</v>
       </c>
-      <c r="J47" s="84">
+      <c r="J47" s="72">
         <f t="shared" si="4"/>
         <v>0.49997748214961146</v>
       </c>
-      <c r="K47" s="84">
+      <c r="K47" s="72">
         <f t="shared" si="4"/>
         <v>0.49997843134055187</v>
       </c>

--- a/stats/hw3/Kumar_Navarurh_HW3.xlsx
+++ b/stats/hw3/Kumar_Navarurh_HW3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navar\OneDrive\Documents\UTD\assignments\stats\hw3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D86E0208-A997-4423-9BBF-95EEBEFF4A7D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1C04BBFB-3EDE-42D3-8897-F81B8BDA03DC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1080,9 +1080,9 @@
     <numFmt numFmtId="164" formatCode=";;;"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="173" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1176,13 +1176,6 @@
       <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="6" tint="0.79998168889431442"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2001,7 +1994,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2011,14 +2003,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2028,67 +2019,67 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2098,7 +2089,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2113,22 +2104,85 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2179,13 +2233,106 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2197,165 +2344,11 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="21" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="21" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="21" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="21" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="21" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="21" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="21" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="21" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="21" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="21" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="21" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="21" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="21" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="21" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="21" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="21" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2788,7 +2781,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="31"/>
+    <col min="1" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2803,80 +2796,80 @@
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
     </row>
     <row r="3" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
     </row>
     <row r="4" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
@@ -3186,1081 +3179,1081 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="59.375" style="40" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="40" customWidth="1"/>
-    <col min="4" max="251" width="9" style="40"/>
-    <col min="252" max="252" width="93.75" style="40" customWidth="1"/>
-    <col min="253" max="253" width="15.25" style="40" customWidth="1"/>
-    <col min="254" max="255" width="9" style="40"/>
-    <col min="256" max="256" width="8.5" style="40" customWidth="1"/>
-    <col min="257" max="257" width="9" style="40"/>
-    <col min="258" max="258" width="13.625" style="40" customWidth="1"/>
-    <col min="259" max="259" width="12.25" style="40" customWidth="1"/>
-    <col min="260" max="507" width="9" style="40"/>
-    <col min="508" max="508" width="93.75" style="40" customWidth="1"/>
-    <col min="509" max="509" width="15.25" style="40" customWidth="1"/>
-    <col min="510" max="511" width="9" style="40"/>
-    <col min="512" max="512" width="8.5" style="40" customWidth="1"/>
-    <col min="513" max="513" width="9" style="40"/>
-    <col min="514" max="514" width="13.625" style="40" customWidth="1"/>
-    <col min="515" max="515" width="12.25" style="40" customWidth="1"/>
-    <col min="516" max="763" width="9" style="40"/>
-    <col min="764" max="764" width="93.75" style="40" customWidth="1"/>
-    <col min="765" max="765" width="15.25" style="40" customWidth="1"/>
-    <col min="766" max="767" width="9" style="40"/>
-    <col min="768" max="768" width="8.5" style="40" customWidth="1"/>
-    <col min="769" max="769" width="9" style="40"/>
-    <col min="770" max="770" width="13.625" style="40" customWidth="1"/>
-    <col min="771" max="771" width="12.25" style="40" customWidth="1"/>
-    <col min="772" max="1019" width="9" style="40"/>
-    <col min="1020" max="1020" width="93.75" style="40" customWidth="1"/>
-    <col min="1021" max="1021" width="15.25" style="40" customWidth="1"/>
-    <col min="1022" max="1023" width="9" style="40"/>
-    <col min="1024" max="1024" width="8.5" style="40" customWidth="1"/>
-    <col min="1025" max="1025" width="9" style="40"/>
-    <col min="1026" max="1026" width="13.625" style="40" customWidth="1"/>
-    <col min="1027" max="1027" width="12.25" style="40" customWidth="1"/>
-    <col min="1028" max="1275" width="9" style="40"/>
-    <col min="1276" max="1276" width="93.75" style="40" customWidth="1"/>
-    <col min="1277" max="1277" width="15.25" style="40" customWidth="1"/>
-    <col min="1278" max="1279" width="9" style="40"/>
-    <col min="1280" max="1280" width="8.5" style="40" customWidth="1"/>
-    <col min="1281" max="1281" width="9" style="40"/>
-    <col min="1282" max="1282" width="13.625" style="40" customWidth="1"/>
-    <col min="1283" max="1283" width="12.25" style="40" customWidth="1"/>
-    <col min="1284" max="1531" width="9" style="40"/>
-    <col min="1532" max="1532" width="93.75" style="40" customWidth="1"/>
-    <col min="1533" max="1533" width="15.25" style="40" customWidth="1"/>
-    <col min="1534" max="1535" width="9" style="40"/>
-    <col min="1536" max="1536" width="8.5" style="40" customWidth="1"/>
-    <col min="1537" max="1537" width="9" style="40"/>
-    <col min="1538" max="1538" width="13.625" style="40" customWidth="1"/>
-    <col min="1539" max="1539" width="12.25" style="40" customWidth="1"/>
-    <col min="1540" max="1787" width="9" style="40"/>
-    <col min="1788" max="1788" width="93.75" style="40" customWidth="1"/>
-    <col min="1789" max="1789" width="15.25" style="40" customWidth="1"/>
-    <col min="1790" max="1791" width="9" style="40"/>
-    <col min="1792" max="1792" width="8.5" style="40" customWidth="1"/>
-    <col min="1793" max="1793" width="9" style="40"/>
-    <col min="1794" max="1794" width="13.625" style="40" customWidth="1"/>
-    <col min="1795" max="1795" width="12.25" style="40" customWidth="1"/>
-    <col min="1796" max="2043" width="9" style="40"/>
-    <col min="2044" max="2044" width="93.75" style="40" customWidth="1"/>
-    <col min="2045" max="2045" width="15.25" style="40" customWidth="1"/>
-    <col min="2046" max="2047" width="9" style="40"/>
-    <col min="2048" max="2048" width="8.5" style="40" customWidth="1"/>
-    <col min="2049" max="2049" width="9" style="40"/>
-    <col min="2050" max="2050" width="13.625" style="40" customWidth="1"/>
-    <col min="2051" max="2051" width="12.25" style="40" customWidth="1"/>
-    <col min="2052" max="2299" width="9" style="40"/>
-    <col min="2300" max="2300" width="93.75" style="40" customWidth="1"/>
-    <col min="2301" max="2301" width="15.25" style="40" customWidth="1"/>
-    <col min="2302" max="2303" width="9" style="40"/>
-    <col min="2304" max="2304" width="8.5" style="40" customWidth="1"/>
-    <col min="2305" max="2305" width="9" style="40"/>
-    <col min="2306" max="2306" width="13.625" style="40" customWidth="1"/>
-    <col min="2307" max="2307" width="12.25" style="40" customWidth="1"/>
-    <col min="2308" max="2555" width="9" style="40"/>
-    <col min="2556" max="2556" width="93.75" style="40" customWidth="1"/>
-    <col min="2557" max="2557" width="15.25" style="40" customWidth="1"/>
-    <col min="2558" max="2559" width="9" style="40"/>
-    <col min="2560" max="2560" width="8.5" style="40" customWidth="1"/>
-    <col min="2561" max="2561" width="9" style="40"/>
-    <col min="2562" max="2562" width="13.625" style="40" customWidth="1"/>
-    <col min="2563" max="2563" width="12.25" style="40" customWidth="1"/>
-    <col min="2564" max="2811" width="9" style="40"/>
-    <col min="2812" max="2812" width="93.75" style="40" customWidth="1"/>
-    <col min="2813" max="2813" width="15.25" style="40" customWidth="1"/>
-    <col min="2814" max="2815" width="9" style="40"/>
-    <col min="2816" max="2816" width="8.5" style="40" customWidth="1"/>
-    <col min="2817" max="2817" width="9" style="40"/>
-    <col min="2818" max="2818" width="13.625" style="40" customWidth="1"/>
-    <col min="2819" max="2819" width="12.25" style="40" customWidth="1"/>
-    <col min="2820" max="3067" width="9" style="40"/>
-    <col min="3068" max="3068" width="93.75" style="40" customWidth="1"/>
-    <col min="3069" max="3069" width="15.25" style="40" customWidth="1"/>
-    <col min="3070" max="3071" width="9" style="40"/>
-    <col min="3072" max="3072" width="8.5" style="40" customWidth="1"/>
-    <col min="3073" max="3073" width="9" style="40"/>
-    <col min="3074" max="3074" width="13.625" style="40" customWidth="1"/>
-    <col min="3075" max="3075" width="12.25" style="40" customWidth="1"/>
-    <col min="3076" max="3323" width="9" style="40"/>
-    <col min="3324" max="3324" width="93.75" style="40" customWidth="1"/>
-    <col min="3325" max="3325" width="15.25" style="40" customWidth="1"/>
-    <col min="3326" max="3327" width="9" style="40"/>
-    <col min="3328" max="3328" width="8.5" style="40" customWidth="1"/>
-    <col min="3329" max="3329" width="9" style="40"/>
-    <col min="3330" max="3330" width="13.625" style="40" customWidth="1"/>
-    <col min="3331" max="3331" width="12.25" style="40" customWidth="1"/>
-    <col min="3332" max="3579" width="9" style="40"/>
-    <col min="3580" max="3580" width="93.75" style="40" customWidth="1"/>
-    <col min="3581" max="3581" width="15.25" style="40" customWidth="1"/>
-    <col min="3582" max="3583" width="9" style="40"/>
-    <col min="3584" max="3584" width="8.5" style="40" customWidth="1"/>
-    <col min="3585" max="3585" width="9" style="40"/>
-    <col min="3586" max="3586" width="13.625" style="40" customWidth="1"/>
-    <col min="3587" max="3587" width="12.25" style="40" customWidth="1"/>
-    <col min="3588" max="3835" width="9" style="40"/>
-    <col min="3836" max="3836" width="93.75" style="40" customWidth="1"/>
-    <col min="3837" max="3837" width="15.25" style="40" customWidth="1"/>
-    <col min="3838" max="3839" width="9" style="40"/>
-    <col min="3840" max="3840" width="8.5" style="40" customWidth="1"/>
-    <col min="3841" max="3841" width="9" style="40"/>
-    <col min="3842" max="3842" width="13.625" style="40" customWidth="1"/>
-    <col min="3843" max="3843" width="12.25" style="40" customWidth="1"/>
-    <col min="3844" max="4091" width="9" style="40"/>
-    <col min="4092" max="4092" width="93.75" style="40" customWidth="1"/>
-    <col min="4093" max="4093" width="15.25" style="40" customWidth="1"/>
-    <col min="4094" max="4095" width="9" style="40"/>
-    <col min="4096" max="4096" width="8.5" style="40" customWidth="1"/>
-    <col min="4097" max="4097" width="9" style="40"/>
-    <col min="4098" max="4098" width="13.625" style="40" customWidth="1"/>
-    <col min="4099" max="4099" width="12.25" style="40" customWidth="1"/>
-    <col min="4100" max="4347" width="9" style="40"/>
-    <col min="4348" max="4348" width="93.75" style="40" customWidth="1"/>
-    <col min="4349" max="4349" width="15.25" style="40" customWidth="1"/>
-    <col min="4350" max="4351" width="9" style="40"/>
-    <col min="4352" max="4352" width="8.5" style="40" customWidth="1"/>
-    <col min="4353" max="4353" width="9" style="40"/>
-    <col min="4354" max="4354" width="13.625" style="40" customWidth="1"/>
-    <col min="4355" max="4355" width="12.25" style="40" customWidth="1"/>
-    <col min="4356" max="4603" width="9" style="40"/>
-    <col min="4604" max="4604" width="93.75" style="40" customWidth="1"/>
-    <col min="4605" max="4605" width="15.25" style="40" customWidth="1"/>
-    <col min="4606" max="4607" width="9" style="40"/>
-    <col min="4608" max="4608" width="8.5" style="40" customWidth="1"/>
-    <col min="4609" max="4609" width="9" style="40"/>
-    <col min="4610" max="4610" width="13.625" style="40" customWidth="1"/>
-    <col min="4611" max="4611" width="12.25" style="40" customWidth="1"/>
-    <col min="4612" max="4859" width="9" style="40"/>
-    <col min="4860" max="4860" width="93.75" style="40" customWidth="1"/>
-    <col min="4861" max="4861" width="15.25" style="40" customWidth="1"/>
-    <col min="4862" max="4863" width="9" style="40"/>
-    <col min="4864" max="4864" width="8.5" style="40" customWidth="1"/>
-    <col min="4865" max="4865" width="9" style="40"/>
-    <col min="4866" max="4866" width="13.625" style="40" customWidth="1"/>
-    <col min="4867" max="4867" width="12.25" style="40" customWidth="1"/>
-    <col min="4868" max="5115" width="9" style="40"/>
-    <col min="5116" max="5116" width="93.75" style="40" customWidth="1"/>
-    <col min="5117" max="5117" width="15.25" style="40" customWidth="1"/>
-    <col min="5118" max="5119" width="9" style="40"/>
-    <col min="5120" max="5120" width="8.5" style="40" customWidth="1"/>
-    <col min="5121" max="5121" width="9" style="40"/>
-    <col min="5122" max="5122" width="13.625" style="40" customWidth="1"/>
-    <col min="5123" max="5123" width="12.25" style="40" customWidth="1"/>
-    <col min="5124" max="5371" width="9" style="40"/>
-    <col min="5372" max="5372" width="93.75" style="40" customWidth="1"/>
-    <col min="5373" max="5373" width="15.25" style="40" customWidth="1"/>
-    <col min="5374" max="5375" width="9" style="40"/>
-    <col min="5376" max="5376" width="8.5" style="40" customWidth="1"/>
-    <col min="5377" max="5377" width="9" style="40"/>
-    <col min="5378" max="5378" width="13.625" style="40" customWidth="1"/>
-    <col min="5379" max="5379" width="12.25" style="40" customWidth="1"/>
-    <col min="5380" max="5627" width="9" style="40"/>
-    <col min="5628" max="5628" width="93.75" style="40" customWidth="1"/>
-    <col min="5629" max="5629" width="15.25" style="40" customWidth="1"/>
-    <col min="5630" max="5631" width="9" style="40"/>
-    <col min="5632" max="5632" width="8.5" style="40" customWidth="1"/>
-    <col min="5633" max="5633" width="9" style="40"/>
-    <col min="5634" max="5634" width="13.625" style="40" customWidth="1"/>
-    <col min="5635" max="5635" width="12.25" style="40" customWidth="1"/>
-    <col min="5636" max="5883" width="9" style="40"/>
-    <col min="5884" max="5884" width="93.75" style="40" customWidth="1"/>
-    <col min="5885" max="5885" width="15.25" style="40" customWidth="1"/>
-    <col min="5886" max="5887" width="9" style="40"/>
-    <col min="5888" max="5888" width="8.5" style="40" customWidth="1"/>
-    <col min="5889" max="5889" width="9" style="40"/>
-    <col min="5890" max="5890" width="13.625" style="40" customWidth="1"/>
-    <col min="5891" max="5891" width="12.25" style="40" customWidth="1"/>
-    <col min="5892" max="6139" width="9" style="40"/>
-    <col min="6140" max="6140" width="93.75" style="40" customWidth="1"/>
-    <col min="6141" max="6141" width="15.25" style="40" customWidth="1"/>
-    <col min="6142" max="6143" width="9" style="40"/>
-    <col min="6144" max="6144" width="8.5" style="40" customWidth="1"/>
-    <col min="6145" max="6145" width="9" style="40"/>
-    <col min="6146" max="6146" width="13.625" style="40" customWidth="1"/>
-    <col min="6147" max="6147" width="12.25" style="40" customWidth="1"/>
-    <col min="6148" max="6395" width="9" style="40"/>
-    <col min="6396" max="6396" width="93.75" style="40" customWidth="1"/>
-    <col min="6397" max="6397" width="15.25" style="40" customWidth="1"/>
-    <col min="6398" max="6399" width="9" style="40"/>
-    <col min="6400" max="6400" width="8.5" style="40" customWidth="1"/>
-    <col min="6401" max="6401" width="9" style="40"/>
-    <col min="6402" max="6402" width="13.625" style="40" customWidth="1"/>
-    <col min="6403" max="6403" width="12.25" style="40" customWidth="1"/>
-    <col min="6404" max="6651" width="9" style="40"/>
-    <col min="6652" max="6652" width="93.75" style="40" customWidth="1"/>
-    <col min="6653" max="6653" width="15.25" style="40" customWidth="1"/>
-    <col min="6654" max="6655" width="9" style="40"/>
-    <col min="6656" max="6656" width="8.5" style="40" customWidth="1"/>
-    <col min="6657" max="6657" width="9" style="40"/>
-    <col min="6658" max="6658" width="13.625" style="40" customWidth="1"/>
-    <col min="6659" max="6659" width="12.25" style="40" customWidth="1"/>
-    <col min="6660" max="6907" width="9" style="40"/>
-    <col min="6908" max="6908" width="93.75" style="40" customWidth="1"/>
-    <col min="6909" max="6909" width="15.25" style="40" customWidth="1"/>
-    <col min="6910" max="6911" width="9" style="40"/>
-    <col min="6912" max="6912" width="8.5" style="40" customWidth="1"/>
-    <col min="6913" max="6913" width="9" style="40"/>
-    <col min="6914" max="6914" width="13.625" style="40" customWidth="1"/>
-    <col min="6915" max="6915" width="12.25" style="40" customWidth="1"/>
-    <col min="6916" max="7163" width="9" style="40"/>
-    <col min="7164" max="7164" width="93.75" style="40" customWidth="1"/>
-    <col min="7165" max="7165" width="15.25" style="40" customWidth="1"/>
-    <col min="7166" max="7167" width="9" style="40"/>
-    <col min="7168" max="7168" width="8.5" style="40" customWidth="1"/>
-    <col min="7169" max="7169" width="9" style="40"/>
-    <col min="7170" max="7170" width="13.625" style="40" customWidth="1"/>
-    <col min="7171" max="7171" width="12.25" style="40" customWidth="1"/>
-    <col min="7172" max="7419" width="9" style="40"/>
-    <col min="7420" max="7420" width="93.75" style="40" customWidth="1"/>
-    <col min="7421" max="7421" width="15.25" style="40" customWidth="1"/>
-    <col min="7422" max="7423" width="9" style="40"/>
-    <col min="7424" max="7424" width="8.5" style="40" customWidth="1"/>
-    <col min="7425" max="7425" width="9" style="40"/>
-    <col min="7426" max="7426" width="13.625" style="40" customWidth="1"/>
-    <col min="7427" max="7427" width="12.25" style="40" customWidth="1"/>
-    <col min="7428" max="7675" width="9" style="40"/>
-    <col min="7676" max="7676" width="93.75" style="40" customWidth="1"/>
-    <col min="7677" max="7677" width="15.25" style="40" customWidth="1"/>
-    <col min="7678" max="7679" width="9" style="40"/>
-    <col min="7680" max="7680" width="8.5" style="40" customWidth="1"/>
-    <col min="7681" max="7681" width="9" style="40"/>
-    <col min="7682" max="7682" width="13.625" style="40" customWidth="1"/>
-    <col min="7683" max="7683" width="12.25" style="40" customWidth="1"/>
-    <col min="7684" max="7931" width="9" style="40"/>
-    <col min="7932" max="7932" width="93.75" style="40" customWidth="1"/>
-    <col min="7933" max="7933" width="15.25" style="40" customWidth="1"/>
-    <col min="7934" max="7935" width="9" style="40"/>
-    <col min="7936" max="7936" width="8.5" style="40" customWidth="1"/>
-    <col min="7937" max="7937" width="9" style="40"/>
-    <col min="7938" max="7938" width="13.625" style="40" customWidth="1"/>
-    <col min="7939" max="7939" width="12.25" style="40" customWidth="1"/>
-    <col min="7940" max="8187" width="9" style="40"/>
-    <col min="8188" max="8188" width="93.75" style="40" customWidth="1"/>
-    <col min="8189" max="8189" width="15.25" style="40" customWidth="1"/>
-    <col min="8190" max="8191" width="9" style="40"/>
-    <col min="8192" max="8192" width="8.5" style="40" customWidth="1"/>
-    <col min="8193" max="8193" width="9" style="40"/>
-    <col min="8194" max="8194" width="13.625" style="40" customWidth="1"/>
-    <col min="8195" max="8195" width="12.25" style="40" customWidth="1"/>
-    <col min="8196" max="8443" width="9" style="40"/>
-    <col min="8444" max="8444" width="93.75" style="40" customWidth="1"/>
-    <col min="8445" max="8445" width="15.25" style="40" customWidth="1"/>
-    <col min="8446" max="8447" width="9" style="40"/>
-    <col min="8448" max="8448" width="8.5" style="40" customWidth="1"/>
-    <col min="8449" max="8449" width="9" style="40"/>
-    <col min="8450" max="8450" width="13.625" style="40" customWidth="1"/>
-    <col min="8451" max="8451" width="12.25" style="40" customWidth="1"/>
-    <col min="8452" max="8699" width="9" style="40"/>
-    <col min="8700" max="8700" width="93.75" style="40" customWidth="1"/>
-    <col min="8701" max="8701" width="15.25" style="40" customWidth="1"/>
-    <col min="8702" max="8703" width="9" style="40"/>
-    <col min="8704" max="8704" width="8.5" style="40" customWidth="1"/>
-    <col min="8705" max="8705" width="9" style="40"/>
-    <col min="8706" max="8706" width="13.625" style="40" customWidth="1"/>
-    <col min="8707" max="8707" width="12.25" style="40" customWidth="1"/>
-    <col min="8708" max="8955" width="9" style="40"/>
-    <col min="8956" max="8956" width="93.75" style="40" customWidth="1"/>
-    <col min="8957" max="8957" width="15.25" style="40" customWidth="1"/>
-    <col min="8958" max="8959" width="9" style="40"/>
-    <col min="8960" max="8960" width="8.5" style="40" customWidth="1"/>
-    <col min="8961" max="8961" width="9" style="40"/>
-    <col min="8962" max="8962" width="13.625" style="40" customWidth="1"/>
-    <col min="8963" max="8963" width="12.25" style="40" customWidth="1"/>
-    <col min="8964" max="9211" width="9" style="40"/>
-    <col min="9212" max="9212" width="93.75" style="40" customWidth="1"/>
-    <col min="9213" max="9213" width="15.25" style="40" customWidth="1"/>
-    <col min="9214" max="9215" width="9" style="40"/>
-    <col min="9216" max="9216" width="8.5" style="40" customWidth="1"/>
-    <col min="9217" max="9217" width="9" style="40"/>
-    <col min="9218" max="9218" width="13.625" style="40" customWidth="1"/>
-    <col min="9219" max="9219" width="12.25" style="40" customWidth="1"/>
-    <col min="9220" max="9467" width="9" style="40"/>
-    <col min="9468" max="9468" width="93.75" style="40" customWidth="1"/>
-    <col min="9469" max="9469" width="15.25" style="40" customWidth="1"/>
-    <col min="9470" max="9471" width="9" style="40"/>
-    <col min="9472" max="9472" width="8.5" style="40" customWidth="1"/>
-    <col min="9473" max="9473" width="9" style="40"/>
-    <col min="9474" max="9474" width="13.625" style="40" customWidth="1"/>
-    <col min="9475" max="9475" width="12.25" style="40" customWidth="1"/>
-    <col min="9476" max="9723" width="9" style="40"/>
-    <col min="9724" max="9724" width="93.75" style="40" customWidth="1"/>
-    <col min="9725" max="9725" width="15.25" style="40" customWidth="1"/>
-    <col min="9726" max="9727" width="9" style="40"/>
-    <col min="9728" max="9728" width="8.5" style="40" customWidth="1"/>
-    <col min="9729" max="9729" width="9" style="40"/>
-    <col min="9730" max="9730" width="13.625" style="40" customWidth="1"/>
-    <col min="9731" max="9731" width="12.25" style="40" customWidth="1"/>
-    <col min="9732" max="9979" width="9" style="40"/>
-    <col min="9980" max="9980" width="93.75" style="40" customWidth="1"/>
-    <col min="9981" max="9981" width="15.25" style="40" customWidth="1"/>
-    <col min="9982" max="9983" width="9" style="40"/>
-    <col min="9984" max="9984" width="8.5" style="40" customWidth="1"/>
-    <col min="9985" max="9985" width="9" style="40"/>
-    <col min="9986" max="9986" width="13.625" style="40" customWidth="1"/>
-    <col min="9987" max="9987" width="12.25" style="40" customWidth="1"/>
-    <col min="9988" max="10235" width="9" style="40"/>
-    <col min="10236" max="10236" width="93.75" style="40" customWidth="1"/>
-    <col min="10237" max="10237" width="15.25" style="40" customWidth="1"/>
-    <col min="10238" max="10239" width="9" style="40"/>
-    <col min="10240" max="10240" width="8.5" style="40" customWidth="1"/>
-    <col min="10241" max="10241" width="9" style="40"/>
-    <col min="10242" max="10242" width="13.625" style="40" customWidth="1"/>
-    <col min="10243" max="10243" width="12.25" style="40" customWidth="1"/>
-    <col min="10244" max="10491" width="9" style="40"/>
-    <col min="10492" max="10492" width="93.75" style="40" customWidth="1"/>
-    <col min="10493" max="10493" width="15.25" style="40" customWidth="1"/>
-    <col min="10494" max="10495" width="9" style="40"/>
-    <col min="10496" max="10496" width="8.5" style="40" customWidth="1"/>
-    <col min="10497" max="10497" width="9" style="40"/>
-    <col min="10498" max="10498" width="13.625" style="40" customWidth="1"/>
-    <col min="10499" max="10499" width="12.25" style="40" customWidth="1"/>
-    <col min="10500" max="10747" width="9" style="40"/>
-    <col min="10748" max="10748" width="93.75" style="40" customWidth="1"/>
-    <col min="10749" max="10749" width="15.25" style="40" customWidth="1"/>
-    <col min="10750" max="10751" width="9" style="40"/>
-    <col min="10752" max="10752" width="8.5" style="40" customWidth="1"/>
-    <col min="10753" max="10753" width="9" style="40"/>
-    <col min="10754" max="10754" width="13.625" style="40" customWidth="1"/>
-    <col min="10755" max="10755" width="12.25" style="40" customWidth="1"/>
-    <col min="10756" max="11003" width="9" style="40"/>
-    <col min="11004" max="11004" width="93.75" style="40" customWidth="1"/>
-    <col min="11005" max="11005" width="15.25" style="40" customWidth="1"/>
-    <col min="11006" max="11007" width="9" style="40"/>
-    <col min="11008" max="11008" width="8.5" style="40" customWidth="1"/>
-    <col min="11009" max="11009" width="9" style="40"/>
-    <col min="11010" max="11010" width="13.625" style="40" customWidth="1"/>
-    <col min="11011" max="11011" width="12.25" style="40" customWidth="1"/>
-    <col min="11012" max="11259" width="9" style="40"/>
-    <col min="11260" max="11260" width="93.75" style="40" customWidth="1"/>
-    <col min="11261" max="11261" width="15.25" style="40" customWidth="1"/>
-    <col min="11262" max="11263" width="9" style="40"/>
-    <col min="11264" max="11264" width="8.5" style="40" customWidth="1"/>
-    <col min="11265" max="11265" width="9" style="40"/>
-    <col min="11266" max="11266" width="13.625" style="40" customWidth="1"/>
-    <col min="11267" max="11267" width="12.25" style="40" customWidth="1"/>
-    <col min="11268" max="11515" width="9" style="40"/>
-    <col min="11516" max="11516" width="93.75" style="40" customWidth="1"/>
-    <col min="11517" max="11517" width="15.25" style="40" customWidth="1"/>
-    <col min="11518" max="11519" width="9" style="40"/>
-    <col min="11520" max="11520" width="8.5" style="40" customWidth="1"/>
-    <col min="11521" max="11521" width="9" style="40"/>
-    <col min="11522" max="11522" width="13.625" style="40" customWidth="1"/>
-    <col min="11523" max="11523" width="12.25" style="40" customWidth="1"/>
-    <col min="11524" max="11771" width="9" style="40"/>
-    <col min="11772" max="11772" width="93.75" style="40" customWidth="1"/>
-    <col min="11773" max="11773" width="15.25" style="40" customWidth="1"/>
-    <col min="11774" max="11775" width="9" style="40"/>
-    <col min="11776" max="11776" width="8.5" style="40" customWidth="1"/>
-    <col min="11777" max="11777" width="9" style="40"/>
-    <col min="11778" max="11778" width="13.625" style="40" customWidth="1"/>
-    <col min="11779" max="11779" width="12.25" style="40" customWidth="1"/>
-    <col min="11780" max="12027" width="9" style="40"/>
-    <col min="12028" max="12028" width="93.75" style="40" customWidth="1"/>
-    <col min="12029" max="12029" width="15.25" style="40" customWidth="1"/>
-    <col min="12030" max="12031" width="9" style="40"/>
-    <col min="12032" max="12032" width="8.5" style="40" customWidth="1"/>
-    <col min="12033" max="12033" width="9" style="40"/>
-    <col min="12034" max="12034" width="13.625" style="40" customWidth="1"/>
-    <col min="12035" max="12035" width="12.25" style="40" customWidth="1"/>
-    <col min="12036" max="12283" width="9" style="40"/>
-    <col min="12284" max="12284" width="93.75" style="40" customWidth="1"/>
-    <col min="12285" max="12285" width="15.25" style="40" customWidth="1"/>
-    <col min="12286" max="12287" width="9" style="40"/>
-    <col min="12288" max="12288" width="8.5" style="40" customWidth="1"/>
-    <col min="12289" max="12289" width="9" style="40"/>
-    <col min="12290" max="12290" width="13.625" style="40" customWidth="1"/>
-    <col min="12291" max="12291" width="12.25" style="40" customWidth="1"/>
-    <col min="12292" max="12539" width="9" style="40"/>
-    <col min="12540" max="12540" width="93.75" style="40" customWidth="1"/>
-    <col min="12541" max="12541" width="15.25" style="40" customWidth="1"/>
-    <col min="12542" max="12543" width="9" style="40"/>
-    <col min="12544" max="12544" width="8.5" style="40" customWidth="1"/>
-    <col min="12545" max="12545" width="9" style="40"/>
-    <col min="12546" max="12546" width="13.625" style="40" customWidth="1"/>
-    <col min="12547" max="12547" width="12.25" style="40" customWidth="1"/>
-    <col min="12548" max="12795" width="9" style="40"/>
-    <col min="12796" max="12796" width="93.75" style="40" customWidth="1"/>
-    <col min="12797" max="12797" width="15.25" style="40" customWidth="1"/>
-    <col min="12798" max="12799" width="9" style="40"/>
-    <col min="12800" max="12800" width="8.5" style="40" customWidth="1"/>
-    <col min="12801" max="12801" width="9" style="40"/>
-    <col min="12802" max="12802" width="13.625" style="40" customWidth="1"/>
-    <col min="12803" max="12803" width="12.25" style="40" customWidth="1"/>
-    <col min="12804" max="13051" width="9" style="40"/>
-    <col min="13052" max="13052" width="93.75" style="40" customWidth="1"/>
-    <col min="13053" max="13053" width="15.25" style="40" customWidth="1"/>
-    <col min="13054" max="13055" width="9" style="40"/>
-    <col min="13056" max="13056" width="8.5" style="40" customWidth="1"/>
-    <col min="13057" max="13057" width="9" style="40"/>
-    <col min="13058" max="13058" width="13.625" style="40" customWidth="1"/>
-    <col min="13059" max="13059" width="12.25" style="40" customWidth="1"/>
-    <col min="13060" max="13307" width="9" style="40"/>
-    <col min="13308" max="13308" width="93.75" style="40" customWidth="1"/>
-    <col min="13309" max="13309" width="15.25" style="40" customWidth="1"/>
-    <col min="13310" max="13311" width="9" style="40"/>
-    <col min="13312" max="13312" width="8.5" style="40" customWidth="1"/>
-    <col min="13313" max="13313" width="9" style="40"/>
-    <col min="13314" max="13314" width="13.625" style="40" customWidth="1"/>
-    <col min="13315" max="13315" width="12.25" style="40" customWidth="1"/>
-    <col min="13316" max="13563" width="9" style="40"/>
-    <col min="13564" max="13564" width="93.75" style="40" customWidth="1"/>
-    <col min="13565" max="13565" width="15.25" style="40" customWidth="1"/>
-    <col min="13566" max="13567" width="9" style="40"/>
-    <col min="13568" max="13568" width="8.5" style="40" customWidth="1"/>
-    <col min="13569" max="13569" width="9" style="40"/>
-    <col min="13570" max="13570" width="13.625" style="40" customWidth="1"/>
-    <col min="13571" max="13571" width="12.25" style="40" customWidth="1"/>
-    <col min="13572" max="13819" width="9" style="40"/>
-    <col min="13820" max="13820" width="93.75" style="40" customWidth="1"/>
-    <col min="13821" max="13821" width="15.25" style="40" customWidth="1"/>
-    <col min="13822" max="13823" width="9" style="40"/>
-    <col min="13824" max="13824" width="8.5" style="40" customWidth="1"/>
-    <col min="13825" max="13825" width="9" style="40"/>
-    <col min="13826" max="13826" width="13.625" style="40" customWidth="1"/>
-    <col min="13827" max="13827" width="12.25" style="40" customWidth="1"/>
-    <col min="13828" max="14075" width="9" style="40"/>
-    <col min="14076" max="14076" width="93.75" style="40" customWidth="1"/>
-    <col min="14077" max="14077" width="15.25" style="40" customWidth="1"/>
-    <col min="14078" max="14079" width="9" style="40"/>
-    <col min="14080" max="14080" width="8.5" style="40" customWidth="1"/>
-    <col min="14081" max="14081" width="9" style="40"/>
-    <col min="14082" max="14082" width="13.625" style="40" customWidth="1"/>
-    <col min="14083" max="14083" width="12.25" style="40" customWidth="1"/>
-    <col min="14084" max="14331" width="9" style="40"/>
-    <col min="14332" max="14332" width="93.75" style="40" customWidth="1"/>
-    <col min="14333" max="14333" width="15.25" style="40" customWidth="1"/>
-    <col min="14334" max="14335" width="9" style="40"/>
-    <col min="14336" max="14336" width="8.5" style="40" customWidth="1"/>
-    <col min="14337" max="14337" width="9" style="40"/>
-    <col min="14338" max="14338" width="13.625" style="40" customWidth="1"/>
-    <col min="14339" max="14339" width="12.25" style="40" customWidth="1"/>
-    <col min="14340" max="14587" width="9" style="40"/>
-    <col min="14588" max="14588" width="93.75" style="40" customWidth="1"/>
-    <col min="14589" max="14589" width="15.25" style="40" customWidth="1"/>
-    <col min="14590" max="14591" width="9" style="40"/>
-    <col min="14592" max="14592" width="8.5" style="40" customWidth="1"/>
-    <col min="14593" max="14593" width="9" style="40"/>
-    <col min="14594" max="14594" width="13.625" style="40" customWidth="1"/>
-    <col min="14595" max="14595" width="12.25" style="40" customWidth="1"/>
-    <col min="14596" max="14843" width="9" style="40"/>
-    <col min="14844" max="14844" width="93.75" style="40" customWidth="1"/>
-    <col min="14845" max="14845" width="15.25" style="40" customWidth="1"/>
-    <col min="14846" max="14847" width="9" style="40"/>
-    <col min="14848" max="14848" width="8.5" style="40" customWidth="1"/>
-    <col min="14849" max="14849" width="9" style="40"/>
-    <col min="14850" max="14850" width="13.625" style="40" customWidth="1"/>
-    <col min="14851" max="14851" width="12.25" style="40" customWidth="1"/>
-    <col min="14852" max="15099" width="9" style="40"/>
-    <col min="15100" max="15100" width="93.75" style="40" customWidth="1"/>
-    <col min="15101" max="15101" width="15.25" style="40" customWidth="1"/>
-    <col min="15102" max="15103" width="9" style="40"/>
-    <col min="15104" max="15104" width="8.5" style="40" customWidth="1"/>
-    <col min="15105" max="15105" width="9" style="40"/>
-    <col min="15106" max="15106" width="13.625" style="40" customWidth="1"/>
-    <col min="15107" max="15107" width="12.25" style="40" customWidth="1"/>
-    <col min="15108" max="15355" width="9" style="40"/>
-    <col min="15356" max="15356" width="93.75" style="40" customWidth="1"/>
-    <col min="15357" max="15357" width="15.25" style="40" customWidth="1"/>
-    <col min="15358" max="15359" width="9" style="40"/>
-    <col min="15360" max="15360" width="8.5" style="40" customWidth="1"/>
-    <col min="15361" max="15361" width="9" style="40"/>
-    <col min="15362" max="15362" width="13.625" style="40" customWidth="1"/>
-    <col min="15363" max="15363" width="12.25" style="40" customWidth="1"/>
-    <col min="15364" max="15611" width="9" style="40"/>
-    <col min="15612" max="15612" width="93.75" style="40" customWidth="1"/>
-    <col min="15613" max="15613" width="15.25" style="40" customWidth="1"/>
-    <col min="15614" max="15615" width="9" style="40"/>
-    <col min="15616" max="15616" width="8.5" style="40" customWidth="1"/>
-    <col min="15617" max="15617" width="9" style="40"/>
-    <col min="15618" max="15618" width="13.625" style="40" customWidth="1"/>
-    <col min="15619" max="15619" width="12.25" style="40" customWidth="1"/>
-    <col min="15620" max="15867" width="9" style="40"/>
-    <col min="15868" max="15868" width="93.75" style="40" customWidth="1"/>
-    <col min="15869" max="15869" width="15.25" style="40" customWidth="1"/>
-    <col min="15870" max="15871" width="9" style="40"/>
-    <col min="15872" max="15872" width="8.5" style="40" customWidth="1"/>
-    <col min="15873" max="15873" width="9" style="40"/>
-    <col min="15874" max="15874" width="13.625" style="40" customWidth="1"/>
-    <col min="15875" max="15875" width="12.25" style="40" customWidth="1"/>
-    <col min="15876" max="16123" width="9" style="40"/>
-    <col min="16124" max="16124" width="93.75" style="40" customWidth="1"/>
-    <col min="16125" max="16125" width="15.25" style="40" customWidth="1"/>
-    <col min="16126" max="16127" width="9" style="40"/>
-    <col min="16128" max="16128" width="8.5" style="40" customWidth="1"/>
-    <col min="16129" max="16129" width="9" style="40"/>
-    <col min="16130" max="16130" width="13.625" style="40" customWidth="1"/>
-    <col min="16131" max="16131" width="12.25" style="40" customWidth="1"/>
-    <col min="16132" max="16384" width="9" style="40"/>
+    <col min="1" max="1" width="6.125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="59.375" style="38" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="38" customWidth="1"/>
+    <col min="4" max="251" width="9" style="38"/>
+    <col min="252" max="252" width="93.75" style="38" customWidth="1"/>
+    <col min="253" max="253" width="15.25" style="38" customWidth="1"/>
+    <col min="254" max="255" width="9" style="38"/>
+    <col min="256" max="256" width="8.5" style="38" customWidth="1"/>
+    <col min="257" max="257" width="9" style="38"/>
+    <col min="258" max="258" width="13.625" style="38" customWidth="1"/>
+    <col min="259" max="259" width="12.25" style="38" customWidth="1"/>
+    <col min="260" max="507" width="9" style="38"/>
+    <col min="508" max="508" width="93.75" style="38" customWidth="1"/>
+    <col min="509" max="509" width="15.25" style="38" customWidth="1"/>
+    <col min="510" max="511" width="9" style="38"/>
+    <col min="512" max="512" width="8.5" style="38" customWidth="1"/>
+    <col min="513" max="513" width="9" style="38"/>
+    <col min="514" max="514" width="13.625" style="38" customWidth="1"/>
+    <col min="515" max="515" width="12.25" style="38" customWidth="1"/>
+    <col min="516" max="763" width="9" style="38"/>
+    <col min="764" max="764" width="93.75" style="38" customWidth="1"/>
+    <col min="765" max="765" width="15.25" style="38" customWidth="1"/>
+    <col min="766" max="767" width="9" style="38"/>
+    <col min="768" max="768" width="8.5" style="38" customWidth="1"/>
+    <col min="769" max="769" width="9" style="38"/>
+    <col min="770" max="770" width="13.625" style="38" customWidth="1"/>
+    <col min="771" max="771" width="12.25" style="38" customWidth="1"/>
+    <col min="772" max="1019" width="9" style="38"/>
+    <col min="1020" max="1020" width="93.75" style="38" customWidth="1"/>
+    <col min="1021" max="1021" width="15.25" style="38" customWidth="1"/>
+    <col min="1022" max="1023" width="9" style="38"/>
+    <col min="1024" max="1024" width="8.5" style="38" customWidth="1"/>
+    <col min="1025" max="1025" width="9" style="38"/>
+    <col min="1026" max="1026" width="13.625" style="38" customWidth="1"/>
+    <col min="1027" max="1027" width="12.25" style="38" customWidth="1"/>
+    <col min="1028" max="1275" width="9" style="38"/>
+    <col min="1276" max="1276" width="93.75" style="38" customWidth="1"/>
+    <col min="1277" max="1277" width="15.25" style="38" customWidth="1"/>
+    <col min="1278" max="1279" width="9" style="38"/>
+    <col min="1280" max="1280" width="8.5" style="38" customWidth="1"/>
+    <col min="1281" max="1281" width="9" style="38"/>
+    <col min="1282" max="1282" width="13.625" style="38" customWidth="1"/>
+    <col min="1283" max="1283" width="12.25" style="38" customWidth="1"/>
+    <col min="1284" max="1531" width="9" style="38"/>
+    <col min="1532" max="1532" width="93.75" style="38" customWidth="1"/>
+    <col min="1533" max="1533" width="15.25" style="38" customWidth="1"/>
+    <col min="1534" max="1535" width="9" style="38"/>
+    <col min="1536" max="1536" width="8.5" style="38" customWidth="1"/>
+    <col min="1537" max="1537" width="9" style="38"/>
+    <col min="1538" max="1538" width="13.625" style="38" customWidth="1"/>
+    <col min="1539" max="1539" width="12.25" style="38" customWidth="1"/>
+    <col min="1540" max="1787" width="9" style="38"/>
+    <col min="1788" max="1788" width="93.75" style="38" customWidth="1"/>
+    <col min="1789" max="1789" width="15.25" style="38" customWidth="1"/>
+    <col min="1790" max="1791" width="9" style="38"/>
+    <col min="1792" max="1792" width="8.5" style="38" customWidth="1"/>
+    <col min="1793" max="1793" width="9" style="38"/>
+    <col min="1794" max="1794" width="13.625" style="38" customWidth="1"/>
+    <col min="1795" max="1795" width="12.25" style="38" customWidth="1"/>
+    <col min="1796" max="2043" width="9" style="38"/>
+    <col min="2044" max="2044" width="93.75" style="38" customWidth="1"/>
+    <col min="2045" max="2045" width="15.25" style="38" customWidth="1"/>
+    <col min="2046" max="2047" width="9" style="38"/>
+    <col min="2048" max="2048" width="8.5" style="38" customWidth="1"/>
+    <col min="2049" max="2049" width="9" style="38"/>
+    <col min="2050" max="2050" width="13.625" style="38" customWidth="1"/>
+    <col min="2051" max="2051" width="12.25" style="38" customWidth="1"/>
+    <col min="2052" max="2299" width="9" style="38"/>
+    <col min="2300" max="2300" width="93.75" style="38" customWidth="1"/>
+    <col min="2301" max="2301" width="15.25" style="38" customWidth="1"/>
+    <col min="2302" max="2303" width="9" style="38"/>
+    <col min="2304" max="2304" width="8.5" style="38" customWidth="1"/>
+    <col min="2305" max="2305" width="9" style="38"/>
+    <col min="2306" max="2306" width="13.625" style="38" customWidth="1"/>
+    <col min="2307" max="2307" width="12.25" style="38" customWidth="1"/>
+    <col min="2308" max="2555" width="9" style="38"/>
+    <col min="2556" max="2556" width="93.75" style="38" customWidth="1"/>
+    <col min="2557" max="2557" width="15.25" style="38" customWidth="1"/>
+    <col min="2558" max="2559" width="9" style="38"/>
+    <col min="2560" max="2560" width="8.5" style="38" customWidth="1"/>
+    <col min="2561" max="2561" width="9" style="38"/>
+    <col min="2562" max="2562" width="13.625" style="38" customWidth="1"/>
+    <col min="2563" max="2563" width="12.25" style="38" customWidth="1"/>
+    <col min="2564" max="2811" width="9" style="38"/>
+    <col min="2812" max="2812" width="93.75" style="38" customWidth="1"/>
+    <col min="2813" max="2813" width="15.25" style="38" customWidth="1"/>
+    <col min="2814" max="2815" width="9" style="38"/>
+    <col min="2816" max="2816" width="8.5" style="38" customWidth="1"/>
+    <col min="2817" max="2817" width="9" style="38"/>
+    <col min="2818" max="2818" width="13.625" style="38" customWidth="1"/>
+    <col min="2819" max="2819" width="12.25" style="38" customWidth="1"/>
+    <col min="2820" max="3067" width="9" style="38"/>
+    <col min="3068" max="3068" width="93.75" style="38" customWidth="1"/>
+    <col min="3069" max="3069" width="15.25" style="38" customWidth="1"/>
+    <col min="3070" max="3071" width="9" style="38"/>
+    <col min="3072" max="3072" width="8.5" style="38" customWidth="1"/>
+    <col min="3073" max="3073" width="9" style="38"/>
+    <col min="3074" max="3074" width="13.625" style="38" customWidth="1"/>
+    <col min="3075" max="3075" width="12.25" style="38" customWidth="1"/>
+    <col min="3076" max="3323" width="9" style="38"/>
+    <col min="3324" max="3324" width="93.75" style="38" customWidth="1"/>
+    <col min="3325" max="3325" width="15.25" style="38" customWidth="1"/>
+    <col min="3326" max="3327" width="9" style="38"/>
+    <col min="3328" max="3328" width="8.5" style="38" customWidth="1"/>
+    <col min="3329" max="3329" width="9" style="38"/>
+    <col min="3330" max="3330" width="13.625" style="38" customWidth="1"/>
+    <col min="3331" max="3331" width="12.25" style="38" customWidth="1"/>
+    <col min="3332" max="3579" width="9" style="38"/>
+    <col min="3580" max="3580" width="93.75" style="38" customWidth="1"/>
+    <col min="3581" max="3581" width="15.25" style="38" customWidth="1"/>
+    <col min="3582" max="3583" width="9" style="38"/>
+    <col min="3584" max="3584" width="8.5" style="38" customWidth="1"/>
+    <col min="3585" max="3585" width="9" style="38"/>
+    <col min="3586" max="3586" width="13.625" style="38" customWidth="1"/>
+    <col min="3587" max="3587" width="12.25" style="38" customWidth="1"/>
+    <col min="3588" max="3835" width="9" style="38"/>
+    <col min="3836" max="3836" width="93.75" style="38" customWidth="1"/>
+    <col min="3837" max="3837" width="15.25" style="38" customWidth="1"/>
+    <col min="3838" max="3839" width="9" style="38"/>
+    <col min="3840" max="3840" width="8.5" style="38" customWidth="1"/>
+    <col min="3841" max="3841" width="9" style="38"/>
+    <col min="3842" max="3842" width="13.625" style="38" customWidth="1"/>
+    <col min="3843" max="3843" width="12.25" style="38" customWidth="1"/>
+    <col min="3844" max="4091" width="9" style="38"/>
+    <col min="4092" max="4092" width="93.75" style="38" customWidth="1"/>
+    <col min="4093" max="4093" width="15.25" style="38" customWidth="1"/>
+    <col min="4094" max="4095" width="9" style="38"/>
+    <col min="4096" max="4096" width="8.5" style="38" customWidth="1"/>
+    <col min="4097" max="4097" width="9" style="38"/>
+    <col min="4098" max="4098" width="13.625" style="38" customWidth="1"/>
+    <col min="4099" max="4099" width="12.25" style="38" customWidth="1"/>
+    <col min="4100" max="4347" width="9" style="38"/>
+    <col min="4348" max="4348" width="93.75" style="38" customWidth="1"/>
+    <col min="4349" max="4349" width="15.25" style="38" customWidth="1"/>
+    <col min="4350" max="4351" width="9" style="38"/>
+    <col min="4352" max="4352" width="8.5" style="38" customWidth="1"/>
+    <col min="4353" max="4353" width="9" style="38"/>
+    <col min="4354" max="4354" width="13.625" style="38" customWidth="1"/>
+    <col min="4355" max="4355" width="12.25" style="38" customWidth="1"/>
+    <col min="4356" max="4603" width="9" style="38"/>
+    <col min="4604" max="4604" width="93.75" style="38" customWidth="1"/>
+    <col min="4605" max="4605" width="15.25" style="38" customWidth="1"/>
+    <col min="4606" max="4607" width="9" style="38"/>
+    <col min="4608" max="4608" width="8.5" style="38" customWidth="1"/>
+    <col min="4609" max="4609" width="9" style="38"/>
+    <col min="4610" max="4610" width="13.625" style="38" customWidth="1"/>
+    <col min="4611" max="4611" width="12.25" style="38" customWidth="1"/>
+    <col min="4612" max="4859" width="9" style="38"/>
+    <col min="4860" max="4860" width="93.75" style="38" customWidth="1"/>
+    <col min="4861" max="4861" width="15.25" style="38" customWidth="1"/>
+    <col min="4862" max="4863" width="9" style="38"/>
+    <col min="4864" max="4864" width="8.5" style="38" customWidth="1"/>
+    <col min="4865" max="4865" width="9" style="38"/>
+    <col min="4866" max="4866" width="13.625" style="38" customWidth="1"/>
+    <col min="4867" max="4867" width="12.25" style="38" customWidth="1"/>
+    <col min="4868" max="5115" width="9" style="38"/>
+    <col min="5116" max="5116" width="93.75" style="38" customWidth="1"/>
+    <col min="5117" max="5117" width="15.25" style="38" customWidth="1"/>
+    <col min="5118" max="5119" width="9" style="38"/>
+    <col min="5120" max="5120" width="8.5" style="38" customWidth="1"/>
+    <col min="5121" max="5121" width="9" style="38"/>
+    <col min="5122" max="5122" width="13.625" style="38" customWidth="1"/>
+    <col min="5123" max="5123" width="12.25" style="38" customWidth="1"/>
+    <col min="5124" max="5371" width="9" style="38"/>
+    <col min="5372" max="5372" width="93.75" style="38" customWidth="1"/>
+    <col min="5373" max="5373" width="15.25" style="38" customWidth="1"/>
+    <col min="5374" max="5375" width="9" style="38"/>
+    <col min="5376" max="5376" width="8.5" style="38" customWidth="1"/>
+    <col min="5377" max="5377" width="9" style="38"/>
+    <col min="5378" max="5378" width="13.625" style="38" customWidth="1"/>
+    <col min="5379" max="5379" width="12.25" style="38" customWidth="1"/>
+    <col min="5380" max="5627" width="9" style="38"/>
+    <col min="5628" max="5628" width="93.75" style="38" customWidth="1"/>
+    <col min="5629" max="5629" width="15.25" style="38" customWidth="1"/>
+    <col min="5630" max="5631" width="9" style="38"/>
+    <col min="5632" max="5632" width="8.5" style="38" customWidth="1"/>
+    <col min="5633" max="5633" width="9" style="38"/>
+    <col min="5634" max="5634" width="13.625" style="38" customWidth="1"/>
+    <col min="5635" max="5635" width="12.25" style="38" customWidth="1"/>
+    <col min="5636" max="5883" width="9" style="38"/>
+    <col min="5884" max="5884" width="93.75" style="38" customWidth="1"/>
+    <col min="5885" max="5885" width="15.25" style="38" customWidth="1"/>
+    <col min="5886" max="5887" width="9" style="38"/>
+    <col min="5888" max="5888" width="8.5" style="38" customWidth="1"/>
+    <col min="5889" max="5889" width="9" style="38"/>
+    <col min="5890" max="5890" width="13.625" style="38" customWidth="1"/>
+    <col min="5891" max="5891" width="12.25" style="38" customWidth="1"/>
+    <col min="5892" max="6139" width="9" style="38"/>
+    <col min="6140" max="6140" width="93.75" style="38" customWidth="1"/>
+    <col min="6141" max="6141" width="15.25" style="38" customWidth="1"/>
+    <col min="6142" max="6143" width="9" style="38"/>
+    <col min="6144" max="6144" width="8.5" style="38" customWidth="1"/>
+    <col min="6145" max="6145" width="9" style="38"/>
+    <col min="6146" max="6146" width="13.625" style="38" customWidth="1"/>
+    <col min="6147" max="6147" width="12.25" style="38" customWidth="1"/>
+    <col min="6148" max="6395" width="9" style="38"/>
+    <col min="6396" max="6396" width="93.75" style="38" customWidth="1"/>
+    <col min="6397" max="6397" width="15.25" style="38" customWidth="1"/>
+    <col min="6398" max="6399" width="9" style="38"/>
+    <col min="6400" max="6400" width="8.5" style="38" customWidth="1"/>
+    <col min="6401" max="6401" width="9" style="38"/>
+    <col min="6402" max="6402" width="13.625" style="38" customWidth="1"/>
+    <col min="6403" max="6403" width="12.25" style="38" customWidth="1"/>
+    <col min="6404" max="6651" width="9" style="38"/>
+    <col min="6652" max="6652" width="93.75" style="38" customWidth="1"/>
+    <col min="6653" max="6653" width="15.25" style="38" customWidth="1"/>
+    <col min="6654" max="6655" width="9" style="38"/>
+    <col min="6656" max="6656" width="8.5" style="38" customWidth="1"/>
+    <col min="6657" max="6657" width="9" style="38"/>
+    <col min="6658" max="6658" width="13.625" style="38" customWidth="1"/>
+    <col min="6659" max="6659" width="12.25" style="38" customWidth="1"/>
+    <col min="6660" max="6907" width="9" style="38"/>
+    <col min="6908" max="6908" width="93.75" style="38" customWidth="1"/>
+    <col min="6909" max="6909" width="15.25" style="38" customWidth="1"/>
+    <col min="6910" max="6911" width="9" style="38"/>
+    <col min="6912" max="6912" width="8.5" style="38" customWidth="1"/>
+    <col min="6913" max="6913" width="9" style="38"/>
+    <col min="6914" max="6914" width="13.625" style="38" customWidth="1"/>
+    <col min="6915" max="6915" width="12.25" style="38" customWidth="1"/>
+    <col min="6916" max="7163" width="9" style="38"/>
+    <col min="7164" max="7164" width="93.75" style="38" customWidth="1"/>
+    <col min="7165" max="7165" width="15.25" style="38" customWidth="1"/>
+    <col min="7166" max="7167" width="9" style="38"/>
+    <col min="7168" max="7168" width="8.5" style="38" customWidth="1"/>
+    <col min="7169" max="7169" width="9" style="38"/>
+    <col min="7170" max="7170" width="13.625" style="38" customWidth="1"/>
+    <col min="7171" max="7171" width="12.25" style="38" customWidth="1"/>
+    <col min="7172" max="7419" width="9" style="38"/>
+    <col min="7420" max="7420" width="93.75" style="38" customWidth="1"/>
+    <col min="7421" max="7421" width="15.25" style="38" customWidth="1"/>
+    <col min="7422" max="7423" width="9" style="38"/>
+    <col min="7424" max="7424" width="8.5" style="38" customWidth="1"/>
+    <col min="7425" max="7425" width="9" style="38"/>
+    <col min="7426" max="7426" width="13.625" style="38" customWidth="1"/>
+    <col min="7427" max="7427" width="12.25" style="38" customWidth="1"/>
+    <col min="7428" max="7675" width="9" style="38"/>
+    <col min="7676" max="7676" width="93.75" style="38" customWidth="1"/>
+    <col min="7677" max="7677" width="15.25" style="38" customWidth="1"/>
+    <col min="7678" max="7679" width="9" style="38"/>
+    <col min="7680" max="7680" width="8.5" style="38" customWidth="1"/>
+    <col min="7681" max="7681" width="9" style="38"/>
+    <col min="7682" max="7682" width="13.625" style="38" customWidth="1"/>
+    <col min="7683" max="7683" width="12.25" style="38" customWidth="1"/>
+    <col min="7684" max="7931" width="9" style="38"/>
+    <col min="7932" max="7932" width="93.75" style="38" customWidth="1"/>
+    <col min="7933" max="7933" width="15.25" style="38" customWidth="1"/>
+    <col min="7934" max="7935" width="9" style="38"/>
+    <col min="7936" max="7936" width="8.5" style="38" customWidth="1"/>
+    <col min="7937" max="7937" width="9" style="38"/>
+    <col min="7938" max="7938" width="13.625" style="38" customWidth="1"/>
+    <col min="7939" max="7939" width="12.25" style="38" customWidth="1"/>
+    <col min="7940" max="8187" width="9" style="38"/>
+    <col min="8188" max="8188" width="93.75" style="38" customWidth="1"/>
+    <col min="8189" max="8189" width="15.25" style="38" customWidth="1"/>
+    <col min="8190" max="8191" width="9" style="38"/>
+    <col min="8192" max="8192" width="8.5" style="38" customWidth="1"/>
+    <col min="8193" max="8193" width="9" style="38"/>
+    <col min="8194" max="8194" width="13.625" style="38" customWidth="1"/>
+    <col min="8195" max="8195" width="12.25" style="38" customWidth="1"/>
+    <col min="8196" max="8443" width="9" style="38"/>
+    <col min="8444" max="8444" width="93.75" style="38" customWidth="1"/>
+    <col min="8445" max="8445" width="15.25" style="38" customWidth="1"/>
+    <col min="8446" max="8447" width="9" style="38"/>
+    <col min="8448" max="8448" width="8.5" style="38" customWidth="1"/>
+    <col min="8449" max="8449" width="9" style="38"/>
+    <col min="8450" max="8450" width="13.625" style="38" customWidth="1"/>
+    <col min="8451" max="8451" width="12.25" style="38" customWidth="1"/>
+    <col min="8452" max="8699" width="9" style="38"/>
+    <col min="8700" max="8700" width="93.75" style="38" customWidth="1"/>
+    <col min="8701" max="8701" width="15.25" style="38" customWidth="1"/>
+    <col min="8702" max="8703" width="9" style="38"/>
+    <col min="8704" max="8704" width="8.5" style="38" customWidth="1"/>
+    <col min="8705" max="8705" width="9" style="38"/>
+    <col min="8706" max="8706" width="13.625" style="38" customWidth="1"/>
+    <col min="8707" max="8707" width="12.25" style="38" customWidth="1"/>
+    <col min="8708" max="8955" width="9" style="38"/>
+    <col min="8956" max="8956" width="93.75" style="38" customWidth="1"/>
+    <col min="8957" max="8957" width="15.25" style="38" customWidth="1"/>
+    <col min="8958" max="8959" width="9" style="38"/>
+    <col min="8960" max="8960" width="8.5" style="38" customWidth="1"/>
+    <col min="8961" max="8961" width="9" style="38"/>
+    <col min="8962" max="8962" width="13.625" style="38" customWidth="1"/>
+    <col min="8963" max="8963" width="12.25" style="38" customWidth="1"/>
+    <col min="8964" max="9211" width="9" style="38"/>
+    <col min="9212" max="9212" width="93.75" style="38" customWidth="1"/>
+    <col min="9213" max="9213" width="15.25" style="38" customWidth="1"/>
+    <col min="9214" max="9215" width="9" style="38"/>
+    <col min="9216" max="9216" width="8.5" style="38" customWidth="1"/>
+    <col min="9217" max="9217" width="9" style="38"/>
+    <col min="9218" max="9218" width="13.625" style="38" customWidth="1"/>
+    <col min="9219" max="9219" width="12.25" style="38" customWidth="1"/>
+    <col min="9220" max="9467" width="9" style="38"/>
+    <col min="9468" max="9468" width="93.75" style="38" customWidth="1"/>
+    <col min="9469" max="9469" width="15.25" style="38" customWidth="1"/>
+    <col min="9470" max="9471" width="9" style="38"/>
+    <col min="9472" max="9472" width="8.5" style="38" customWidth="1"/>
+    <col min="9473" max="9473" width="9" style="38"/>
+    <col min="9474" max="9474" width="13.625" style="38" customWidth="1"/>
+    <col min="9475" max="9475" width="12.25" style="38" customWidth="1"/>
+    <col min="9476" max="9723" width="9" style="38"/>
+    <col min="9724" max="9724" width="93.75" style="38" customWidth="1"/>
+    <col min="9725" max="9725" width="15.25" style="38" customWidth="1"/>
+    <col min="9726" max="9727" width="9" style="38"/>
+    <col min="9728" max="9728" width="8.5" style="38" customWidth="1"/>
+    <col min="9729" max="9729" width="9" style="38"/>
+    <col min="9730" max="9730" width="13.625" style="38" customWidth="1"/>
+    <col min="9731" max="9731" width="12.25" style="38" customWidth="1"/>
+    <col min="9732" max="9979" width="9" style="38"/>
+    <col min="9980" max="9980" width="93.75" style="38" customWidth="1"/>
+    <col min="9981" max="9981" width="15.25" style="38" customWidth="1"/>
+    <col min="9982" max="9983" width="9" style="38"/>
+    <col min="9984" max="9984" width="8.5" style="38" customWidth="1"/>
+    <col min="9985" max="9985" width="9" style="38"/>
+    <col min="9986" max="9986" width="13.625" style="38" customWidth="1"/>
+    <col min="9987" max="9987" width="12.25" style="38" customWidth="1"/>
+    <col min="9988" max="10235" width="9" style="38"/>
+    <col min="10236" max="10236" width="93.75" style="38" customWidth="1"/>
+    <col min="10237" max="10237" width="15.25" style="38" customWidth="1"/>
+    <col min="10238" max="10239" width="9" style="38"/>
+    <col min="10240" max="10240" width="8.5" style="38" customWidth="1"/>
+    <col min="10241" max="10241" width="9" style="38"/>
+    <col min="10242" max="10242" width="13.625" style="38" customWidth="1"/>
+    <col min="10243" max="10243" width="12.25" style="38" customWidth="1"/>
+    <col min="10244" max="10491" width="9" style="38"/>
+    <col min="10492" max="10492" width="93.75" style="38" customWidth="1"/>
+    <col min="10493" max="10493" width="15.25" style="38" customWidth="1"/>
+    <col min="10494" max="10495" width="9" style="38"/>
+    <col min="10496" max="10496" width="8.5" style="38" customWidth="1"/>
+    <col min="10497" max="10497" width="9" style="38"/>
+    <col min="10498" max="10498" width="13.625" style="38" customWidth="1"/>
+    <col min="10499" max="10499" width="12.25" style="38" customWidth="1"/>
+    <col min="10500" max="10747" width="9" style="38"/>
+    <col min="10748" max="10748" width="93.75" style="38" customWidth="1"/>
+    <col min="10749" max="10749" width="15.25" style="38" customWidth="1"/>
+    <col min="10750" max="10751" width="9" style="38"/>
+    <col min="10752" max="10752" width="8.5" style="38" customWidth="1"/>
+    <col min="10753" max="10753" width="9" style="38"/>
+    <col min="10754" max="10754" width="13.625" style="38" customWidth="1"/>
+    <col min="10755" max="10755" width="12.25" style="38" customWidth="1"/>
+    <col min="10756" max="11003" width="9" style="38"/>
+    <col min="11004" max="11004" width="93.75" style="38" customWidth="1"/>
+    <col min="11005" max="11005" width="15.25" style="38" customWidth="1"/>
+    <col min="11006" max="11007" width="9" style="38"/>
+    <col min="11008" max="11008" width="8.5" style="38" customWidth="1"/>
+    <col min="11009" max="11009" width="9" style="38"/>
+    <col min="11010" max="11010" width="13.625" style="38" customWidth="1"/>
+    <col min="11011" max="11011" width="12.25" style="38" customWidth="1"/>
+    <col min="11012" max="11259" width="9" style="38"/>
+    <col min="11260" max="11260" width="93.75" style="38" customWidth="1"/>
+    <col min="11261" max="11261" width="15.25" style="38" customWidth="1"/>
+    <col min="11262" max="11263" width="9" style="38"/>
+    <col min="11264" max="11264" width="8.5" style="38" customWidth="1"/>
+    <col min="11265" max="11265" width="9" style="38"/>
+    <col min="11266" max="11266" width="13.625" style="38" customWidth="1"/>
+    <col min="11267" max="11267" width="12.25" style="38" customWidth="1"/>
+    <col min="11268" max="11515" width="9" style="38"/>
+    <col min="11516" max="11516" width="93.75" style="38" customWidth="1"/>
+    <col min="11517" max="11517" width="15.25" style="38" customWidth="1"/>
+    <col min="11518" max="11519" width="9" style="38"/>
+    <col min="11520" max="11520" width="8.5" style="38" customWidth="1"/>
+    <col min="11521" max="11521" width="9" style="38"/>
+    <col min="11522" max="11522" width="13.625" style="38" customWidth="1"/>
+    <col min="11523" max="11523" width="12.25" style="38" customWidth="1"/>
+    <col min="11524" max="11771" width="9" style="38"/>
+    <col min="11772" max="11772" width="93.75" style="38" customWidth="1"/>
+    <col min="11773" max="11773" width="15.25" style="38" customWidth="1"/>
+    <col min="11774" max="11775" width="9" style="38"/>
+    <col min="11776" max="11776" width="8.5" style="38" customWidth="1"/>
+    <col min="11777" max="11777" width="9" style="38"/>
+    <col min="11778" max="11778" width="13.625" style="38" customWidth="1"/>
+    <col min="11779" max="11779" width="12.25" style="38" customWidth="1"/>
+    <col min="11780" max="12027" width="9" style="38"/>
+    <col min="12028" max="12028" width="93.75" style="38" customWidth="1"/>
+    <col min="12029" max="12029" width="15.25" style="38" customWidth="1"/>
+    <col min="12030" max="12031" width="9" style="38"/>
+    <col min="12032" max="12032" width="8.5" style="38" customWidth="1"/>
+    <col min="12033" max="12033" width="9" style="38"/>
+    <col min="12034" max="12034" width="13.625" style="38" customWidth="1"/>
+    <col min="12035" max="12035" width="12.25" style="38" customWidth="1"/>
+    <col min="12036" max="12283" width="9" style="38"/>
+    <col min="12284" max="12284" width="93.75" style="38" customWidth="1"/>
+    <col min="12285" max="12285" width="15.25" style="38" customWidth="1"/>
+    <col min="12286" max="12287" width="9" style="38"/>
+    <col min="12288" max="12288" width="8.5" style="38" customWidth="1"/>
+    <col min="12289" max="12289" width="9" style="38"/>
+    <col min="12290" max="12290" width="13.625" style="38" customWidth="1"/>
+    <col min="12291" max="12291" width="12.25" style="38" customWidth="1"/>
+    <col min="12292" max="12539" width="9" style="38"/>
+    <col min="12540" max="12540" width="93.75" style="38" customWidth="1"/>
+    <col min="12541" max="12541" width="15.25" style="38" customWidth="1"/>
+    <col min="12542" max="12543" width="9" style="38"/>
+    <col min="12544" max="12544" width="8.5" style="38" customWidth="1"/>
+    <col min="12545" max="12545" width="9" style="38"/>
+    <col min="12546" max="12546" width="13.625" style="38" customWidth="1"/>
+    <col min="12547" max="12547" width="12.25" style="38" customWidth="1"/>
+    <col min="12548" max="12795" width="9" style="38"/>
+    <col min="12796" max="12796" width="93.75" style="38" customWidth="1"/>
+    <col min="12797" max="12797" width="15.25" style="38" customWidth="1"/>
+    <col min="12798" max="12799" width="9" style="38"/>
+    <col min="12800" max="12800" width="8.5" style="38" customWidth="1"/>
+    <col min="12801" max="12801" width="9" style="38"/>
+    <col min="12802" max="12802" width="13.625" style="38" customWidth="1"/>
+    <col min="12803" max="12803" width="12.25" style="38" customWidth="1"/>
+    <col min="12804" max="13051" width="9" style="38"/>
+    <col min="13052" max="13052" width="93.75" style="38" customWidth="1"/>
+    <col min="13053" max="13053" width="15.25" style="38" customWidth="1"/>
+    <col min="13054" max="13055" width="9" style="38"/>
+    <col min="13056" max="13056" width="8.5" style="38" customWidth="1"/>
+    <col min="13057" max="13057" width="9" style="38"/>
+    <col min="13058" max="13058" width="13.625" style="38" customWidth="1"/>
+    <col min="13059" max="13059" width="12.25" style="38" customWidth="1"/>
+    <col min="13060" max="13307" width="9" style="38"/>
+    <col min="13308" max="13308" width="93.75" style="38" customWidth="1"/>
+    <col min="13309" max="13309" width="15.25" style="38" customWidth="1"/>
+    <col min="13310" max="13311" width="9" style="38"/>
+    <col min="13312" max="13312" width="8.5" style="38" customWidth="1"/>
+    <col min="13313" max="13313" width="9" style="38"/>
+    <col min="13314" max="13314" width="13.625" style="38" customWidth="1"/>
+    <col min="13315" max="13315" width="12.25" style="38" customWidth="1"/>
+    <col min="13316" max="13563" width="9" style="38"/>
+    <col min="13564" max="13564" width="93.75" style="38" customWidth="1"/>
+    <col min="13565" max="13565" width="15.25" style="38" customWidth="1"/>
+    <col min="13566" max="13567" width="9" style="38"/>
+    <col min="13568" max="13568" width="8.5" style="38" customWidth="1"/>
+    <col min="13569" max="13569" width="9" style="38"/>
+    <col min="13570" max="13570" width="13.625" style="38" customWidth="1"/>
+    <col min="13571" max="13571" width="12.25" style="38" customWidth="1"/>
+    <col min="13572" max="13819" width="9" style="38"/>
+    <col min="13820" max="13820" width="93.75" style="38" customWidth="1"/>
+    <col min="13821" max="13821" width="15.25" style="38" customWidth="1"/>
+    <col min="13822" max="13823" width="9" style="38"/>
+    <col min="13824" max="13824" width="8.5" style="38" customWidth="1"/>
+    <col min="13825" max="13825" width="9" style="38"/>
+    <col min="13826" max="13826" width="13.625" style="38" customWidth="1"/>
+    <col min="13827" max="13827" width="12.25" style="38" customWidth="1"/>
+    <col min="13828" max="14075" width="9" style="38"/>
+    <col min="14076" max="14076" width="93.75" style="38" customWidth="1"/>
+    <col min="14077" max="14077" width="15.25" style="38" customWidth="1"/>
+    <col min="14078" max="14079" width="9" style="38"/>
+    <col min="14080" max="14080" width="8.5" style="38" customWidth="1"/>
+    <col min="14081" max="14081" width="9" style="38"/>
+    <col min="14082" max="14082" width="13.625" style="38" customWidth="1"/>
+    <col min="14083" max="14083" width="12.25" style="38" customWidth="1"/>
+    <col min="14084" max="14331" width="9" style="38"/>
+    <col min="14332" max="14332" width="93.75" style="38" customWidth="1"/>
+    <col min="14333" max="14333" width="15.25" style="38" customWidth="1"/>
+    <col min="14334" max="14335" width="9" style="38"/>
+    <col min="14336" max="14336" width="8.5" style="38" customWidth="1"/>
+    <col min="14337" max="14337" width="9" style="38"/>
+    <col min="14338" max="14338" width="13.625" style="38" customWidth="1"/>
+    <col min="14339" max="14339" width="12.25" style="38" customWidth="1"/>
+    <col min="14340" max="14587" width="9" style="38"/>
+    <col min="14588" max="14588" width="93.75" style="38" customWidth="1"/>
+    <col min="14589" max="14589" width="15.25" style="38" customWidth="1"/>
+    <col min="14590" max="14591" width="9" style="38"/>
+    <col min="14592" max="14592" width="8.5" style="38" customWidth="1"/>
+    <col min="14593" max="14593" width="9" style="38"/>
+    <col min="14594" max="14594" width="13.625" style="38" customWidth="1"/>
+    <col min="14595" max="14595" width="12.25" style="38" customWidth="1"/>
+    <col min="14596" max="14843" width="9" style="38"/>
+    <col min="14844" max="14844" width="93.75" style="38" customWidth="1"/>
+    <col min="14845" max="14845" width="15.25" style="38" customWidth="1"/>
+    <col min="14846" max="14847" width="9" style="38"/>
+    <col min="14848" max="14848" width="8.5" style="38" customWidth="1"/>
+    <col min="14849" max="14849" width="9" style="38"/>
+    <col min="14850" max="14850" width="13.625" style="38" customWidth="1"/>
+    <col min="14851" max="14851" width="12.25" style="38" customWidth="1"/>
+    <col min="14852" max="15099" width="9" style="38"/>
+    <col min="15100" max="15100" width="93.75" style="38" customWidth="1"/>
+    <col min="15101" max="15101" width="15.25" style="38" customWidth="1"/>
+    <col min="15102" max="15103" width="9" style="38"/>
+    <col min="15104" max="15104" width="8.5" style="38" customWidth="1"/>
+    <col min="15105" max="15105" width="9" style="38"/>
+    <col min="15106" max="15106" width="13.625" style="38" customWidth="1"/>
+    <col min="15107" max="15107" width="12.25" style="38" customWidth="1"/>
+    <col min="15108" max="15355" width="9" style="38"/>
+    <col min="15356" max="15356" width="93.75" style="38" customWidth="1"/>
+    <col min="15357" max="15357" width="15.25" style="38" customWidth="1"/>
+    <col min="15358" max="15359" width="9" style="38"/>
+    <col min="15360" max="15360" width="8.5" style="38" customWidth="1"/>
+    <col min="15361" max="15361" width="9" style="38"/>
+    <col min="15362" max="15362" width="13.625" style="38" customWidth="1"/>
+    <col min="15363" max="15363" width="12.25" style="38" customWidth="1"/>
+    <col min="15364" max="15611" width="9" style="38"/>
+    <col min="15612" max="15612" width="93.75" style="38" customWidth="1"/>
+    <col min="15613" max="15613" width="15.25" style="38" customWidth="1"/>
+    <col min="15614" max="15615" width="9" style="38"/>
+    <col min="15616" max="15616" width="8.5" style="38" customWidth="1"/>
+    <col min="15617" max="15617" width="9" style="38"/>
+    <col min="15618" max="15618" width="13.625" style="38" customWidth="1"/>
+    <col min="15619" max="15619" width="12.25" style="38" customWidth="1"/>
+    <col min="15620" max="15867" width="9" style="38"/>
+    <col min="15868" max="15868" width="93.75" style="38" customWidth="1"/>
+    <col min="15869" max="15869" width="15.25" style="38" customWidth="1"/>
+    <col min="15870" max="15871" width="9" style="38"/>
+    <col min="15872" max="15872" width="8.5" style="38" customWidth="1"/>
+    <col min="15873" max="15873" width="9" style="38"/>
+    <col min="15874" max="15874" width="13.625" style="38" customWidth="1"/>
+    <col min="15875" max="15875" width="12.25" style="38" customWidth="1"/>
+    <col min="15876" max="16123" width="9" style="38"/>
+    <col min="16124" max="16124" width="93.75" style="38" customWidth="1"/>
+    <col min="16125" max="16125" width="15.25" style="38" customWidth="1"/>
+    <col min="16126" max="16127" width="9" style="38"/>
+    <col min="16128" max="16128" width="8.5" style="38" customWidth="1"/>
+    <col min="16129" max="16129" width="9" style="38"/>
+    <col min="16130" max="16130" width="13.625" style="38" customWidth="1"/>
+    <col min="16131" max="16131" width="12.25" style="38" customWidth="1"/>
+    <col min="16132" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="41"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="3" spans="1:3" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="78"/>
+      <c r="C3" s="94"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="41"/>
+      <c r="B4" s="39"/>
     </row>
     <row r="5" spans="1:3" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42">
+      <c r="A5" s="40">
         <v>1</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="77"/>
+      <c r="C5" s="92"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="134">
+      <c r="C6" s="72">
         <f>_xlfn.NORM.DIST(65.43,59.23,5.89,FALSE)</f>
         <v>3.8921396097019632E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="134">
+      <c r="C7" s="72">
         <f>_xlfn.NORM.DIST(66.89,59.23,5.89,TRUE)-_xlfn.NORM.DIST(56.31,59.23,5.89,TRUE)</f>
         <v>0.59325331500473555</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="134">
+      <c r="C8" s="72">
         <f>_xlfn.NORM.DIST(70.16,59.23,5.89,TRUE)-_xlfn.NORM.DIST(63.43,59.23,5.89,TRUE)</f>
         <v>0.20615124224044179</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="135" t="s">
+      <c r="B9" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="136">
+      <c r="C9" s="74">
         <f>_xlfn.NORM.DIST(65.14,59.23,5.89,TRUE)</f>
         <v>0.8421649834510132</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="137"/>
-      <c r="C10" s="137"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="45">
+      <c r="A12" s="43">
         <v>2</v>
       </c>
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="138"/>
+      <c r="C12" s="95"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="134">
+      <c r="C13" s="72">
         <f>1-_xlfn.NORM.S.DIST(1.324,TRUE)</f>
         <v>9.2751522356752769E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="133" t="s">
+      <c r="B14" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="134">
+      <c r="C14" s="72">
         <f>_xlfn.NORM.S.DIST(2.41,TRUE)</f>
         <v>0.99202373973926627</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="133" t="s">
+      <c r="B15" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="134">
+      <c r="C15" s="72">
         <f>1-_xlfn.NORM.S.DIST(-1.31,TRUE)</f>
         <v>0.90490208220476098</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="135" t="s">
+      <c r="B16" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="136">
+      <c r="C16" s="74">
         <f>_xlfn.NORM.S.DIST(1.69,TRUE)-_xlfn.NORM.S.DIST(-1.37,TRUE)</f>
         <v>0.86914257185648325</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="137"/>
-      <c r="C18" s="137"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
     </row>
     <row r="19" spans="1:3" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45">
+      <c r="A19" s="43">
         <v>3</v>
       </c>
-      <c r="B19" s="139" t="s">
+      <c r="B19" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="139"/>
+      <c r="C19" s="93"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="133" t="s">
+      <c r="B20" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="134">
+      <c r="C20" s="72">
         <f>_xlfn.NORM.INV(0.85,81.6,8.28)</f>
         <v>90.18166846500857</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="134">
+      <c r="C21" s="72">
         <f>_xlfn.NORM.INV(0.095,81.6,8.28)</f>
         <v>70.748404951247878</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="135" t="s">
+      <c r="B22" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="136">
+      <c r="C22" s="74">
         <f>_xlfn.NORM.INV(0.25,81.6,8.28)</f>
         <v>76.015224868376436</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="137"/>
-      <c r="C23" s="137"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="137"/>
-      <c r="C24" s="137"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="46">
+      <c r="A25" s="44">
         <v>4</v>
       </c>
-      <c r="B25" s="140" t="s">
+      <c r="B25" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="141"/>
+      <c r="C25" s="77"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="133" t="s">
+      <c r="B26" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="134">
+      <c r="C26" s="72">
         <f>_xlfn.NORM.S.INV(1-0.0644)</f>
         <v>1.5188510207666142</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="133" t="s">
+      <c r="B27" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="134">
+      <c r="C27" s="72">
         <f>_xlfn.NORM.S.INV(0.0386)</f>
         <v>-1.7671685799082539</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="133" t="s">
+      <c r="B28" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="134">
+      <c r="C28" s="72">
         <f>_xlfn.NORM.S.INV(1-0.094)</f>
         <v>1.316518718418261</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="135" t="s">
+      <c r="B29" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="136">
+      <c r="C29" s="74">
         <f>_xlfn.NORM.S.INV(0.1039)</f>
         <v>-1.2596379466580332</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="137"/>
-      <c r="C30" s="137"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="137"/>
-      <c r="C31" s="137"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
     </row>
     <row r="32" spans="1:3" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="46">
+      <c r="A32" s="44">
         <v>5</v>
       </c>
-      <c r="B32" s="142" t="s">
+      <c r="B32" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="143"/>
+      <c r="C32" s="97"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="144" t="s">
+      <c r="B33" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="145">
+      <c r="C33" s="79">
         <f>45*0.3974</f>
         <v>17.882999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="144" t="s">
+      <c r="B34" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="145">
+      <c r="C34" s="79">
         <f>45*(1-0.3974)</f>
         <v>27.117000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="133" t="s">
+      <c r="B35" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="134">
+      <c r="C35" s="72">
         <f>_xlfn.BINOM.DIST(30,45,0.3974,FALSE)</f>
         <v>1.6403063582651875E-4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="133" t="s">
+      <c r="B36" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="134">
+      <c r="C36" s="72">
         <f>_xlfn.BINOM.DIST(28,45,1-0.3974,TRUE)</f>
         <v>0.65979862889616125</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="133" t="s">
+      <c r="B37" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="134">
+      <c r="C37" s="72">
         <f>1-_xlfn.BINOM.DIST(29,45,0.3974,TRUE)</f>
         <v>2.3654176306364683E-4</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="135" t="s">
+      <c r="B38" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="136">
+      <c r="C38" s="74">
         <f>_xlfn.BINOM.DIST(34,45,0.3974,TRUE)-_xlfn.BINOM.DIST(25,45,0.3974,TRUE)</f>
         <v>1.0886211977272131E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="137"/>
-      <c r="C39" s="137"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="137"/>
-      <c r="C40" s="137"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
     </row>
     <row r="41" spans="1:3" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="46">
+      <c r="A41" s="44">
         <v>6</v>
       </c>
-      <c r="B41" s="142" t="s">
+      <c r="B41" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="143"/>
+      <c r="C41" s="97"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="144" t="s">
+      <c r="B42" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="145">
+      <c r="C42" s="79">
         <f>47*0.4573</f>
         <v>21.493099999999998</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="144" t="s">
+      <c r="B43" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="145">
+      <c r="C43" s="79">
         <f>SQRT(C42*(1-0.4573))</f>
         <v>3.4153045793896624</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="133" t="s">
+      <c r="B44" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="134">
+      <c r="C44" s="72">
         <f>_xlfn.NORM.DIST(30.5,C42,C43,TRUE)-_xlfn.NORM.DIST(29.5,C42,C43,TRUE)</f>
         <v>5.348947209984245E-3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="43" t="s">
+      <c r="A45" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="133" t="s">
+      <c r="B45" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="134">
+      <c r="C45" s="72">
         <f>1-_xlfn.NORM.DIST(28.5,C42,C43,TRUE)</f>
         <v>2.010340572809266E-2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="133" t="s">
+      <c r="B46" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="134">
+      <c r="C46" s="72">
         <f>1-_xlfn.NORM.DIST(29.5,C42,C43,TRUE)</f>
         <v>9.528411684238014E-3</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="135" t="s">
+      <c r="B47" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="136">
+      <c r="C47" s="74">
         <f>_xlfn.NORM.DIST(34.5,C42,C43,TRUE)-_xlfn.NORM.DIST(25.5,C42,C43,TRUE)</f>
         <v>0.12028408045573502</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="137"/>
-      <c r="C48" s="137"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="75"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="137"/>
-      <c r="C49" s="137"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="75"/>
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="137"/>
-      <c r="C50" s="137"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="75"/>
     </row>
     <row r="51" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="46">
+      <c r="A51" s="44">
         <v>7</v>
       </c>
-      <c r="B51" s="146" t="s">
+      <c r="B51" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="147"/>
+      <c r="C51" s="88"/>
     </row>
     <row r="52" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="43" t="s">
+      <c r="A52" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B52" s="133" t="s">
+      <c r="B52" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="134">
+      <c r="C52" s="72">
         <f>_xlfn.T.INV(0.043,37)*-1</f>
         <v>1.7639292471321455</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B53" s="133" t="s">
+      <c r="B53" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="134">
+      <c r="C53" s="72">
         <f>_xlfn.T.INV(0.086,37)</f>
         <v>-1.3927783049047699</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="48" t="s">
+      <c r="A54" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B54" s="148" t="s">
+      <c r="B54" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="C54" s="149">
+      <c r="C54" s="81">
         <f>_xlfn.T.INV(0.39,37)*-1</f>
         <v>0.28136246748154836</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="43" t="s">
+      <c r="A55" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="150" t="s">
+      <c r="B55" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="134">
+      <c r="C55" s="72">
         <f>82+7.5*_xlfn.T.INV(0.1,37)*-1</f>
         <v>91.786407861232192</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="44" t="s">
+      <c r="A56" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B56" s="151" t="s">
+      <c r="B56" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="136">
+      <c r="C56" s="74">
         <f>82+7.5*_xlfn.T.INV(0.05,37)</f>
         <v>69.346797853028022</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="137"/>
-      <c r="C57" s="137"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="75"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="137"/>
-      <c r="C58" s="137"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="75"/>
     </row>
     <row r="59" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="46">
+      <c r="A59" s="44">
         <v>8</v>
       </c>
-      <c r="B59" s="152" t="s">
+      <c r="B59" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="153"/>
+      <c r="C59" s="90"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="43" t="s">
+      <c r="A60" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B60" s="133" t="s">
+      <c r="B60" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="134">
+      <c r="C60" s="72">
         <f>1-_xlfn.EXPON.DIST(5.9,1/4.7,TRUE)</f>
         <v>0.28498488108756947</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="43" t="s">
+      <c r="A61" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B61" s="133" t="s">
+      <c r="B61" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="C61" s="134">
+      <c r="C61" s="72">
         <f>_xlfn.EXPON.DIST(3.2,1/4.7,TRUE)</f>
         <v>0.49381398761042034</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="44" t="s">
+      <c r="A62" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B62" s="135" t="s">
+      <c r="B62" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="C62" s="136">
+      <c r="C62" s="74">
         <f>_xlfn.EXPON.DIST(6.9,1/4.7,TRUE)-_xlfn.EXPON.DIST(3.4,1/4.7,TRUE)</f>
         <v>0.25473185443321089</v>
       </c>
@@ -4871,31 +4864,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="81"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
     </row>
     <row r="2" spans="1:19" ht="152.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="85"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="104"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15"/>
@@ -4914,118 +4907,118 @@
       <c r="O3" s="15"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="105" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="88"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="107"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="91"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="110"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="89"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="91"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="110"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="89"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="91"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="110"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="89"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="91"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="110"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="89"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="91"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="110"/>
     </row>
     <row r="10" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="92"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="94"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="113"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B11" s="15"/>
@@ -5086,7 +5079,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="34" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="21">
@@ -5096,166 +5089,166 @@
       <c r="D14" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="152">
         <f>AVERAGE(E17:E46)</f>
         <v>80.531529925259136</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="152">
         <f t="shared" ref="F14:P14" si="0">AVERAGE(F17:F46)</f>
         <v>81.550133068424955</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="152">
         <f t="shared" si="0"/>
         <v>78.745511523641952</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="152">
         <f t="shared" si="0"/>
         <v>79.993830897437874</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="152">
         <f t="shared" si="0"/>
         <v>79.426468396753378</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="152">
         <f t="shared" si="0"/>
         <v>79.305312182211011</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="152">
         <f t="shared" si="0"/>
         <v>78.830773620284162</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="152">
         <f t="shared" si="0"/>
         <v>80.996068896104887</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="152">
         <f t="shared" si="0"/>
         <v>78.749141620161637</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="152">
         <f t="shared" si="0"/>
         <v>79.639364129203997</v>
       </c>
-      <c r="O14" s="23">
+      <c r="O14" s="152">
         <f t="shared" si="0"/>
         <v>80.868764194213625</v>
       </c>
-      <c r="P14" s="23">
+      <c r="P14" s="152">
         <f t="shared" si="0"/>
         <v>79.899316814359437</v>
       </c>
-      <c r="Q14" s="24">
+      <c r="Q14" s="23">
         <f>AVERAGE(E14:P14)</f>
         <v>79.878017939004664</v>
       </c>
-      <c r="R14" s="25">
+      <c r="R14" s="24">
         <f>_xlfn.STDEV.S(E14:P14)</f>
         <v>0.93958535301527346</v>
       </c>
-      <c r="S14" s="26">
+      <c r="S14" s="25">
         <f>B15/SQRT(30)</f>
         <v>1.4437539443074523</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="26">
         <f>_xlfn.STDEV.P(B17:B516)</f>
         <v>7.9077660278424897</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="153">
         <f>_xlfn.STDEV.S(E17:E46)</f>
         <v>6.8697645313670392</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="153">
         <f t="shared" ref="F15:P15" si="1">_xlfn.STDEV.S(F17:F46)</f>
         <v>6.6945623206643132</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="153">
         <f t="shared" si="1"/>
         <v>6.9293635549560131</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="153">
         <f t="shared" si="1"/>
         <v>7.1200166044058601</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="153">
         <f t="shared" si="1"/>
         <v>6.9485753224634506</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="153">
         <f t="shared" si="1"/>
         <v>8.9876586014474373</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="153">
         <f t="shared" si="1"/>
         <v>9.0481324585330096</v>
       </c>
-      <c r="L15" s="29">
+      <c r="L15" s="153">
         <f t="shared" si="1"/>
         <v>7.7567641425192155</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="153">
         <f t="shared" si="1"/>
         <v>6.9087050742288705</v>
       </c>
-      <c r="N15" s="29">
+      <c r="N15" s="153">
         <f t="shared" si="1"/>
         <v>5.6870503201906057</v>
       </c>
-      <c r="O15" s="29">
+      <c r="O15" s="153">
         <f t="shared" si="1"/>
         <v>9.4748495131250792</v>
       </c>
-      <c r="P15" s="29">
+      <c r="P15" s="153">
         <f t="shared" si="1"/>
         <v>6.5952179130783293</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="35" t="s">
+      <c r="D16" s="29"/>
+      <c r="E16" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="K16" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="35" t="s">
+      <c r="L16" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="35" t="s">
+      <c r="M16" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="35" t="s">
+      <c r="N16" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="35" t="s">
+      <c r="O16" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P16" s="35" t="s">
+      <c r="P16" s="33" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5263,7 +5256,7 @@
       <c r="B17">
         <v>74.325935404049233</v>
       </c>
-      <c r="D17" s="31"/>
+      <c r="D17" s="29"/>
       <c r="E17">
         <v>75.104808476753533</v>
       </c>
@@ -5305,7 +5298,7 @@
       <c r="B18">
         <v>80.086602085502818</v>
       </c>
-      <c r="D18" s="31"/>
+      <c r="D18" s="29"/>
       <c r="E18">
         <v>67.827432050835341</v>
       </c>
@@ -5347,7 +5340,7 @@
       <c r="B19">
         <v>77.657614585477859</v>
       </c>
-      <c r="D19" s="31"/>
+      <c r="D19" s="29"/>
       <c r="E19">
         <v>82.653396222740412</v>
       </c>
@@ -5389,7 +5382,7 @@
       <c r="B20">
         <v>85.776055331807584</v>
       </c>
-      <c r="D20" s="31"/>
+      <c r="D20" s="29"/>
       <c r="E20">
         <v>84.400299076223746</v>
       </c>
@@ -5431,7 +5424,7 @@
       <c r="B21">
         <v>90.687126632547006</v>
       </c>
-      <c r="D21" s="31"/>
+      <c r="D21" s="29"/>
       <c r="E21">
         <v>84.10076609114185</v>
       </c>
@@ -5473,7 +5466,7 @@
       <c r="B22">
         <v>68.525814842432737</v>
       </c>
-      <c r="D22" s="31"/>
+      <c r="D22" s="29"/>
       <c r="E22">
         <v>82.009592208196409</v>
       </c>
@@ -5515,7 +5508,7 @@
       <c r="B23">
         <v>91.211668606847525</v>
       </c>
-      <c r="D23" s="31"/>
+      <c r="D23" s="29"/>
       <c r="E23">
         <v>67.616829457692802</v>
       </c>
@@ -5557,7 +5550,7 @@
       <c r="B24">
         <v>78.628891262342222</v>
       </c>
-      <c r="D24" s="31"/>
+      <c r="D24" s="29"/>
       <c r="E24">
         <v>82.829929144354537</v>
       </c>
@@ -5599,7 +5592,7 @@
       <c r="B25">
         <v>66.20580299757421</v>
       </c>
-      <c r="D25" s="31"/>
+      <c r="D25" s="29"/>
       <c r="E25">
         <v>90.369949450250715</v>
       </c>
@@ -5641,7 +5634,7 @@
       <c r="B26">
         <v>78.607763700420037</v>
       </c>
-      <c r="D26" s="31"/>
+      <c r="D26" s="29"/>
       <c r="E26">
         <v>84.15880094806198</v>
       </c>
@@ -5683,7 +5676,7 @@
       <c r="B27">
         <v>70.413198247551918</v>
       </c>
-      <c r="D27" s="31"/>
+      <c r="D27" s="29"/>
       <c r="E27">
         <v>77.201975929783657</v>
       </c>
@@ -5725,7 +5718,7 @@
       <c r="B28">
         <v>79.667907104594633</v>
       </c>
-      <c r="D28" s="31"/>
+      <c r="D28" s="29"/>
       <c r="E28">
         <v>64.290188876911998</v>
       </c>
@@ -5767,7 +5760,7 @@
       <c r="B29">
         <v>84.15880094806198</v>
       </c>
-      <c r="D29" s="31"/>
+      <c r="D29" s="29"/>
       <c r="E29">
         <v>79.128958734218031</v>
       </c>
@@ -5809,7 +5802,7 @@
       <c r="B30">
         <v>88.147308108163998</v>
       </c>
-      <c r="D30" s="31"/>
+      <c r="D30" s="29"/>
       <c r="E30">
         <v>76.892729541286826</v>
       </c>
@@ -5851,7 +5844,7 @@
       <c r="B31">
         <v>75.296766428509727</v>
       </c>
-      <c r="D31" s="31"/>
+      <c r="D31" s="29"/>
       <c r="E31">
         <v>83.383029252290726</v>
       </c>
@@ -5893,7 +5886,7 @@
       <c r="B32">
         <v>69.865136740263551</v>
       </c>
-      <c r="D32" s="31"/>
+      <c r="D32" s="29"/>
       <c r="E32">
         <v>86.918271537870169</v>
       </c>
@@ -5935,7 +5928,7 @@
       <c r="B33">
         <v>80.541713234269992</v>
       </c>
-      <c r="D33" s="31"/>
+      <c r="D33" s="29"/>
       <c r="E33">
         <v>94.407196431420743</v>
       </c>
@@ -5977,7 +5970,7 @@
       <c r="B34">
         <v>75.156376826344058</v>
       </c>
-      <c r="D34" s="31"/>
+      <c r="D34" s="29"/>
       <c r="E34">
         <v>88.308288670377806</v>
       </c>
@@ -6019,7 +6012,7 @@
       <c r="B35">
         <v>76.892729541286826</v>
       </c>
-      <c r="D35" s="31"/>
+      <c r="D35" s="29"/>
       <c r="E35">
         <v>76.066544554196298</v>
       </c>
@@ -6061,7 +6054,7 @@
       <c r="B36">
         <v>81.51853782881517</v>
       </c>
-      <c r="D36" s="31"/>
+      <c r="D36" s="29"/>
       <c r="E36">
         <v>76.013275449513458</v>
       </c>
@@ -6103,7 +6096,7 @@
       <c r="B37">
         <v>88.188544597942382</v>
       </c>
-      <c r="D37" s="31"/>
+      <c r="D37" s="29"/>
       <c r="E37">
         <v>72.717876011738554</v>
       </c>
@@ -6145,7 +6138,7 @@
       <c r="B38">
         <v>84.792273102793843</v>
       </c>
-      <c r="D38" s="31"/>
+      <c r="D38" s="29"/>
       <c r="E38">
         <v>80.237178028328344</v>
       </c>
@@ -6305,7 +6298,7 @@
       <c r="P41">
         <v>73.582405295455828</v>
       </c>
-      <c r="Z41" s="32" t="s">
+      <c r="Z41" s="30" t="s">
         <v>27</v>
       </c>
     </row>
@@ -8885,232 +8878,232 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="53" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="53" customWidth="1"/>
-    <col min="3" max="5" width="11.375" style="53" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" style="53" customWidth="1"/>
-    <col min="7" max="9" width="9" style="53"/>
-    <col min="10" max="10" width="15.75" style="53" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="53"/>
+    <col min="1" max="1" width="10.75" style="51" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="51" customWidth="1"/>
+    <col min="3" max="5" width="11.375" style="51" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="51" customWidth="1"/>
+    <col min="7" max="9" width="9" style="51"/>
+    <col min="10" max="10" width="15.75" style="51" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="52" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:11" s="50" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="3" spans="1:11" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
     </row>
     <row r="4" spans="1:11" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
+      <c r="A4" s="145"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
     </row>
     <row r="5" spans="1:11" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
+      <c r="A5" s="145"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
     </row>
     <row r="6" spans="1:11" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="95"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
+      <c r="A6" s="145"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
     </row>
     <row r="7" spans="1:11" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
+      <c r="A7" s="145"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
     </row>
     <row r="8" spans="1:11" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
+      <c r="A8" s="145"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
     </row>
     <row r="9" spans="1:11" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="95"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
+      <c r="A9" s="145"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="145"/>
     </row>
     <row r="10" spans="1:11" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="95"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
+      <c r="A10" s="145"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
     </row>
     <row r="11" spans="1:11" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
+      <c r="A11" s="145"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
     </row>
     <row r="12" spans="1:11" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
+      <c r="A12" s="145"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
     </row>
     <row r="13" spans="1:11" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
+      <c r="A13" s="145"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="145"/>
     </row>
     <row r="14" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="95"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
+      <c r="A14" s="145"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
     </row>
     <row r="15" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="95"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
+      <c r="A15" s="145"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="K16" s="63"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="K16" s="61"/>
     </row>
     <row r="17" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="146" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="97"/>
-      <c r="C17" s="55">
+      <c r="B17" s="147"/>
+      <c r="C17" s="53">
         <f>AVERAGE(A21:A1020)</f>
         <v>100.37720265027019</v>
       </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
     </row>
     <row r="18" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="98" t="s">
+      <c r="A18" s="148" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="99"/>
-      <c r="C18" s="62">
+      <c r="B18" s="149"/>
+      <c r="C18" s="60">
         <f>_xlfn.STDEV.P(A21:A1020)</f>
         <v>19.990448608397784</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
     </row>
     <row r="19" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="100" t="s">
+      <c r="C19" s="150" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="N19" s="56"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="N19" s="54"/>
     </row>
     <row r="20" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="58" t="s">
+      <c r="E20" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="58" t="s">
+      <c r="F20" s="56" t="s">
         <v>82</v>
       </c>
     </row>
@@ -9118,215 +9111,215 @@
       <c r="A21">
         <v>144.99161150306463</v>
       </c>
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="128">
+      <c r="C21" s="141">
         <f>COUNTIF(A21:A1020,"&gt;=128")</f>
         <v>89</v>
       </c>
-      <c r="D21" s="128">
+      <c r="D21" s="141">
         <f>COUNTIF(A21:A1020,"&gt;=115")</f>
         <v>231</v>
       </c>
-      <c r="E21" s="128">
+      <c r="E21" s="141">
         <f>COUNTIF(A21:A1020,"&lt;=107")</f>
         <v>626</v>
       </c>
-      <c r="F21" s="130">
+      <c r="F21" s="143">
         <f>COUNTIF(A21:A1020,"&lt;=90")</f>
         <v>306</v>
       </c>
-      <c r="G21" s="119" t="s">
+      <c r="G21" s="132" t="s">
         <v>92</v>
       </c>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="121"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="134"/>
     </row>
     <row r="22" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>134.90567905828357</v>
       </c>
-      <c r="B22" s="105"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="124"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="137"/>
     </row>
     <row r="23" spans="1:14" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>127.59470589808188</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="60">
+      <c r="C23" s="58">
         <f>C21/1000</f>
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="D23" s="60">
+      <c r="D23" s="58">
         <f>D21/1000</f>
         <v>0.23100000000000001</v>
       </c>
-      <c r="E23" s="60">
+      <c r="E23" s="58">
         <f t="shared" ref="E23:F23" si="0">E21/1000</f>
         <v>0.626</v>
       </c>
-      <c r="F23" s="60">
+      <c r="F23" s="58">
         <f t="shared" si="0"/>
         <v>0.30599999999999999</v>
       </c>
-      <c r="G23" s="122"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="124"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="137"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>140.5634636990726</v>
       </c>
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="113">
+      <c r="C24" s="126">
         <f>1-_xlfn.NORM.DIST(128,C17,C18,TRUE)+_xlfn.NORM.DIST(128,C17,C18,FALSE)</f>
         <v>9.1198570722352129E-2</v>
       </c>
-      <c r="D24" s="113">
+      <c r="D24" s="126">
         <f>1-_xlfn.NORM.DIST(115,C17,C18,TRUE)+_xlfn.NORM.DIST(115,C17,C18,FALSE)</f>
         <v>0.24751224146086154</v>
       </c>
-      <c r="E24" s="113">
+      <c r="E24" s="126">
         <f>_xlfn.NORM.DIST(107,C17,C18,TRUE)</f>
         <v>0.62979033131083306</v>
       </c>
-      <c r="F24" s="116">
+      <c r="F24" s="129">
         <f>_xlfn.NORM.DIST(90,C17,C18,TRUE)</f>
         <v>0.30184270003610092</v>
       </c>
-      <c r="G24" s="122"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="124"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="137"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>120.6009644898586</v>
       </c>
-      <c r="B25" s="111"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="124"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="137"/>
     </row>
     <row r="26" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>42.08774296566844</v>
       </c>
-      <c r="B26" s="112"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="127"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="140"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>132.56054696976207</v>
       </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>89.79865267756395</v>
       </c>
-      <c r="B28" s="101" t="s">
+      <c r="B28" s="114" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>125.73815436335281</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>121.08818080159836</v>
       </c>
-      <c r="B30" s="104"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>67.542680678889155</v>
       </c>
-      <c r="B31" s="104"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
     </row>
     <row r="32" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>131.43832145724446</v>
       </c>
-      <c r="B32" s="107"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
+      <c r="B32" s="120"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="121"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -14269,298 +14262,303 @@
       </c>
     </row>
     <row r="1021" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1021" s="65"/>
+      <c r="A1021" s="63"/>
     </row>
     <row r="1022" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1022" s="65"/>
+      <c r="A1022" s="63"/>
     </row>
     <row r="1023" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1023" s="65"/>
+      <c r="A1023" s="63"/>
     </row>
     <row r="1024" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1024" s="65"/>
+      <c r="A1024" s="63"/>
     </row>
     <row r="1025" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1025" s="65"/>
+      <c r="A1025" s="63"/>
     </row>
     <row r="1026" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1026" s="65"/>
+      <c r="A1026" s="63"/>
     </row>
     <row r="1027" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1027" s="65"/>
+      <c r="A1027" s="63"/>
     </row>
     <row r="1028" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1028" s="65"/>
+      <c r="A1028" s="63"/>
     </row>
     <row r="1029" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1029" s="65"/>
+      <c r="A1029" s="63"/>
     </row>
     <row r="1030" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1030" s="65"/>
+      <c r="A1030" s="63"/>
     </row>
     <row r="1031" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1031" s="65"/>
+      <c r="A1031" s="63"/>
     </row>
     <row r="1032" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1032" s="65"/>
+      <c r="A1032" s="63"/>
     </row>
     <row r="1033" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1033" s="65"/>
+      <c r="A1033" s="63"/>
     </row>
     <row r="1034" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1034" s="65"/>
+      <c r="A1034" s="63"/>
     </row>
     <row r="1035" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1035" s="65"/>
+      <c r="A1035" s="63"/>
     </row>
     <row r="1036" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1036" s="65"/>
+      <c r="A1036" s="63"/>
     </row>
     <row r="1037" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1037" s="65"/>
+      <c r="A1037" s="63"/>
     </row>
     <row r="1038" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1038" s="65"/>
+      <c r="A1038" s="63"/>
     </row>
     <row r="1039" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1039" s="65"/>
+      <c r="A1039" s="63"/>
     </row>
     <row r="1040" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1040" s="65"/>
+      <c r="A1040" s="63"/>
     </row>
     <row r="1041" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1041" s="65"/>
+      <c r="A1041" s="63"/>
     </row>
     <row r="1042" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1042" s="65"/>
+      <c r="A1042" s="63"/>
     </row>
     <row r="1043" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1043" s="65"/>
+      <c r="A1043" s="63"/>
     </row>
     <row r="1044" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1044" s="65"/>
+      <c r="A1044" s="63"/>
     </row>
     <row r="1045" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1045" s="65"/>
+      <c r="A1045" s="63"/>
     </row>
     <row r="1046" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1046" s="65"/>
+      <c r="A1046" s="63"/>
     </row>
     <row r="1047" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1047" s="65"/>
+      <c r="A1047" s="63"/>
     </row>
     <row r="1048" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1048" s="65"/>
+      <c r="A1048" s="63"/>
     </row>
     <row r="1049" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1049" s="65"/>
+      <c r="A1049" s="63"/>
     </row>
     <row r="1050" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1050" s="65"/>
+      <c r="A1050" s="63"/>
     </row>
     <row r="1051" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1051" s="65"/>
+      <c r="A1051" s="63"/>
     </row>
     <row r="1052" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1052" s="65"/>
+      <c r="A1052" s="63"/>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1053" s="66"/>
+      <c r="A1053" s="64"/>
     </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1054" s="66"/>
+      <c r="A1054" s="64"/>
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1055" s="66"/>
+      <c r="A1055" s="64"/>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1056" s="66"/>
+      <c r="A1056" s="64"/>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1057" s="66"/>
+      <c r="A1057" s="64"/>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1058" s="66"/>
+      <c r="A1058" s="64"/>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1059" s="66"/>
+      <c r="A1059" s="64"/>
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1060" s="66"/>
+      <c r="A1060" s="64"/>
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1061" s="66"/>
+      <c r="A1061" s="64"/>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1062" s="66"/>
+      <c r="A1062" s="64"/>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1063" s="66"/>
+      <c r="A1063" s="64"/>
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1064" s="66"/>
+      <c r="A1064" s="64"/>
     </row>
     <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1065" s="66"/>
+      <c r="A1065" s="64"/>
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1066" s="66"/>
+      <c r="A1066" s="64"/>
     </row>
     <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1067" s="66"/>
+      <c r="A1067" s="64"/>
     </row>
     <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1068" s="66"/>
+      <c r="A1068" s="64"/>
     </row>
     <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1069" s="66"/>
+      <c r="A1069" s="64"/>
     </row>
     <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1070" s="66"/>
+      <c r="A1070" s="64"/>
     </row>
     <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1071" s="66"/>
+      <c r="A1071" s="64"/>
     </row>
     <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1072" s="66"/>
+      <c r="A1072" s="64"/>
     </row>
     <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1073" s="66"/>
+      <c r="A1073" s="64"/>
     </row>
     <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1074" s="66"/>
+      <c r="A1074" s="64"/>
     </row>
     <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1075" s="66"/>
+      <c r="A1075" s="64"/>
     </row>
     <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1076" s="66"/>
+      <c r="A1076" s="64"/>
     </row>
     <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1077" s="66"/>
+      <c r="A1077" s="64"/>
     </row>
     <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1078" s="66"/>
+      <c r="A1078" s="64"/>
     </row>
     <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1079" s="66"/>
+      <c r="A1079" s="64"/>
     </row>
     <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1080" s="66"/>
+      <c r="A1080" s="64"/>
     </row>
     <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1081" s="66"/>
+      <c r="A1081" s="64"/>
     </row>
     <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1082" s="66"/>
+      <c r="A1082" s="64"/>
     </row>
     <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1083" s="66"/>
+      <c r="A1083" s="64"/>
     </row>
     <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1084" s="66"/>
+      <c r="A1084" s="64"/>
     </row>
     <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1085" s="66"/>
+      <c r="A1085" s="64"/>
     </row>
     <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1086" s="66"/>
+      <c r="A1086" s="64"/>
     </row>
     <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1087" s="66"/>
+      <c r="A1087" s="64"/>
     </row>
     <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1088" s="66"/>
+      <c r="A1088" s="64"/>
     </row>
     <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1089" s="66"/>
+      <c r="A1089" s="64"/>
     </row>
     <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1090" s="66"/>
+      <c r="A1090" s="64"/>
     </row>
     <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1091" s="66"/>
+      <c r="A1091" s="64"/>
     </row>
     <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1092" s="66"/>
+      <c r="A1092" s="64"/>
     </row>
     <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1093" s="66"/>
+      <c r="A1093" s="64"/>
     </row>
     <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1094" s="66"/>
+      <c r="A1094" s="64"/>
     </row>
     <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1095" s="66"/>
+      <c r="A1095" s="64"/>
     </row>
     <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1096" s="66"/>
+      <c r="A1096" s="64"/>
     </row>
     <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1097" s="66"/>
+      <c r="A1097" s="64"/>
     </row>
     <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1098" s="66"/>
+      <c r="A1098" s="64"/>
     </row>
     <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1099" s="66"/>
+      <c r="A1099" s="64"/>
     </row>
     <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1100" s="66"/>
+      <c r="A1100" s="64"/>
     </row>
     <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1101" s="66"/>
+      <c r="A1101" s="64"/>
     </row>
     <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1102" s="66"/>
+      <c r="A1102" s="64"/>
     </row>
     <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1103" s="66"/>
+      <c r="A1103" s="64"/>
     </row>
     <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1104" s="66"/>
+      <c r="A1104" s="64"/>
     </row>
     <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1105" s="66"/>
+      <c r="A1105" s="64"/>
     </row>
     <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1106" s="66"/>
+      <c r="A1106" s="64"/>
     </row>
     <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1107" s="66"/>
+      <c r="A1107" s="64"/>
     </row>
     <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1108" s="66"/>
+      <c r="A1108" s="64"/>
     </row>
     <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1109" s="66"/>
+      <c r="A1109" s="64"/>
     </row>
     <row r="1110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1110" s="66"/>
+      <c r="A1110" s="64"/>
     </row>
     <row r="1111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1111" s="66"/>
+      <c r="A1111" s="64"/>
     </row>
     <row r="1112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1112" s="66"/>
+      <c r="A1112" s="64"/>
     </row>
     <row r="1113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1113" s="66"/>
+      <c r="A1113" s="64"/>
     </row>
     <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1114" s="66"/>
+      <c r="A1114" s="64"/>
     </row>
     <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1115" s="66"/>
+      <c r="A1115" s="64"/>
     </row>
     <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1116" s="66"/>
+      <c r="A1116" s="64"/>
     </row>
     <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1117" s="66"/>
+      <c r="A1117" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A3:I14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C19:F19"/>
     <mergeCell ref="B28:H32"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
@@ -14573,11 +14571,6 @@
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A3:I14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14596,7 +14589,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="66" t="s">
         <v>49</v>
       </c>
       <c r="C1" t="s">
@@ -14604,1946 +14597,1946 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
     </row>
     <row r="4" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="70">
+      <c r="B6" s="68">
         <v>0</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="68">
         <f>B6+0.01</f>
         <v>0.01</v>
       </c>
-      <c r="D6" s="70">
+      <c r="D6" s="68">
         <f t="shared" ref="D6:K6" si="0">C6+0.01</f>
         <v>0.02</v>
       </c>
-      <c r="E6" s="70">
+      <c r="E6" s="68">
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="F6" s="70">
+      <c r="F6" s="68">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="G6" s="70">
+      <c r="G6" s="68">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="H6" s="70">
+      <c r="H6" s="68">
         <f t="shared" si="0"/>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="I6" s="70">
+      <c r="I6" s="68">
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J6" s="70">
+      <c r="J6" s="68">
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="K6" s="70">
+      <c r="K6" s="68">
         <f t="shared" si="0"/>
         <v>0.09</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="71">
+      <c r="A7" s="69">
         <v>0</v>
       </c>
-      <c r="B7" s="72">
+      <c r="B7" s="70">
         <f>_xlfn.NORM.DIST($A7+B$6,0,1,TRUE)-0.5</f>
         <v>0</v>
       </c>
-      <c r="C7" s="72">
+      <c r="C7" s="70">
         <f t="shared" ref="C7:K22" si="1">_xlfn.NORM.DIST($A7+C$6,0,1,TRUE)-0.5</f>
         <v>3.989356314631598E-3</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="70">
         <f t="shared" si="1"/>
         <v>7.9783137169020524E-3</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="70">
         <f t="shared" si="1"/>
         <v>1.1966473414112722E-2</v>
       </c>
-      <c r="F7" s="72">
+      <c r="F7" s="70">
         <f t="shared" si="1"/>
         <v>1.5953436852830682E-2</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="70">
         <f t="shared" si="1"/>
         <v>1.9938805838372486E-2</v>
       </c>
-      <c r="H7" s="72">
+      <c r="H7" s="70">
         <f t="shared" si="1"/>
         <v>2.3922182654106838E-2</v>
       </c>
-      <c r="I7" s="72">
+      <c r="I7" s="70">
         <f t="shared" si="1"/>
         <v>2.7903170180521131E-2</v>
       </c>
-      <c r="J7" s="72">
+      <c r="J7" s="70">
         <f t="shared" si="1"/>
         <v>3.1881372013987441E-2</v>
       </c>
-      <c r="K7" s="72">
+      <c r="K7" s="70">
         <f t="shared" si="1"/>
         <v>3.5856392585172037E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="71">
+      <c r="A8" s="69">
         <f>A7+0.1</f>
         <v>0.1</v>
       </c>
-      <c r="B8" s="72">
+      <c r="B8" s="70">
         <f t="shared" ref="B8:K46" si="2">_xlfn.NORM.DIST($A8+B$6,0,1,TRUE)-0.5</f>
         <v>3.9827837277028988E-2</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C8" s="70">
         <f t="shared" si="1"/>
         <v>4.3795312542316722E-2</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="70">
         <f t="shared" si="1"/>
         <v>4.7758426020583888E-2</v>
       </c>
-      <c r="E8" s="72">
+      <c r="E8" s="70">
         <f t="shared" si="1"/>
         <v>5.1716786654561142E-2</v>
       </c>
-      <c r="F8" s="72">
+      <c r="F8" s="70">
         <f t="shared" si="1"/>
         <v>5.5670004805906448E-2</v>
       </c>
-      <c r="G8" s="72">
+      <c r="G8" s="70">
         <f t="shared" si="1"/>
         <v>5.9617692370242503E-2</v>
       </c>
-      <c r="H8" s="72">
+      <c r="H8" s="70">
         <f t="shared" si="1"/>
         <v>6.3559462891432883E-2</v>
       </c>
-      <c r="I8" s="72">
+      <c r="I8" s="70">
         <f t="shared" si="1"/>
         <v>6.7494931675038394E-2</v>
       </c>
-      <c r="J8" s="72">
+      <c r="J8" s="70">
         <f t="shared" si="1"/>
         <v>7.1423715900900797E-2</v>
       </c>
-      <c r="K8" s="72">
+      <c r="K8" s="70">
         <f t="shared" si="1"/>
         <v>7.5345434734795491E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="71">
+      <c r="A9" s="69">
         <f t="shared" ref="A9:A47" si="3">A8+0.1</f>
         <v>0.2</v>
       </c>
-      <c r="B9" s="72">
+      <c r="B9" s="70">
         <f t="shared" si="2"/>
         <v>7.9259709439102988E-2</v>
       </c>
-      <c r="C9" s="72">
+      <c r="C9" s="70">
         <f t="shared" si="1"/>
         <v>8.3166163482442323E-2</v>
       </c>
-      <c r="D9" s="72">
+      <c r="D9" s="70">
         <f t="shared" si="1"/>
         <v>8.7064422648214679E-2</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E9" s="70">
         <f t="shared" si="1"/>
         <v>9.0954115142005909E-2</v>
       </c>
-      <c r="F9" s="72">
+      <c r="F9" s="70">
         <f t="shared" si="1"/>
         <v>9.4834871697795808E-2</v>
       </c>
-      <c r="G9" s="72">
+      <c r="G9" s="70">
         <f t="shared" si="1"/>
         <v>9.8706325682923701E-2</v>
       </c>
-      <c r="H9" s="72">
+      <c r="H9" s="70">
         <f t="shared" si="1"/>
         <v>0.10256811320176051</v>
       </c>
-      <c r="I9" s="72">
+      <c r="I9" s="70">
         <f t="shared" si="1"/>
         <v>0.10641987319803947</v>
       </c>
-      <c r="J9" s="72">
+      <c r="J9" s="70">
         <f t="shared" si="1"/>
         <v>0.11026124755579725</v>
       </c>
-      <c r="K9" s="72">
+      <c r="K9" s="70">
         <f t="shared" si="1"/>
         <v>0.11409188119887737</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71">
+      <c r="A10" s="69">
         <f t="shared" si="3"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="B10" s="72">
+      <c r="B10" s="70">
         <f t="shared" si="2"/>
         <v>0.11791142218895267</v>
       </c>
-      <c r="C10" s="72">
+      <c r="C10" s="70">
         <f t="shared" si="1"/>
         <v>0.12171952182201928</v>
       </c>
-      <c r="D10" s="72">
+      <c r="D10" s="70">
         <f t="shared" si="1"/>
         <v>0.12551583472332006</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E10" s="70">
         <f t="shared" si="1"/>
         <v>0.12930001894065357</v>
       </c>
-      <c r="F10" s="72">
+      <c r="F10" s="70">
         <f t="shared" si="1"/>
         <v>0.13307173603602807</v>
       </c>
-      <c r="G10" s="72">
+      <c r="G10" s="70">
         <f t="shared" si="1"/>
         <v>0.1368306511756191</v>
       </c>
-      <c r="H10" s="72">
+      <c r="H10" s="70">
         <f t="shared" si="1"/>
         <v>0.14057643321799129</v>
       </c>
-      <c r="I10" s="72">
+      <c r="I10" s="70">
         <f t="shared" si="1"/>
         <v>0.14430875480054683</v>
       </c>
-      <c r="J10" s="72">
+      <c r="J10" s="70">
         <f t="shared" si="1"/>
         <v>0.14802729242416279</v>
       </c>
-      <c r="K10" s="72">
+      <c r="K10" s="70">
         <f t="shared" si="1"/>
         <v>0.15173172653598244</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="71">
+      <c r="A11" s="69">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="B11" s="72">
+      <c r="B11" s="70">
         <f t="shared" si="2"/>
         <v>0.15542174161032429</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C11" s="70">
         <f t="shared" si="1"/>
         <v>0.15909702622767741</v>
       </c>
-      <c r="D11" s="72">
+      <c r="D11" s="70">
         <f t="shared" si="1"/>
         <v>0.16275727315175059</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="70">
         <f t="shared" si="1"/>
         <v>0.16640217940454238</v>
       </c>
-      <c r="F11" s="72">
+      <c r="F11" s="70">
         <f t="shared" si="1"/>
         <v>0.17003144633940637</v>
       </c>
-      <c r="G11" s="72">
+      <c r="G11" s="70">
         <f t="shared" si="1"/>
         <v>0.17364477971208003</v>
       </c>
-      <c r="H11" s="72">
+      <c r="H11" s="70">
         <f t="shared" si="1"/>
         <v>0.17724188974965227</v>
       </c>
-      <c r="I11" s="72">
+      <c r="I11" s="70">
         <f t="shared" si="1"/>
         <v>0.1808224912174442</v>
       </c>
-      <c r="J11" s="72">
+      <c r="J11" s="70">
         <f t="shared" si="1"/>
         <v>0.18438630348377749</v>
       </c>
-      <c r="K11" s="72">
+      <c r="K11" s="70">
         <f t="shared" si="1"/>
         <v>0.18793305058260945</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="71">
+      <c r="A12" s="69">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="B12" s="72">
+      <c r="B12" s="70">
         <f t="shared" si="2"/>
         <v>0.19146246127401312</v>
       </c>
-      <c r="C12" s="72">
+      <c r="C12" s="70">
         <f t="shared" si="1"/>
         <v>0.19497426910248061</v>
       </c>
-      <c r="D12" s="72">
+      <c r="D12" s="70">
         <f t="shared" si="1"/>
         <v>0.19846821245303381</v>
       </c>
-      <c r="E12" s="72">
+      <c r="E12" s="70">
         <f t="shared" si="1"/>
         <v>0.20194403460512356</v>
       </c>
-      <c r="F12" s="72">
+      <c r="F12" s="70">
         <f t="shared" si="1"/>
         <v>0.20540148378430201</v>
       </c>
-      <c r="G12" s="72">
+      <c r="G12" s="70">
         <f t="shared" si="1"/>
         <v>0.20884031321165364</v>
       </c>
-      <c r="H12" s="72">
+      <c r="H12" s="70">
         <f t="shared" si="1"/>
         <v>0.21226028115097295</v>
       </c>
-      <c r="I12" s="72">
+      <c r="I12" s="70">
         <f t="shared" si="1"/>
         <v>0.21566115095367588</v>
       </c>
-      <c r="J12" s="72">
+      <c r="J12" s="70">
         <f t="shared" si="1"/>
         <v>0.2190426911014357</v>
       </c>
-      <c r="K12" s="72">
+      <c r="K12" s="70">
         <f t="shared" si="1"/>
         <v>0.22240467524653507</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="71">
+      <c r="A13" s="69">
         <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
-      <c r="B13" s="72">
+      <c r="B13" s="70">
         <f t="shared" si="2"/>
         <v>0.22574688224992645</v>
       </c>
-      <c r="C13" s="72">
+      <c r="C13" s="70">
         <f t="shared" si="1"/>
         <v>0.22906909621699434</v>
       </c>
-      <c r="D13" s="72">
+      <c r="D13" s="70">
         <f t="shared" si="1"/>
         <v>0.232371106531017</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="70">
         <f t="shared" si="1"/>
         <v>0.23565270788432247</v>
       </c>
-      <c r="F13" s="72">
+      <c r="F13" s="70">
         <f t="shared" si="1"/>
         <v>0.23891370030713843</v>
       </c>
-      <c r="G13" s="72">
+      <c r="G13" s="70">
         <f t="shared" si="1"/>
         <v>0.24215388919413527</v>
       </c>
-      <c r="H13" s="72">
+      <c r="H13" s="70">
         <f t="shared" si="1"/>
         <v>0.24537308532866398</v>
       </c>
-      <c r="I13" s="72">
+      <c r="I13" s="70">
         <f t="shared" si="1"/>
         <v>0.24857110490468992</v>
       </c>
-      <c r="J13" s="72">
+      <c r="J13" s="70">
         <f t="shared" si="1"/>
         <v>0.25174776954642952</v>
       </c>
-      <c r="K13" s="72">
+      <c r="K13" s="70">
         <f t="shared" si="1"/>
         <v>0.25490290632569057</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71">
+      <c r="A14" s="69">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="B14" s="72">
+      <c r="B14" s="70">
         <f t="shared" si="2"/>
         <v>0.25803634777692697</v>
       </c>
-      <c r="C14" s="72">
+      <c r="C14" s="70">
         <f t="shared" si="1"/>
         <v>0.26114793191001329</v>
       </c>
-      <c r="D14" s="72">
+      <c r="D14" s="70">
         <f t="shared" si="1"/>
         <v>0.26423750222074882</v>
       </c>
-      <c r="E14" s="72">
+      <c r="E14" s="70">
         <f t="shared" si="1"/>
         <v>0.26730490769910253</v>
       </c>
-      <c r="F14" s="72">
+      <c r="F14" s="70">
         <f t="shared" si="1"/>
         <v>0.27035000283520938</v>
       </c>
-      <c r="G14" s="72">
+      <c r="G14" s="70">
         <f t="shared" si="1"/>
         <v>0.27337264762313174</v>
       </c>
-      <c r="H14" s="72">
+      <c r="H14" s="70">
         <f t="shared" si="1"/>
         <v>0.27637270756240062</v>
       </c>
-      <c r="I14" s="72">
+      <c r="I14" s="70">
         <f t="shared" si="1"/>
         <v>0.27935005365735044</v>
       </c>
-      <c r="J14" s="72">
+      <c r="J14" s="70">
         <f t="shared" si="1"/>
         <v>0.28230456241426682</v>
       </c>
-      <c r="K14" s="72">
+      <c r="K14" s="70">
         <f t="shared" si="1"/>
         <v>0.28523611583636277</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="71">
+      <c r="A15" s="69">
         <f t="shared" si="3"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="B15" s="72">
+      <c r="B15" s="70">
         <f t="shared" si="2"/>
         <v>0.28814460141660336</v>
       </c>
-      <c r="C15" s="72">
+      <c r="C15" s="70">
         <f t="shared" si="1"/>
         <v>0.29102991212839835</v>
       </c>
-      <c r="D15" s="72">
+      <c r="D15" s="70">
         <f t="shared" si="1"/>
         <v>0.29389194641418692</v>
       </c>
-      <c r="E15" s="72">
+      <c r="E15" s="70">
         <f t="shared" si="1"/>
         <v>0.29673060817193153</v>
       </c>
-      <c r="F15" s="72">
+      <c r="F15" s="70">
         <f t="shared" si="1"/>
         <v>0.29954580673955034</v>
       </c>
-      <c r="G15" s="72">
+      <c r="G15" s="70">
         <f t="shared" si="1"/>
         <v>0.30233745687730762</v>
       </c>
-      <c r="H15" s="72">
+      <c r="H15" s="70">
         <f t="shared" si="1"/>
         <v>0.30510547874819172</v>
       </c>
-      <c r="I15" s="72">
+      <c r="I15" s="70">
         <f t="shared" si="1"/>
         <v>0.30784979789630373</v>
       </c>
-      <c r="J15" s="72">
+      <c r="J15" s="70">
         <f t="shared" si="1"/>
         <v>0.31057034522328786</v>
       </c>
-      <c r="K15" s="72">
+      <c r="K15" s="70">
         <f t="shared" si="1"/>
         <v>0.31326705696282731</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="71">
+      <c r="A16" s="69">
         <f t="shared" si="3"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="B16" s="72">
+      <c r="B16" s="70">
         <f t="shared" si="2"/>
         <v>0.31593987465324047</v>
       </c>
-      <c r="C16" s="72">
+      <c r="C16" s="70">
         <f t="shared" si="1"/>
         <v>0.31858874510820279</v>
       </c>
-      <c r="D16" s="72">
+      <c r="D16" s="70">
         <f t="shared" si="1"/>
         <v>0.32121362038562828</v>
       </c>
-      <c r="E16" s="72">
+      <c r="E16" s="70">
         <f t="shared" si="1"/>
         <v>0.32381445775474205</v>
       </c>
-      <c r="F16" s="72">
+      <c r="F16" s="70">
         <f t="shared" si="1"/>
         <v>0.32639121966137541</v>
       </c>
-      <c r="G16" s="72">
+      <c r="G16" s="70">
         <f t="shared" si="1"/>
         <v>0.32894387369151812</v>
       </c>
-      <c r="H16" s="72">
+      <c r="H16" s="70">
         <f t="shared" si="1"/>
         <v>0.33147239253316219</v>
       </c>
-      <c r="I16" s="72">
+      <c r="I16" s="70">
         <f t="shared" si="1"/>
         <v>0.33397675393647042</v>
       </c>
-      <c r="J16" s="72">
+      <c r="J16" s="70">
         <f t="shared" si="1"/>
         <v>0.33645694067230769</v>
       </c>
-      <c r="K16" s="72">
+      <c r="K16" s="70">
         <f t="shared" si="1"/>
         <v>0.33891294048916909</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="71">
+      <c r="A17" s="69">
         <f t="shared" si="3"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="B17" s="72">
+      <c r="B17" s="70">
         <f t="shared" si="2"/>
         <v>0.34134474606854281</v>
       </c>
-      <c r="C17" s="72">
+      <c r="C17" s="70">
         <f t="shared" si="1"/>
         <v>0.34375235497874534</v>
       </c>
-      <c r="D17" s="72">
+      <c r="D17" s="70">
         <f t="shared" si="1"/>
         <v>0.34613576962726511</v>
       </c>
-      <c r="E17" s="72">
+      <c r="E17" s="70">
         <f t="shared" si="1"/>
         <v>0.34849499721165622</v>
       </c>
-      <c r="F17" s="72">
+      <c r="F17" s="70">
         <f t="shared" si="1"/>
         <v>0.35083004966901854</v>
       </c>
-      <c r="G17" s="72">
+      <c r="G17" s="70">
         <f t="shared" si="1"/>
         <v>0.35314094362410409</v>
       </c>
-      <c r="H17" s="72">
+      <c r="H17" s="70">
         <f t="shared" si="1"/>
         <v>0.35542770033609039</v>
       </c>
-      <c r="I17" s="72">
+      <c r="I17" s="70">
         <f t="shared" si="1"/>
         <v>0.35769034564406077</v>
       </c>
-      <c r="J17" s="72">
+      <c r="J17" s="70">
         <f t="shared" si="1"/>
         <v>0.35992890991123094</v>
       </c>
-      <c r="K17" s="72">
+      <c r="K17" s="70">
         <f t="shared" si="1"/>
         <v>0.3621434279679645</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="71">
+      <c r="A18" s="69">
         <f t="shared" si="3"/>
         <v>1.0999999999999999</v>
       </c>
-      <c r="B18" s="72">
+      <c r="B18" s="70">
         <f t="shared" si="2"/>
         <v>0.36433393905361733</v>
       </c>
-      <c r="C18" s="72">
+      <c r="C18" s="70">
         <f t="shared" si="1"/>
         <v>0.36650048675725277</v>
       </c>
-      <c r="D18" s="72">
+      <c r="D18" s="70">
         <f t="shared" si="1"/>
         <v>0.36864311895726931</v>
       </c>
-      <c r="E18" s="72">
+      <c r="E18" s="70">
         <f t="shared" si="1"/>
         <v>0.3707618877599822</v>
       </c>
-      <c r="F18" s="72">
+      <c r="F18" s="70">
         <f t="shared" si="1"/>
         <v>0.37285684943720176</v>
       </c>
-      <c r="G18" s="72">
+      <c r="G18" s="70">
         <f t="shared" si="1"/>
         <v>0.37492806436284976</v>
       </c>
-      <c r="H18" s="72">
+      <c r="H18" s="70">
         <f t="shared" si="1"/>
         <v>0.37697559694865657</v>
       </c>
-      <c r="I18" s="72">
+      <c r="I18" s="70">
         <f t="shared" si="1"/>
         <v>0.37899951557898182</v>
       </c>
-      <c r="J18" s="72">
+      <c r="J18" s="70">
         <f t="shared" si="1"/>
         <v>0.38099989254479927</v>
       </c>
-      <c r="K18" s="72">
+      <c r="K18" s="70">
         <f t="shared" si="1"/>
         <v>0.38297680397689138</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="71">
+      <c r="A19" s="69">
         <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
-      <c r="B19" s="72">
+      <c r="B19" s="70">
         <f t="shared" si="2"/>
         <v>0.38493032977829178</v>
       </c>
-      <c r="C19" s="72">
+      <c r="C19" s="70">
         <f t="shared" si="1"/>
         <v>0.38686055355602278</v>
       </c>
-      <c r="D19" s="72">
+      <c r="D19" s="70">
         <f t="shared" si="1"/>
         <v>0.38876756255216538</v>
       </c>
-      <c r="E19" s="72">
+      <c r="E19" s="70">
         <f t="shared" si="1"/>
         <v>0.39065144757430814</v>
       </c>
-      <c r="F19" s="72">
+      <c r="F19" s="70">
         <f t="shared" si="1"/>
         <v>0.39251230292541306</v>
       </c>
-      <c r="G19" s="72">
+      <c r="G19" s="70">
         <f t="shared" si="1"/>
         <v>0.39435022633314476</v>
       </c>
-      <c r="H19" s="72">
+      <c r="H19" s="70">
         <f t="shared" si="1"/>
         <v>0.39616531887869966</v>
       </c>
-      <c r="I19" s="72">
+      <c r="I19" s="70">
         <f t="shared" si="1"/>
         <v>0.39795768492518091</v>
       </c>
-      <c r="J19" s="72">
+      <c r="J19" s="70">
         <f t="shared" si="1"/>
         <v>0.39972743204555794</v>
       </c>
-      <c r="K19" s="72">
+      <c r="K19" s="70">
         <f t="shared" si="1"/>
         <v>0.40147467095025213</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="71">
+      <c r="A20" s="69">
         <f>A19+0.1</f>
         <v>1.3</v>
       </c>
-      <c r="B20" s="72">
+      <c r="B20" s="70">
         <f t="shared" si="2"/>
         <v>0.4031995154143897</v>
       </c>
-      <c r="C20" s="72">
+      <c r="C20" s="70">
         <f t="shared" si="1"/>
         <v>0.40490208220476098</v>
       </c>
-      <c r="D20" s="72">
+      <c r="D20" s="70">
         <f t="shared" si="1"/>
         <v>0.40658249100652821</v>
       </c>
-      <c r="E20" s="72">
+      <c r="E20" s="70">
         <f t="shared" si="1"/>
         <v>0.40824086434971918</v>
       </c>
-      <c r="F20" s="72">
+      <c r="F20" s="70">
         <f t="shared" si="1"/>
         <v>0.40987732753554751</v>
       </c>
-      <c r="G20" s="72">
+      <c r="G20" s="70">
         <f t="shared" si="1"/>
         <v>0.41149200856259804</v>
       </c>
-      <c r="H20" s="72">
+      <c r="H20" s="70">
         <f t="shared" si="1"/>
         <v>0.41308503805291497</v>
       </c>
-      <c r="I20" s="72">
+      <c r="I20" s="70">
         <f t="shared" si="1"/>
         <v>0.41465654917803307</v>
       </c>
-      <c r="J20" s="72">
+      <c r="J20" s="70">
         <f t="shared" si="1"/>
         <v>0.41620667758498575</v>
       </c>
-      <c r="K20" s="72">
+      <c r="K20" s="70">
         <f t="shared" si="1"/>
         <v>0.41773556132233114</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="71">
+      <c r="A21" s="69">
         <f t="shared" si="3"/>
         <v>1.4000000000000001</v>
       </c>
-      <c r="B21" s="72">
+      <c r="B21" s="70">
         <f t="shared" si="2"/>
         <v>0.41924334076622893</v>
       </c>
-      <c r="C21" s="72">
+      <c r="C21" s="70">
         <f t="shared" si="1"/>
         <v>0.42073015854660767</v>
       </c>
-      <c r="D21" s="72">
+      <c r="D21" s="70">
         <f t="shared" si="1"/>
         <v>0.42219615947345368</v>
       </c>
-      <c r="E21" s="72">
+      <c r="E21" s="70">
         <f t="shared" si="1"/>
         <v>0.42364149046326094</v>
       </c>
-      <c r="F21" s="72">
+      <c r="F21" s="70">
         <f t="shared" si="1"/>
         <v>0.42506630046567295</v>
       </c>
-      <c r="G21" s="72">
+      <c r="G21" s="70">
         <f t="shared" si="1"/>
         <v>0.42647074039035171</v>
       </c>
-      <c r="H21" s="72">
+      <c r="H21" s="70">
         <f t="shared" si="1"/>
         <v>0.42785496303410619</v>
       </c>
-      <c r="I21" s="72">
+      <c r="I21" s="70">
         <f t="shared" si="1"/>
         <v>0.42921912300831455</v>
       </c>
-      <c r="J21" s="72">
+      <c r="J21" s="70">
         <f t="shared" si="1"/>
         <v>0.43056337666666833</v>
       </c>
-      <c r="K21" s="72">
+      <c r="K21" s="70">
         <f t="shared" si="1"/>
         <v>0.43188788203327455</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="71">
+      <c r="A22" s="69">
         <f t="shared" si="3"/>
         <v>1.5000000000000002</v>
       </c>
-      <c r="B22" s="72">
+      <c r="B22" s="70">
         <f t="shared" si="2"/>
         <v>0.43319279873114191</v>
       </c>
-      <c r="C22" s="72">
+      <c r="C22" s="70">
         <f t="shared" si="1"/>
         <v>0.43447828791108356</v>
       </c>
-      <c r="D22" s="72">
+      <c r="D22" s="70">
         <f t="shared" si="1"/>
         <v>0.43574451218106425</v>
       </c>
-      <c r="E22" s="72">
+      <c r="E22" s="70">
         <f t="shared" si="1"/>
         <v>0.43699163553602161</v>
       </c>
-      <c r="F22" s="72">
+      <c r="F22" s="70">
         <f t="shared" si="1"/>
         <v>0.4382198232881882</v>
       </c>
-      <c r="G22" s="72">
+      <c r="G22" s="70">
         <f t="shared" si="1"/>
         <v>0.43942924199794109</v>
       </c>
-      <c r="H22" s="72">
+      <c r="H22" s="70">
         <f t="shared" si="1"/>
         <v>0.44062005940520699</v>
       </c>
-      <c r="I22" s="72">
+      <c r="I22" s="70">
         <f t="shared" si="1"/>
         <v>0.44179244436144705</v>
       </c>
-      <c r="J22" s="72">
+      <c r="J22" s="70">
         <f t="shared" si="1"/>
         <v>0.44294656676224586</v>
       </c>
-      <c r="K22" s="72">
+      <c r="K22" s="70">
         <f t="shared" si="1"/>
         <v>0.44408259748053058</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="71">
+      <c r="A23" s="69">
         <f t="shared" si="3"/>
         <v>1.6000000000000003</v>
       </c>
-      <c r="B23" s="72">
+      <c r="B23" s="70">
         <f t="shared" si="2"/>
         <v>0.44520070830044201</v>
       </c>
-      <c r="C23" s="72">
+      <c r="C23" s="70">
         <f t="shared" si="2"/>
         <v>0.44630107185188028</v>
       </c>
-      <c r="D23" s="72">
+      <c r="D23" s="70">
         <f t="shared" si="2"/>
         <v>0.44738386154574794</v>
       </c>
-      <c r="E23" s="72">
+      <c r="E23" s="70">
         <f t="shared" si="2"/>
         <v>0.44844925150991066</v>
       </c>
-      <c r="F23" s="72">
+      <c r="F23" s="70">
         <f t="shared" si="2"/>
         <v>0.44949741652589636</v>
       </c>
-      <c r="G23" s="72">
+      <c r="G23" s="70">
         <f t="shared" si="2"/>
         <v>0.4505285319663519</v>
       </c>
-      <c r="H23" s="72">
+      <c r="H23" s="70">
         <f t="shared" si="2"/>
         <v>0.45154277373327723</v>
       </c>
-      <c r="I23" s="72">
+      <c r="I23" s="70">
         <f t="shared" si="2"/>
         <v>0.45254031819705276</v>
       </c>
-      <c r="J23" s="72">
+      <c r="J23" s="70">
         <f t="shared" si="2"/>
         <v>0.45352134213628004</v>
       </c>
-      <c r="K23" s="72">
+      <c r="K23" s="70">
         <f t="shared" si="2"/>
         <v>0.45448602267845017</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="71">
+      <c r="A24" s="69">
         <f t="shared" si="3"/>
         <v>1.7000000000000004</v>
       </c>
-      <c r="B24" s="72">
+      <c r="B24" s="70">
         <f t="shared" si="2"/>
         <v>0.45543453724145699</v>
       </c>
-      <c r="C24" s="72">
+      <c r="C24" s="70">
         <f t="shared" si="2"/>
         <v>0.45636706347596812</v>
       </c>
-      <c r="D24" s="72">
+      <c r="D24" s="70">
         <f t="shared" si="2"/>
         <v>0.45728377920867114</v>
       </c>
-      <c r="E24" s="72">
+      <c r="E24" s="70">
         <f t="shared" si="2"/>
         <v>0.4581848623864051</v>
       </c>
-      <c r="F24" s="72">
+      <c r="F24" s="70">
         <f t="shared" si="2"/>
         <v>0.45907049102119268</v>
       </c>
-      <c r="G24" s="72">
+      <c r="G24" s="70">
         <f t="shared" si="2"/>
         <v>0.459940843136183</v>
       </c>
-      <c r="H24" s="72">
+      <c r="H24" s="70">
         <f t="shared" si="2"/>
         <v>0.46079609671251742</v>
       </c>
-      <c r="I24" s="72">
+      <c r="I24" s="70">
         <f t="shared" si="2"/>
         <v>0.46163642963712881</v>
       </c>
-      <c r="J24" s="72">
+      <c r="J24" s="70">
         <f t="shared" si="2"/>
         <v>0.46246201965148326</v>
       </c>
-      <c r="K24" s="72">
+      <c r="K24" s="70">
         <f t="shared" si="2"/>
         <v>0.4632730443012737</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="71">
+      <c r="A25" s="69">
         <f t="shared" si="3"/>
         <v>1.8000000000000005</v>
       </c>
-      <c r="B25" s="72">
+      <c r="B25" s="70">
         <f t="shared" si="2"/>
         <v>0.46406968088707423</v>
       </c>
-      <c r="C25" s="72">
+      <c r="C25" s="70">
         <f t="shared" si="2"/>
         <v>0.4648521064159612</v>
       </c>
-      <c r="D25" s="72">
+      <c r="D25" s="70">
         <f t="shared" si="2"/>
         <v>0.46562049755411006</v>
       </c>
-      <c r="E25" s="72">
+      <c r="E25" s="70">
         <f t="shared" si="2"/>
         <v>0.46637503058037166</v>
       </c>
-      <c r="F25" s="72">
+      <c r="F25" s="70">
         <f t="shared" si="2"/>
         <v>0.46711588134083615</v>
       </c>
-      <c r="G25" s="72">
+      <c r="G25" s="70">
         <f t="shared" si="2"/>
         <v>0.46784322520438637</v>
       </c>
-      <c r="H25" s="72">
+      <c r="H25" s="70">
         <f t="shared" si="2"/>
         <v>0.46855723701924734</v>
       </c>
-      <c r="I25" s="72">
+      <c r="I25" s="70">
         <f t="shared" si="2"/>
         <v>0.46925809107053407</v>
       </c>
-      <c r="J25" s="72">
+      <c r="J25" s="70">
         <f t="shared" si="2"/>
         <v>0.46994596103880026</v>
       </c>
-      <c r="K25" s="72">
+      <c r="K25" s="70">
         <f t="shared" si="2"/>
         <v>0.4706210199595906</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="71">
+      <c r="A26" s="69">
         <f>A25+0.1</f>
         <v>1.9000000000000006</v>
       </c>
-      <c r="B26" s="72">
+      <c r="B26" s="70">
         <f t="shared" si="2"/>
         <v>0.47128344018399826</v>
       </c>
-      <c r="C26" s="72">
+      <c r="C26" s="70">
         <f t="shared" si="2"/>
         <v>0.47193339334022755</v>
       </c>
-      <c r="D26" s="72">
+      <c r="D26" s="70">
         <f t="shared" si="2"/>
         <v>0.4725710502961632</v>
       </c>
-      <c r="E26" s="72">
+      <c r="E26" s="70">
         <f t="shared" si="2"/>
         <v>0.47319658112294505</v>
       </c>
-      <c r="F26" s="72">
+      <c r="F26" s="70">
         <f t="shared" si="2"/>
         <v>0.47381015505954738</v>
       </c>
-      <c r="G26" s="72">
+      <c r="G26" s="70">
         <f t="shared" si="2"/>
         <v>0.47441194047836144</v>
       </c>
-      <c r="H26" s="72">
+      <c r="H26" s="70">
         <f t="shared" si="2"/>
         <v>0.47500210485177963</v>
       </c>
-      <c r="I26" s="72">
+      <c r="I26" s="70">
         <f t="shared" si="2"/>
         <v>0.47558081471977753</v>
       </c>
-      <c r="J26" s="72">
+      <c r="J26" s="70">
         <f t="shared" si="2"/>
         <v>0.47614823565849151</v>
       </c>
-      <c r="K26" s="72">
+      <c r="K26" s="70">
         <f t="shared" si="2"/>
         <v>0.47670453224978826</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="71">
+      <c r="A27" s="69">
         <f t="shared" si="3"/>
         <v>2.0000000000000004</v>
       </c>
-      <c r="B27" s="72">
+      <c r="B27" s="70">
         <f t="shared" si="2"/>
         <v>0.47724986805182079</v>
       </c>
-      <c r="C27" s="72">
+      <c r="C27" s="70">
         <f t="shared" si="2"/>
         <v>0.47778440557056856</v>
       </c>
-      <c r="D27" s="72">
+      <c r="D27" s="70">
         <f t="shared" si="2"/>
         <v>0.47830830623235321</v>
       </c>
-      <c r="E27" s="72">
+      <c r="E27" s="70">
         <f t="shared" si="2"/>
         <v>0.47882173035732778</v>
       </c>
-      <c r="F27" s="72">
+      <c r="F27" s="70">
         <f t="shared" si="2"/>
         <v>0.47932483713393004</v>
       </c>
-      <c r="G27" s="72">
+      <c r="G27" s="70">
         <f t="shared" si="2"/>
         <v>0.47981778459429558</v>
       </c>
-      <c r="H27" s="72">
+      <c r="H27" s="70">
         <f t="shared" si="2"/>
         <v>0.48030072959062309</v>
       </c>
-      <c r="I27" s="72">
+      <c r="I27" s="70">
         <f t="shared" si="2"/>
         <v>0.48077382777248279</v>
       </c>
-      <c r="J27" s="72">
+      <c r="J27" s="70">
         <f t="shared" si="2"/>
         <v>0.48123723356506232</v>
       </c>
-      <c r="K27" s="72">
+      <c r="K27" s="70">
         <f t="shared" si="2"/>
         <v>0.48169110014834104</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="71">
+      <c r="A28" s="69">
         <f t="shared" si="3"/>
         <v>2.1000000000000005</v>
       </c>
-      <c r="B28" s="72">
+      <c r="B28" s="70">
         <f t="shared" si="2"/>
         <v>0.48213557943718344</v>
       </c>
-      <c r="C28" s="72">
+      <c r="C28" s="70">
         <f t="shared" si="2"/>
         <v>0.48257082206234292</v>
       </c>
-      <c r="D28" s="72">
+      <c r="D28" s="70">
         <f t="shared" si="2"/>
         <v>0.48299697735236724</v>
       </c>
-      <c r="E28" s="72">
+      <c r="E28" s="70">
         <f t="shared" si="2"/>
         <v>0.48341419331639501</v>
       </c>
-      <c r="F28" s="72">
+      <c r="F28" s="70">
         <f t="shared" si="2"/>
         <v>0.48382261662783388</v>
       </c>
-      <c r="G28" s="72">
+      <c r="G28" s="70">
         <f t="shared" si="2"/>
         <v>0.48422239260890954</v>
       </c>
-      <c r="H28" s="72">
+      <c r="H28" s="70">
         <f t="shared" si="2"/>
         <v>0.48461366521607463</v>
       </c>
-      <c r="I28" s="72">
+      <c r="I28" s="70">
         <f t="shared" si="2"/>
         <v>0.48499657702626786</v>
       </c>
-      <c r="J28" s="72">
+      <c r="J28" s="70">
         <f t="shared" si="2"/>
         <v>0.48537126922401075</v>
       </c>
-      <c r="K28" s="72">
+      <c r="K28" s="70">
         <f t="shared" si="2"/>
         <v>0.48573788158933118</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="71">
+      <c r="A29" s="69">
         <f t="shared" si="3"/>
         <v>2.2000000000000006</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="70">
         <f t="shared" si="2"/>
         <v>0.48609655248650141</v>
       </c>
-      <c r="C29" s="72">
+      <c r="C29" s="70">
         <f t="shared" si="2"/>
         <v>0.48644741885358</v>
       </c>
-      <c r="D29" s="72">
+      <c r="D29" s="70">
         <f t="shared" si="2"/>
         <v>0.48679061619274377</v>
       </c>
-      <c r="E29" s="72">
+      <c r="E29" s="70">
         <f t="shared" si="2"/>
         <v>0.48712627856139801</v>
       </c>
-      <c r="F29" s="72">
+      <c r="F29" s="70">
         <f t="shared" si="2"/>
         <v>0.48745453856405341</v>
       </c>
-      <c r="G29" s="72">
+      <c r="G29" s="70">
         <f t="shared" si="2"/>
         <v>0.48777552734495533</v>
       </c>
-      <c r="H29" s="72">
+      <c r="H29" s="70">
         <f t="shared" si="2"/>
         <v>0.48808937458145296</v>
       </c>
-      <c r="I29" s="72">
+      <c r="I29" s="70">
         <f t="shared" si="2"/>
         <v>0.48839620847809651</v>
       </c>
-      <c r="J29" s="72">
+      <c r="J29" s="70">
         <f t="shared" si="2"/>
         <v>0.4886961557614472</v>
       </c>
-      <c r="K29" s="72">
+      <c r="K29" s="70">
         <f t="shared" si="2"/>
         <v>0.48898934167558861</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="71">
+      <c r="A30" s="69">
         <f t="shared" si="3"/>
         <v>2.3000000000000007</v>
       </c>
-      <c r="B30" s="72">
+      <c r="B30" s="70">
         <f t="shared" si="2"/>
         <v>0.48927588997832416</v>
       </c>
-      <c r="C30" s="72">
+      <c r="C30" s="70">
         <f t="shared" si="2"/>
         <v>0.48955592293804895</v>
       </c>
-      <c r="D30" s="72">
+      <c r="D30" s="70">
         <f t="shared" si="2"/>
         <v>0.48982956133128031</v>
       </c>
-      <c r="E30" s="72">
+      <c r="E30" s="70">
         <f t="shared" si="2"/>
         <v>0.49009692444083575</v>
       </c>
-      <c r="F30" s="72">
+      <c r="F30" s="70">
         <f t="shared" si="2"/>
         <v>0.49035813005464168</v>
       </c>
-      <c r="G30" s="72">
+      <c r="G30" s="70">
         <f t="shared" si="2"/>
         <v>0.49061329446516144</v>
       </c>
-      <c r="H30" s="72">
+      <c r="H30" s="70">
         <f t="shared" si="2"/>
         <v>0.49086253246942735</v>
       </c>
-      <c r="I30" s="72">
+      <c r="I30" s="70">
         <f t="shared" si="2"/>
         <v>0.49110595736966323</v>
       </c>
-      <c r="J30" s="72">
+      <c r="J30" s="70">
         <f t="shared" si="2"/>
         <v>0.49134368097448344</v>
       </c>
-      <c r="K30" s="72">
+      <c r="K30" s="70">
         <f t="shared" si="2"/>
         <v>0.49157581360065428</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="71">
+      <c r="A31" s="69">
         <f t="shared" si="3"/>
         <v>2.4000000000000008</v>
       </c>
-      <c r="B31" s="72">
+      <c r="B31" s="70">
         <f t="shared" si="2"/>
         <v>0.49180246407540384</v>
       </c>
-      <c r="C31" s="72">
+      <c r="C31" s="70">
         <f t="shared" si="2"/>
         <v>0.49202373973926627</v>
       </c>
-      <c r="D31" s="72">
+      <c r="D31" s="70">
         <f t="shared" si="2"/>
         <v>0.49223974644944635</v>
       </c>
-      <c r="E31" s="72">
+      <c r="E31" s="70">
         <f t="shared" si="2"/>
         <v>0.49245058858369084</v>
       </c>
-      <c r="F31" s="72">
+      <c r="F31" s="70">
         <f t="shared" si="2"/>
         <v>0.49265636904465171</v>
       </c>
-      <c r="G31" s="72">
+      <c r="G31" s="70">
         <f t="shared" si="2"/>
         <v>0.49285718926472855</v>
       </c>
-      <c r="H31" s="72">
+      <c r="H31" s="70">
         <f t="shared" si="2"/>
         <v>0.49305314921137566</v>
       </c>
-      <c r="I31" s="72">
+      <c r="I31" s="70">
         <f t="shared" si="2"/>
         <v>0.49324434739285938</v>
       </c>
-      <c r="J31" s="72">
+      <c r="J31" s="70">
         <f t="shared" si="2"/>
         <v>0.4934308808644533</v>
       </c>
-      <c r="K31" s="72">
+      <c r="K31" s="70">
         <f t="shared" si="2"/>
         <v>0.49361284523505689</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="71">
+      <c r="A32" s="69">
         <f t="shared" si="3"/>
         <v>2.5000000000000009</v>
       </c>
-      <c r="B32" s="72">
+      <c r="B32" s="70">
         <f t="shared" si="2"/>
         <v>0.49379033467422384</v>
       </c>
-      <c r="C32" s="72">
+      <c r="C32" s="70">
         <f t="shared" si="2"/>
         <v>0.49396344191958741</v>
       </c>
-      <c r="D32" s="72">
+      <c r="D32" s="70">
         <f t="shared" si="2"/>
         <v>0.49413225828466745</v>
       </c>
-      <c r="E32" s="72">
+      <c r="E32" s="70">
         <f t="shared" si="2"/>
         <v>0.49429687366704933</v>
       </c>
-      <c r="F32" s="72">
+      <c r="F32" s="70">
         <f t="shared" si="2"/>
         <v>0.49445737655691746</v>
       </c>
-      <c r="G32" s="72">
+      <c r="G32" s="70">
         <f t="shared" si="2"/>
         <v>0.49461385404593328</v>
       </c>
-      <c r="H32" s="72">
+      <c r="H32" s="70">
         <f t="shared" si="2"/>
         <v>0.49476639183644422</v>
       </c>
-      <c r="I32" s="72">
+      <c r="I32" s="70">
         <f t="shared" si="2"/>
         <v>0.494915074251009</v>
       </c>
-      <c r="J32" s="72">
+      <c r="J32" s="70">
         <f t="shared" si="2"/>
         <v>0.49505998424222941</v>
       </c>
-      <c r="K32" s="72">
+      <c r="K32" s="70">
         <f t="shared" si="2"/>
         <v>0.49520120340287388</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="71">
+      <c r="A33" s="69">
         <f t="shared" si="3"/>
         <v>2.600000000000001</v>
       </c>
-      <c r="B33" s="72">
+      <c r="B33" s="70">
         <f t="shared" si="2"/>
         <v>0.49533881197628127</v>
       </c>
-      <c r="C33" s="72">
+      <c r="C33" s="70">
         <f t="shared" si="2"/>
         <v>0.49547288886703267</v>
       </c>
-      <c r="D33" s="72">
+      <c r="D33" s="70">
         <f t="shared" si="2"/>
         <v>0.49560351165187866</v>
       </c>
-      <c r="E33" s="72">
+      <c r="E33" s="70">
         <f t="shared" si="2"/>
         <v>0.4957307565909107</v>
       </c>
-      <c r="F33" s="72">
+      <c r="F33" s="70">
         <f t="shared" si="2"/>
         <v>0.49585469863896392</v>
       </c>
-      <c r="G33" s="72">
+      <c r="G33" s="70">
         <f t="shared" si="2"/>
         <v>0.49597541145724167</v>
       </c>
-      <c r="H33" s="72">
+      <c r="H33" s="70">
         <f t="shared" si="2"/>
         <v>0.49609296742514719</v>
       </c>
-      <c r="I33" s="72">
+      <c r="I33" s="70">
         <f t="shared" si="2"/>
         <v>0.49620743765231456</v>
       </c>
-      <c r="J33" s="72">
+      <c r="J33" s="70">
         <f t="shared" si="2"/>
         <v>0.49631889199082502</v>
       </c>
-      <c r="K33" s="72">
+      <c r="K33" s="70">
         <f t="shared" si="2"/>
         <v>0.49642739904760025</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="71">
+      <c r="A34" s="69">
         <f t="shared" si="3"/>
         <v>2.7000000000000011</v>
       </c>
-      <c r="B34" s="72">
+      <c r="B34" s="70">
         <f t="shared" si="2"/>
         <v>0.49653302619695938</v>
       </c>
-      <c r="C34" s="72">
+      <c r="C34" s="70">
         <f t="shared" si="2"/>
         <v>0.4966358395933308</v>
       </c>
-      <c r="D34" s="72">
+      <c r="D34" s="70">
         <f t="shared" si="2"/>
         <v>0.49673590418410873</v>
       </c>
-      <c r="E34" s="72">
+      <c r="E34" s="70">
         <f t="shared" si="2"/>
         <v>0.49683328372264224</v>
       </c>
-      <c r="F34" s="72">
+      <c r="F34" s="70">
         <f t="shared" si="2"/>
         <v>0.49692804078134956</v>
       </c>
-      <c r="G34" s="72">
+      <c r="G34" s="70">
         <f t="shared" si="2"/>
         <v>0.49702023676494544</v>
       </c>
-      <c r="H34" s="72">
+      <c r="H34" s="70">
         <f t="shared" si="2"/>
         <v>0.49710993192377384</v>
       </c>
-      <c r="I34" s="72">
+      <c r="I34" s="70">
         <f t="shared" si="2"/>
         <v>0.49719718536723501</v>
       </c>
-      <c r="J34" s="72">
+      <c r="J34" s="70">
         <f t="shared" si="2"/>
         <v>0.49728205507729872</v>
       </c>
-      <c r="K34" s="72">
+      <c r="K34" s="70">
         <f t="shared" si="2"/>
         <v>0.49736459792209509</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="71">
+      <c r="A35" s="69">
         <f t="shared" si="3"/>
         <v>2.8000000000000012</v>
       </c>
-      <c r="B35" s="72">
+      <c r="B35" s="70">
         <f t="shared" si="2"/>
         <v>0.49744486966957213</v>
       </c>
-      <c r="C35" s="72">
+      <c r="C35" s="70">
         <f t="shared" si="2"/>
         <v>0.4975229250012142</v>
       </c>
-      <c r="D35" s="72">
+      <c r="D35" s="70">
         <f t="shared" si="2"/>
         <v>0.49759881752581081</v>
       </c>
-      <c r="E35" s="72">
+      <c r="E35" s="70">
         <f t="shared" si="2"/>
         <v>0.4976725997932685</v>
       </c>
-      <c r="F35" s="72">
+      <c r="F35" s="70">
         <f t="shared" si="2"/>
         <v>0.49774432330845764</v>
       </c>
-      <c r="G35" s="72">
+      <c r="G35" s="70">
         <f t="shared" si="2"/>
         <v>0.49781403854508677</v>
       </c>
-      <c r="H35" s="72">
+      <c r="H35" s="70">
         <f t="shared" si="2"/>
         <v>0.49788179495959539</v>
       </c>
-      <c r="I35" s="72">
+      <c r="I35" s="70">
         <f t="shared" si="2"/>
         <v>0.49794764100506028</v>
       </c>
-      <c r="J35" s="72">
+      <c r="J35" s="70">
         <f t="shared" si="2"/>
         <v>0.49801162414510569</v>
       </c>
-      <c r="K35" s="72">
+      <c r="K35" s="70">
         <f t="shared" si="2"/>
         <v>0.49807379086781212</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="71">
+      <c r="A36" s="69">
         <f t="shared" si="3"/>
         <v>2.9000000000000012</v>
       </c>
-      <c r="B36" s="72">
+      <c r="B36" s="70">
         <f t="shared" si="2"/>
         <v>0.49813418669961596</v>
       </c>
-      <c r="C36" s="72">
+      <c r="C36" s="70">
         <f t="shared" si="2"/>
         <v>0.49819285621919362</v>
       </c>
-      <c r="D36" s="72">
+      <c r="D36" s="70">
         <f t="shared" si="2"/>
         <v>0.49824984307132392</v>
       </c>
-      <c r="E36" s="72">
+      <c r="E36" s="70">
         <f t="shared" si="2"/>
         <v>0.49830518998072271</v>
       </c>
-      <c r="F36" s="72">
+      <c r="F36" s="70">
         <f t="shared" si="2"/>
         <v>0.49835893876584303</v>
       </c>
-      <c r="G36" s="72">
+      <c r="G36" s="70">
         <f t="shared" si="2"/>
         <v>0.49841113035263518</v>
       </c>
-      <c r="H36" s="72">
+      <c r="H36" s="70">
         <f t="shared" si="2"/>
         <v>0.49846180478826196</v>
       </c>
-      <c r="I36" s="72">
+      <c r="I36" s="70">
         <f t="shared" si="2"/>
         <v>0.49851100125476255</v>
       </c>
-      <c r="J36" s="72">
+      <c r="J36" s="70">
         <f t="shared" si="2"/>
         <v>0.49855875808266004</v>
       </c>
-      <c r="K36" s="72">
+      <c r="K36" s="70">
         <f t="shared" si="2"/>
         <v>0.49860511276450781</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="71">
+      <c r="A37" s="69">
         <f t="shared" si="3"/>
         <v>3.0000000000000013</v>
       </c>
-      <c r="B37" s="72">
+      <c r="B37" s="70">
         <f t="shared" si="2"/>
         <v>0.4986501019683699</v>
       </c>
-      <c r="C37" s="72">
+      <c r="C37" s="70">
         <f t="shared" si="2"/>
         <v>0.49869376155123057</v>
       </c>
-      <c r="D37" s="72">
+      <c r="D37" s="70">
         <f t="shared" si="2"/>
         <v>0.49873612657232769</v>
       </c>
-      <c r="E37" s="72">
+      <c r="E37" s="70">
         <f t="shared" si="2"/>
         <v>0.49877723130640772</v>
       </c>
-      <c r="F37" s="72">
+      <c r="F37" s="70">
         <f t="shared" si="2"/>
         <v>0.4988171092568956</v>
       </c>
-      <c r="G37" s="72">
+      <c r="G37" s="70">
         <f t="shared" si="2"/>
         <v>0.49885579316897732</v>
       </c>
-      <c r="H37" s="72">
+      <c r="H37" s="70">
         <f t="shared" si="2"/>
         <v>0.49889331504259071</v>
       </c>
-      <c r="I37" s="72">
+      <c r="I37" s="70">
         <f t="shared" si="2"/>
         <v>0.49892970614532106</v>
       </c>
-      <c r="J37" s="72">
+      <c r="J37" s="70">
         <f t="shared" si="2"/>
         <v>0.49896499702519714</v>
       </c>
-      <c r="K37" s="72">
+      <c r="K37" s="70">
         <f t="shared" si="2"/>
         <v>0.49899921752338594</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="71">
+      <c r="A38" s="69">
         <f t="shared" si="3"/>
         <v>3.1000000000000014</v>
       </c>
-      <c r="B38" s="72">
+      <c r="B38" s="70">
         <f t="shared" si="2"/>
         <v>0.49903239678678168</v>
       </c>
-      <c r="C38" s="72">
+      <c r="C38" s="70">
         <f t="shared" si="2"/>
         <v>0.49906456328048587</v>
       </c>
-      <c r="D38" s="72">
+      <c r="D38" s="70">
         <f t="shared" si="2"/>
         <v>0.49909574480017771</v>
       </c>
-      <c r="E38" s="72">
+      <c r="E38" s="70">
         <f t="shared" si="2"/>
         <v>0.49912596848436841</v>
       </c>
-      <c r="F38" s="72">
+      <c r="F38" s="70">
         <f t="shared" si="2"/>
         <v>0.49915526082654138</v>
       </c>
-      <c r="G38" s="72">
+      <c r="G38" s="70">
         <f t="shared" si="2"/>
         <v>0.49918364768717149</v>
       </c>
-      <c r="H38" s="72">
+      <c r="H38" s="70">
         <f t="shared" si="2"/>
         <v>0.49921115430562446</v>
       </c>
-      <c r="I38" s="72">
+      <c r="I38" s="70">
         <f t="shared" si="2"/>
         <v>0.49923780531193274</v>
       </c>
-      <c r="J38" s="72">
+      <c r="J38" s="70">
         <f t="shared" si="2"/>
         <v>0.4992636247384461</v>
       </c>
-      <c r="K38" s="72">
+      <c r="K38" s="70">
         <f t="shared" si="2"/>
         <v>0.49928863603135465</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="71">
+      <c r="A39" s="69">
         <f t="shared" si="3"/>
         <v>3.2000000000000015</v>
       </c>
-      <c r="B39" s="72">
+      <c r="B39" s="70">
         <f t="shared" si="2"/>
         <v>0.49931286206208414</v>
       </c>
-      <c r="C39" s="72">
+      <c r="C39" s="70">
         <f t="shared" si="2"/>
         <v>0.49933632513856008</v>
       </c>
-      <c r="D39" s="72">
+      <c r="D39" s="70">
         <f t="shared" si="2"/>
         <v>0.49935904701633993</v>
       </c>
-      <c r="E39" s="72">
+      <c r="E39" s="70">
         <f t="shared" si="2"/>
         <v>0.49938104890961321</v>
       </c>
-      <c r="F39" s="72">
+      <c r="F39" s="70">
         <f t="shared" si="2"/>
         <v>0.49940235150206558</v>
       </c>
-      <c r="G39" s="72">
+      <c r="G39" s="70">
         <f t="shared" si="2"/>
         <v>0.49942297495760923</v>
       </c>
-      <c r="H39" s="72">
+      <c r="H39" s="70">
         <f t="shared" si="2"/>
         <v>0.49944293893097536</v>
       </c>
-      <c r="I39" s="72">
+      <c r="I39" s="70">
         <f t="shared" si="2"/>
         <v>0.49946226257817028</v>
       </c>
-      <c r="J39" s="72">
+      <c r="J39" s="70">
         <f t="shared" si="2"/>
         <v>0.49948096456679303</v>
       </c>
-      <c r="K39" s="72">
+      <c r="K39" s="70">
         <f t="shared" si="2"/>
         <v>0.49949906308621428</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="71">
+      <c r="A40" s="69">
         <f t="shared" si="3"/>
         <v>3.3000000000000016</v>
       </c>
-      <c r="B40" s="72">
+      <c r="B40" s="70">
         <f t="shared" si="2"/>
         <v>0.49951657585761622</v>
       </c>
-      <c r="C40" s="72">
+      <c r="C40" s="70">
         <f t="shared" si="2"/>
         <v>0.49953352014389241</v>
       </c>
-      <c r="D40" s="72">
+      <c r="D40" s="70">
         <f t="shared" si="2"/>
         <v>0.49954991275940785</v>
       </c>
-      <c r="E40" s="72">
+      <c r="E40" s="70">
         <f t="shared" si="2"/>
         <v>0.49956577007961833</v>
       </c>
-      <c r="F40" s="72">
+      <c r="F40" s="70">
         <f t="shared" si="2"/>
         <v>0.49958110805054967</v>
       </c>
-      <c r="G40" s="72">
+      <c r="G40" s="70">
         <f t="shared" si="2"/>
         <v>0.49959594219813597</v>
       </c>
-      <c r="H40" s="72">
+      <c r="H40" s="70">
         <f t="shared" si="2"/>
         <v>0.49961028763741799</v>
       </c>
-      <c r="I40" s="72">
+      <c r="I40" s="70">
         <f t="shared" si="2"/>
         <v>0.49962415908159996</v>
       </c>
-      <c r="J40" s="72">
+      <c r="J40" s="70">
         <f t="shared" si="2"/>
         <v>0.49963757085096694</v>
       </c>
-      <c r="K40" s="72">
+      <c r="K40" s="70">
         <f t="shared" si="2"/>
         <v>0.49965053688166206</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="71">
+      <c r="A41" s="69">
         <f t="shared" si="3"/>
         <v>3.4000000000000017</v>
       </c>
-      <c r="B41" s="72">
+      <c r="B41" s="70">
         <f t="shared" si="2"/>
         <v>0.49966307073432314</v>
       </c>
-      <c r="C41" s="72">
+      <c r="C41" s="70">
         <f t="shared" si="2"/>
         <v>0.49967518560258117</v>
       </c>
-      <c r="D41" s="72">
+      <c r="D41" s="70">
         <f t="shared" si="2"/>
         <v>0.49968689432141877</v>
       </c>
-      <c r="E41" s="72">
+      <c r="E41" s="70">
         <f t="shared" si="2"/>
         <v>0.49969820937539133</v>
       </c>
-      <c r="F41" s="72">
+      <c r="F41" s="70">
         <f t="shared" si="2"/>
         <v>0.49970914290670931</v>
       </c>
-      <c r="G41" s="72">
+      <c r="G41" s="70">
         <f t="shared" si="2"/>
         <v>0.49971970672318378</v>
       </c>
-      <c r="H41" s="72">
+      <c r="H41" s="70">
         <f t="shared" si="2"/>
         <v>0.49972991230603647</v>
       </c>
-      <c r="I41" s="72">
+      <c r="I41" s="70">
         <f t="shared" si="2"/>
         <v>0.49973977081757248</v>
       </c>
-      <c r="J41" s="72">
+      <c r="J41" s="70">
         <f t="shared" si="2"/>
         <v>0.49974929310871952</v>
       </c>
-      <c r="K41" s="72">
+      <c r="K41" s="70">
         <f t="shared" si="2"/>
         <v>0.49975848972643222</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="71">
+      <c r="A42" s="69">
         <f t="shared" si="3"/>
         <v>3.5000000000000018</v>
       </c>
-      <c r="B42" s="72">
+      <c r="B42" s="70">
         <f t="shared" si="2"/>
         <v>0.49976737092096446</v>
       </c>
-      <c r="C42" s="72">
+      <c r="C42" s="70">
         <f t="shared" si="2"/>
         <v>0.49977594665300895</v>
       </c>
-      <c r="D42" s="72">
+      <c r="D42" s="70">
         <f t="shared" si="2"/>
         <v>0.49978422660070532</v>
       </c>
-      <c r="E42" s="72">
+      <c r="E42" s="70">
         <f t="shared" si="2"/>
         <v>0.49979222016651936</v>
       </c>
-      <c r="F42" s="72">
+      <c r="F42" s="70">
         <f t="shared" si="2"/>
         <v>0.49979993648399268</v>
       </c>
-      <c r="G42" s="72">
+      <c r="G42" s="70">
         <f t="shared" si="2"/>
         <v>0.49980738442436434</v>
       </c>
-      <c r="H42" s="72">
+      <c r="H42" s="70">
         <f t="shared" si="2"/>
         <v>0.49981457260306672</v>
       </c>
-      <c r="I42" s="72">
+      <c r="I42" s="70">
         <f t="shared" si="2"/>
         <v>0.49982150938609515</v>
       </c>
-      <c r="J42" s="72">
+      <c r="J42" s="70">
         <f t="shared" si="2"/>
         <v>0.49982820289625407</v>
       </c>
-      <c r="K42" s="72">
+      <c r="K42" s="70">
         <f t="shared" si="2"/>
         <v>0.49983466101927987</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="71">
+      <c r="A43" s="69">
         <f t="shared" si="3"/>
         <v>3.6000000000000019</v>
       </c>
-      <c r="B43" s="72">
+      <c r="B43" s="70">
         <f t="shared" si="2"/>
         <v>0.49984089140984245</v>
       </c>
-      <c r="C43" s="72">
+      <c r="C43" s="70">
         <f t="shared" si="2"/>
         <v>0.49984690149742628</v>
       </c>
-      <c r="D43" s="72">
+      <c r="D43" s="70">
         <f t="shared" si="2"/>
         <v>0.49985269849209257</v>
       </c>
-      <c r="E43" s="72">
+      <c r="E43" s="70">
         <f t="shared" si="2"/>
         <v>0.49985828939012422</v>
       </c>
-      <c r="F43" s="72">
+      <c r="F43" s="70">
         <f t="shared" si="2"/>
         <v>0.49986368097955425</v>
       </c>
-      <c r="G43" s="72">
+      <c r="G43" s="70">
         <f t="shared" si="2"/>
         <v>0.49986887984557948</v>
       </c>
-      <c r="H43" s="72">
+      <c r="H43" s="70">
         <f t="shared" si="2"/>
         <v>0.49987389237586155</v>
       </c>
-      <c r="I43" s="72">
+      <c r="I43" s="70">
         <f t="shared" si="2"/>
         <v>0.4998787247657146</v>
       </c>
-      <c r="J43" s="72">
+      <c r="J43" s="70">
         <f t="shared" si="2"/>
         <v>0.49988338302318458</v>
       </c>
-      <c r="K43" s="72">
+      <c r="K43" s="70">
         <f t="shared" si="2"/>
         <v>0.49988787297401771</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="71">
+      <c r="A44" s="69">
         <f t="shared" si="3"/>
         <v>3.700000000000002</v>
       </c>
-      <c r="B44" s="72">
+      <c r="B44" s="70">
         <f t="shared" si="2"/>
         <v>0.49989220026652259</v>
       </c>
-      <c r="C44" s="72">
+      <c r="C44" s="70">
         <f t="shared" si="2"/>
         <v>0.49989637037632595</v>
       </c>
-      <c r="D44" s="72">
+      <c r="D44" s="70">
         <f t="shared" si="2"/>
         <v>0.49990038861102404</v>
       </c>
-      <c r="E44" s="72">
+      <c r="E44" s="70">
         <f t="shared" si="2"/>
         <v>0.4999042601147311</v>
       </c>
-      <c r="F44" s="72">
+      <c r="F44" s="70">
         <f t="shared" si="2"/>
         <v>0.49990798987252594</v>
       </c>
-      <c r="G44" s="72">
+      <c r="G44" s="70">
         <f t="shared" si="2"/>
         <v>0.49991158271479919</v>
       </c>
-      <c r="H44" s="72">
+      <c r="H44" s="70">
         <f t="shared" si="2"/>
         <v>0.49991504332150205</v>
       </c>
-      <c r="I44" s="72">
+      <c r="I44" s="70">
         <f t="shared" si="2"/>
         <v>0.49991837622629731</v>
       </c>
-      <c r="J44" s="72">
+      <c r="J44" s="70">
         <f t="shared" si="2"/>
         <v>0.49992158582061641</v>
       </c>
-      <c r="K44" s="72">
+      <c r="K44" s="70">
         <f t="shared" si="2"/>
         <v>0.49992467635762128</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="71">
+      <c r="A45" s="69">
         <f t="shared" si="3"/>
         <v>3.800000000000002</v>
       </c>
-      <c r="B45" s="72">
+      <c r="B45" s="70">
         <f t="shared" si="2"/>
         <v>0.49992765195607491</v>
       </c>
-      <c r="C45" s="72">
+      <c r="C45" s="70">
         <f t="shared" si="2"/>
         <v>0.49993051660412013</v>
       </c>
-      <c r="D45" s="72">
+      <c r="D45" s="70">
         <f t="shared" si="2"/>
         <v>0.49993327416297029</v>
       </c>
-      <c r="E45" s="72">
+      <c r="E45" s="70">
         <f t="shared" si="2"/>
         <v>0.49993592837051115</v>
       </c>
-      <c r="F45" s="72">
+      <c r="F45" s="70">
         <f t="shared" si="2"/>
         <v>0.49993848284481679</v>
       </c>
-      <c r="G45" s="72">
+      <c r="G45" s="70">
         <f t="shared" si="2"/>
         <v>0.49994094108758103</v>
       </c>
-      <c r="H45" s="72">
+      <c r="H45" s="70">
         <f t="shared" si="2"/>
         <v>0.49994330648746577</v>
       </c>
-      <c r="I45" s="72">
+      <c r="I45" s="70">
         <f t="shared" si="2"/>
         <v>0.49994558232336628</v>
       </c>
-      <c r="J45" s="72">
+      <c r="J45" s="70">
         <f t="shared" si="2"/>
         <v>0.49994777176759819</v>
       </c>
-      <c r="K45" s="72">
+      <c r="K45" s="70">
         <f t="shared" si="2"/>
         <v>0.4999498778890038</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="71">
+      <c r="A46" s="69">
         <f t="shared" si="3"/>
         <v>3.9000000000000021</v>
       </c>
-      <c r="B46" s="72">
+      <c r="B46" s="70">
         <f t="shared" si="2"/>
         <v>0.49995190365598241</v>
       </c>
-      <c r="C46" s="72">
+      <c r="C46" s="70">
         <f t="shared" si="2"/>
         <v>0.49995385193944375</v>
       </c>
-      <c r="D46" s="72">
+      <c r="D46" s="70">
         <f t="shared" si="2"/>
         <v>0.4999557255156879</v>
       </c>
-      <c r="E46" s="72">
+      <c r="E46" s="70">
         <f t="shared" si="2"/>
         <v>0.49995752706921126</v>
       </c>
-      <c r="F46" s="72">
+      <c r="F46" s="70">
         <f t="shared" si="2"/>
         <v>0.49995925919544149</v>
       </c>
-      <c r="G46" s="72">
+      <c r="G46" s="70">
         <f t="shared" si="2"/>
         <v>0.49996092440340223</v>
       </c>
-      <c r="H46" s="72">
+      <c r="H46" s="70">
         <f t="shared" si="2"/>
         <v>0.49996252511830896</v>
       </c>
-      <c r="I46" s="72">
+      <c r="I46" s="70">
         <f t="shared" si="2"/>
         <v>0.49996406368409718</v>
       </c>
-      <c r="J46" s="72">
+      <c r="J46" s="70">
         <f t="shared" si="2"/>
         <v>0.49996554236588497</v>
       </c>
-      <c r="K46" s="72">
+      <c r="K46" s="70">
         <f t="shared" si="2"/>
         <v>0.49996696335237056</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="71">
+      <c r="A47" s="69">
         <f t="shared" si="3"/>
         <v>4.0000000000000018</v>
       </c>
-      <c r="B47" s="72">
+      <c r="B47" s="70">
         <f t="shared" ref="B47:K47" si="4">_xlfn.NORM.DIST($A47+B$6,0,1,TRUE)-0.5</f>
         <v>0.49996832875816688</v>
       </c>
-      <c r="C47" s="72">
+      <c r="C47" s="70">
         <f t="shared" si="4"/>
         <v>0.49996964062607341</v>
       </c>
-      <c r="D47" s="72">
+      <c r="D47" s="70">
         <f t="shared" si="4"/>
         <v>0.49997090092928809</v>
       </c>
-      <c r="E47" s="72">
+      <c r="E47" s="70">
         <f t="shared" si="4"/>
         <v>0.49997211157355947</v>
       </c>
-      <c r="F47" s="72">
+      <c r="F47" s="70">
         <f t="shared" si="4"/>
         <v>0.49997327439928052</v>
       </c>
-      <c r="G47" s="72">
+      <c r="G47" s="70">
         <f t="shared" si="4"/>
         <v>0.49997439118352593</v>
       </c>
-      <c r="H47" s="72">
+      <c r="H47" s="70">
         <f t="shared" si="4"/>
         <v>0.4999754636420336</v>
       </c>
-      <c r="I47" s="72">
+      <c r="I47" s="70">
         <f t="shared" si="4"/>
         <v>0.49997649343113137</v>
       </c>
-      <c r="J47" s="72">
+      <c r="J47" s="70">
         <f t="shared" si="4"/>
         <v>0.49997748214961146</v>
       </c>
-      <c r="K47" s="72">
+      <c r="K47" s="70">
         <f t="shared" si="4"/>
         <v>0.49997843134055187</v>
       </c>
